--- a/files/bdPropriedades.xlsx
+++ b/files/bdPropriedades.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG343"/>
+  <dimension ref="A1:BG348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11579,7 +11646,7 @@
       <c r="AG68" t="inlineStr"/>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>Internet 35 mega  pacote básico TV e
+          <t>Internet 250 mega  pacote básico TV e
 Claudio aldo Coelho
 378.650.059-20
 88058-570</t>
@@ -11588,7 +11655,7 @@
       <c r="AI68" t="inlineStr">
         <is>
           <t>Instruções para sua chegada:
-Endereço: Residencial Solar das Bromélias, Rua Brisamar, Ingleses Norte, ao lado da Sorveteria Monte Pelmo (o condomínio, por ser novo, não possui número). O apartamento é o de número 203. Veja a localização no google maps abaixo:
+Endereço: Residencial Solar das Bromélias, Rua Brisamar350, Ingleses Norte, ao lado da Sorveteria Monte Pelmo. O apartamento é o de número 203. Veja a localização no google maps abaixo:
 Link no Google Maps: https://goo.gl/maps/mujX2sMKimiYjpwJ9
 Para quem chega a pé no Solar das Bromelias, a entrada é feita pela porta de pedestres com a TAG em seu chaveiro, tanto na porta do condomínio quanto do hall de entrada. Na hora de sair do prédio, você deve apertar os 2 botões ao lado da porta do hall, que abrirá a porta do hall e o portão de pedestres na entrada do condomínio.
 A entrada da garagem é acionada por controle que você recebeu juntamente com a chave do apartamento. O portão da garagem é o que fica mais próximo da sorveteria monte pelmo. A vaga está demarcada com o número do apartamento, como você pode ver no vídeo enviado. Há espaço para 2 carros na garagem.
@@ -11598,8 +11665,8 @@
 - ao chegar da praia, você deve primeiro limpar *e secar* os pés na ducha que tem ao lado da parte de dentro da entrada do prédio. 
 - a piscina pode ser utilizada, mas é necessário tomar a ducha antes de entrar na água. 
 Internet 
-Rede wifi: d73572 
-Senha wifi: 263710464
+Rede wifi: LUXO
+Senha wifi: anfitrioes8
 Ficamos a sua disposição!</t>
         </is>
       </c>
@@ -26446,7 +26513,7 @@
       </c>
       <c r="BC158" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/ABC?expires_on=1646914594&amp;signature=IE5upvAA%2FiLw96GnaLHu4MoYR8pONNGiM2QGqiFGZxc%3D", "https://app-storage-service.pipefy.com/v1/signed/ABCDE?expires_on=1646914594&amp;signature=XuspGvo1Wsd5kSf%2FCKC4FojtEO7bgISufQoXi6AnsgI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/ABC?expires_on=1648559529&amp;signature=WRwuR8sj5eKR6rf7gt0bW7ORFTjX1RIypT4kZramT9I%3D", "https://app-storage-service.pipefy.com/v1/signed/ABCDE?expires_on=1648559529&amp;signature=lArZoqK70vHF%2BrS1hlspbCk30X80smQzWHmT5AXzZuw%3D"]</t>
         </is>
       </c>
       <c r="BD158" t="inlineStr"/>
@@ -27669,7 +27736,7 @@
       </c>
       <c r="BC165" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/942fbdb8-4a78-4eaa-bc3a-b672778dc32a/ContratodePrestaodeServios-FernandaGntherRamos.docx-Clicksign.pdf?expires_on=1646914594&amp;signature=XUepKn9Pt1HL2M4zVC8so6WT%2F2Kd9WjS30JGAcvdGe8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/942fbdb8-4a78-4eaa-bc3a-b672778dc32a/ContratodePrestaodeServios-FernandaGntherRamos.docx-Clicksign.pdf?expires_on=1648559529&amp;signature=Qdy%2F3Krbanb2Wa%2Ft5G%2FYmduWGIBbSepJT5a%2FGJguJB4%3D"]</t>
         </is>
       </c>
       <c r="BD165" t="inlineStr">
@@ -27813,7 +27880,7 @@
       <c r="BB166" t="inlineStr"/>
       <c r="BC166" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/b061a5be-d1e8-46ad-af97-43cf33016a73/137b5472-bca7-4d3e-b7b1-5c7875bd1016.pdf?expires_on=1646914594&amp;signature=hQe2GnPX3c6Dtc1DNK2aw4hB6p9jy8YI0awh279GH50%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/b061a5be-d1e8-46ad-af97-43cf33016a73/137b5472-bca7-4d3e-b7b1-5c7875bd1016.pdf?expires_on=1648559529&amp;signature=9JKLpQyf0xN38oO%2FHbRDosFY7Gcp2em7KeB2U1JI7FA%3D"]</t>
         </is>
       </c>
       <c r="BD166" t="inlineStr"/>
@@ -28072,7 +28139,7 @@
       </c>
       <c r="BC167" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6e707ef8-7dca-4af6-b576-b5708dbe35f2/contrato-425891064.pdf%3Fexpires_on%3D1623440918%26signature%3DH%252B7vFkDAMFrCkFxxnfe3iZhJuDjE6Ji9ayX0IW7wqWg%253D?expires_on=1646914594&amp;signature=HOiTRtk8tPwn6Z4bexUwfrEM8D5%2Bprrq17pN3lXdh8s%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6e707ef8-7dca-4af6-b576-b5708dbe35f2/contrato-425891064.pdf%3Fexpires_on%3D1623440918%26signature%3DH%252B7vFkDAMFrCkFxxnfe3iZhJuDjE6Ji9ayX0IW7wqWg%253D?expires_on=1648559529&amp;signature=Z%2B8l4rQM2a3cH9kRx%2FoQBpiA7JUA2ZXquvqT6ZEHxkI%3D"]</t>
         </is>
       </c>
       <c r="BD167" t="inlineStr">
@@ -28323,7 +28390,7 @@
       </c>
       <c r="BC168" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7463fe03-ae0a-49dc-a080-7fc81e3e1006/contrato-427292869.pdf%3Fexpires_on%3D1623960718%26signature%3Dcej2yiGIlavCGx%252Br35mL%252B%252FVGRlWpxUigua3OGSKjjZE%253D?expires_on=1646914594&amp;signature=Qggb1sUSZeVKiWUtN1E%2F8bBwQ%2BqnQBoFFZeonRFxnzw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7463fe03-ae0a-49dc-a080-7fc81e3e1006/contrato-427292869.pdf%3Fexpires_on%3D1623960718%26signature%3Dcej2yiGIlavCGx%252Br35mL%252B%252FVGRlWpxUigua3OGSKjjZE%253D?expires_on=1648559529&amp;signature=SqzTLT1UtvQCSM%2BCnaEcrpYaleBySZb6nBsQdlhexkI%3D"]</t>
         </is>
       </c>
       <c r="BD168" t="inlineStr">
@@ -28590,7 +28657,7 @@
       </c>
       <c r="BC169" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2d1ab0da-2b53-4bd9-94b7-c6cc404689eb/contrato-429090864.pdf%3Fexpires_on%3D1624889479%26signature%3Dldz84sarHfUeXn4JANpNsV1OClSz7p3wOQuqPXKR04s%253D?expires_on=1646914594&amp;signature=cd7qVTTgG5cMYLOWtkNuxWe4rLl3vMRxSfTP18JBB28%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2d1ab0da-2b53-4bd9-94b7-c6cc404689eb/contrato-429090864.pdf%3Fexpires_on%3D1624889479%26signature%3Dldz84sarHfUeXn4JANpNsV1OClSz7p3wOQuqPXKR04s%253D?expires_on=1648559529&amp;signature=RquFwAsZxxIhxHMh%2BtJiByqW6sP%2FBA1WRoN%2Baiyb5b8%3D"]</t>
         </is>
       </c>
       <c r="BD169" t="inlineStr">
@@ -28827,7 +28894,7 @@
       </c>
       <c r="BC170" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe7fd7ac-b7b0-4234-976c-06a099d57e66/contrato-429948126.pdf%3Fexpires_on%3D1625255326%26signature%3DxJw9VGgJ%252B2ZCQa5hryj6yKghV5%252F2SK1kJmopwqyWxiI%253D?expires_on=1646914594&amp;signature=67TAqOerxaV%2B7ntG%2BGITS0GFOv94fKgDPowCm9%2FUT7o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe7fd7ac-b7b0-4234-976c-06a099d57e66/contrato-429948126.pdf%3Fexpires_on%3D1625255326%26signature%3DxJw9VGgJ%252B2ZCQa5hryj6yKghV5%252F2SK1kJmopwqyWxiI%253D?expires_on=1648559529&amp;signature=t7e%2FmxLt%2BauQVCTgDVPN4yD8Pl6Yw7PyBrI6N2KFEEM%3D"]</t>
         </is>
       </c>
       <c r="BD170" t="inlineStr"/>
@@ -29076,7 +29143,7 @@
       </c>
       <c r="BC171" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5fb8a3a0-9b8a-493a-84b4-c584645633be/contrato-427900081.pdf%3Fexpires_on%3D1625765431%26signature%3DdDNYpd8xXNK9k6sTH%252B5Vf61abvFBWQyEogRVXyWEF38%253D?expires_on=1646914594&amp;signature=TYfhlOpPafbTpKJXQzbUV33lRY7l9pw6XLy9N4bmBqY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5fb8a3a0-9b8a-493a-84b4-c584645633be/contrato-427900081.pdf%3Fexpires_on%3D1625765431%26signature%3DdDNYpd8xXNK9k6sTH%252B5Vf61abvFBWQyEogRVXyWEF38%253D?expires_on=1648559529&amp;signature=HzH1AfQhv%2B1WWHxbebJGd%2B%2BcP8oSjxOVGS1HbdjJsio%3D"]</t>
         </is>
       </c>
       <c r="BD171" t="inlineStr"/>
@@ -29335,7 +29402,7 @@
       </c>
       <c r="BC172" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/af097ee8-0fcc-48c3-9c72-fc4e59e6e4dd/contrato-432148485.pdf%3Fexpires_on%3D1626287144%26signature%3DjBXlVDH%252Fmh1YkeFRx%252BiO5ruKohAY72xxgMoE2xZE1Wo%253D?expires_on=1646914594&amp;signature=Ia69vKik3ZYhWrQUR2DUdp2oqGDAf1Aqw%2FEmJRp0bvk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/af097ee8-0fcc-48c3-9c72-fc4e59e6e4dd/contrato-432148485.pdf%3Fexpires_on%3D1626287144%26signature%3DjBXlVDH%252Fmh1YkeFRx%252BiO5ruKohAY72xxgMoE2xZE1Wo%253D?expires_on=1648559529&amp;signature=u7xiyNpFEr4O%2Bvt6j0znRt%2FUGmO78VesEvVJ%2F58WXwk%3D"]</t>
         </is>
       </c>
       <c r="BD172" t="inlineStr">
@@ -29578,7 +29645,7 @@
       </c>
       <c r="BC173" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/30abc82b-01aa-4c80-b09c-3417c8bcf5c6/contrato-427882033.pdf%3Fexpires_on%3D1625843728%26signature%3DWunisUkxaFmldxCGSe1qYUsXgLxvmaQqX92dcxV0v6U%253D?expires_on=1646914594&amp;signature=VgYQL89XCdqZVERlQkpEhdZK83gnMdryodoIaIy8nPU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/30abc82b-01aa-4c80-b09c-3417c8bcf5c6/contrato-427882033.pdf%3Fexpires_on%3D1625843728%26signature%3DWunisUkxaFmldxCGSe1qYUsXgLxvmaQqX92dcxV0v6U%253D?expires_on=1648559529&amp;signature=9NuYY0JSjDPJB%2Fbt0hrvEJRp0FyftgxM%2FeW%2BtLk4Ff8%3D"]</t>
         </is>
       </c>
       <c r="BD173" t="inlineStr"/>
@@ -29871,7 +29938,7 @@
       </c>
       <c r="BC174" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5147bb95-e4e2-40b7-a231-9ce07b7e9eb2/ContratodePrestaodeServios-SimaraNienktterDeVincenzi.docx-Clicksign.pdf?expires_on=1646914594&amp;signature=rBhVHidEbzg1HE8Zr4M8j%2FXWJXy6l6w6bgC0waUVu6Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5147bb95-e4e2-40b7-a231-9ce07b7e9eb2/ContratodePrestaodeServios-SimaraNienktterDeVincenzi.docx-Clicksign.pdf?expires_on=1648559529&amp;signature=UlGikERpmm%2Bt3I9DGisviKTfXvbOL%2BcjfBHXPG5quMQ%3D"]</t>
         </is>
       </c>
       <c r="BD174" t="inlineStr">
@@ -30123,7 +30190,7 @@
       </c>
       <c r="BC175" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcbf1b01-f9cc-40dd-aa45-3d0db4f114c0/contrato-434036046.pdf%3Fexpires_on%3D1627137690%26signature%3DGwEpmsayu1pxiiZsYfPw7QnthQ1n2Ma51QUGqr9RdBE%253D?expires_on=1646914594&amp;signature=%2F5qo779ADLD610X3nByBu2HHsBCxCIpKlTlK1sVB5dc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcbf1b01-f9cc-40dd-aa45-3d0db4f114c0/contrato-434036046.pdf%3Fexpires_on%3D1627137690%26signature%3DGwEpmsayu1pxiiZsYfPw7QnthQ1n2Ma51QUGqr9RdBE%253D?expires_on=1648559529&amp;signature=e73Vixt5Er7k3TTedpeFJepgLxnGuyqGbwS3A%2BuMqa0%3D"]</t>
         </is>
       </c>
       <c r="BD175" t="inlineStr">
@@ -30370,7 +30437,7 @@
       </c>
       <c r="BC176" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/56f554bd-1778-4f13-9495-4f6815681e8c/contrato-434347806.pdf%3Fexpires_on%3D1627584670%26signature%3Da0WChkMJKoLURnVR9sdzC0kh9gdvBeWirdlqzivbRW8%253D?expires_on=1646914594&amp;signature=VatzLr8bPDTMXuXlylkNrOb3URKt5yF%2Fe9LeHh2%2BMbc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/56f554bd-1778-4f13-9495-4f6815681e8c/contrato-434347806.pdf%3Fexpires_on%3D1627584670%26signature%3Da0WChkMJKoLURnVR9sdzC0kh9gdvBeWirdlqzivbRW8%253D?expires_on=1648559529&amp;signature=NTLV%2FSQRW%2B6grpArX%2FuFV0i0Gt7rGl7jxw07hAtXPPc%3D"]</t>
         </is>
       </c>
       <c r="BD176" t="inlineStr">
@@ -30525,7 +30592,7 @@
       <c r="BB177" t="inlineStr"/>
       <c r="BC177" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dd480bd1-24df-47c1-8362-f6d01dc13878/contrato-431619440.pdf%3Fexpires_on%3D1626806287%26signature%3DX%252BQo2ROzmN1g11xdVnjwNzA9AO8So6FNK63W3LSVFRk%253D?expires_on=1646914594&amp;signature=wt9%2BVuuAOHNOIbmAMgOTqud2rNALEKYy2jSmdf3cDDc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dd480bd1-24df-47c1-8362-f6d01dc13878/contrato-431619440.pdf%3Fexpires_on%3D1626806287%26signature%3DX%252BQo2ROzmN1g11xdVnjwNzA9AO8So6FNK63W3LSVFRk%253D?expires_on=1648559529&amp;signature=kYMG%2FEDkovegJo2x9WFLblIzpTJcsogl%2FHcbiUEWk4o%3D"]</t>
         </is>
       </c>
       <c r="BD177" t="inlineStr"/>
@@ -30766,7 +30833,7 @@
       </c>
       <c r="BC178" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c059f4c0-df75-4770-9787-1a7b51acd3d6/contrato-429083283.pdf%3Fexpires_on%3D1624900895%26signature%3DYV5mzzGOKZVF6rsAxzjjCexGrpZOTEIr7P5aufh42KA%253D?expires_on=1646914594&amp;signature=TfNqMe19J3Z9Bz1WfZbZOQqDRY%2F%2FUePad57572L2L0o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c059f4c0-df75-4770-9787-1a7b51acd3d6/contrato-429083283.pdf%3Fexpires_on%3D1624900895%26signature%3DYV5mzzGOKZVF6rsAxzjjCexGrpZOTEIr7P5aufh42KA%253D?expires_on=1648559529&amp;signature=%2FmXNNu3BHMvHlRhlnKjAJUtNPH2TxxN%2FlfJoNtRwIQg%3D"]</t>
         </is>
       </c>
       <c r="BD178" t="inlineStr">
@@ -31000,7 +31067,7 @@
       </c>
       <c r="BC179" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/91627539-8586-440f-b672-b7e9ff622c0c/contrato-434769973.pdf%3Fexpires_on%3D1627498777%26signature%3DijkPOWC4AUifANru83whyxhdbyzoiBEOt81CfvEywB4%253D?expires_on=1646914594&amp;signature=4JdSgTlzSCcB9WF%2FH8aCODHNwBggwRoJIyaNE%2FE9jO8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/91627539-8586-440f-b672-b7e9ff622c0c/contrato-434769973.pdf%3Fexpires_on%3D1627498777%26signature%3DijkPOWC4AUifANru83whyxhdbyzoiBEOt81CfvEywB4%253D?expires_on=1648559529&amp;signature=ozFJ3%2BXMTsZ8xiqcH5SVhVP6uE0PonrZI%2BrcXq9CNRM%3D"]</t>
         </is>
       </c>
       <c r="BD179" t="inlineStr"/>
@@ -31215,7 +31282,7 @@
       </c>
       <c r="BC180" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/7b2af0b1-8da1-496d-85fa-d8e9e54839bb/contratoassinado-lucianaborgesdeandrade.pdf?expires_on=1646914594&amp;signature=Xl3c1t%2Bv%2FnjulK2eOzj2ZWaSEt3psic%2BGPHAFoNEjVg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/7b2af0b1-8da1-496d-85fa-d8e9e54839bb/contratoassinado-lucianaborgesdeandrade.pdf?expires_on=1648559529&amp;signature=TMwjNYtBBxpUcQwRE9JpGH8ntqPpkE1U7gbTJ1FCFRY%3D"]</t>
         </is>
       </c>
       <c r="BD180" t="inlineStr">
@@ -31506,7 +31573,7 @@
       </c>
       <c r="BC181" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d54f227-d57d-4a8a-a3a0-2e960779f2c8/contrato-435529658.pdf?expires_on=1646914594&amp;signature=%2FpnZcjynXUd6jbfYXhlC1nHf9TFPHC3acWWnFoH7Mj0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d54f227-d57d-4a8a-a3a0-2e960779f2c8/contrato-435529658.pdf?expires_on=1648559529&amp;signature=nJSp%2BGdTwzEsQioijJYJT%2BSHSv680NpVcEW3bhV1pXg%3D"]</t>
         </is>
       </c>
       <c r="BD181" t="inlineStr">
@@ -31766,7 +31833,7 @@
       </c>
       <c r="BC182" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b9e771c-b6dd-463d-8053-96db50e18e18/contrato-437964316.pdf?expires_on=1646914594&amp;signature=EWexE%2FM5EyHm7elqDAmk%2BlAvQdavPpuEaCVQaPxpTN4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b9e771c-b6dd-463d-8053-96db50e18e18/contrato-437964316.pdf?expires_on=1648559529&amp;signature=xJN1gxJu2hvSzIYRpPMxM7FMFW3yTSUIE%2FrguHJE8MQ%3D"]</t>
         </is>
       </c>
       <c r="BD182" t="inlineStr">
@@ -32015,7 +32082,7 @@
       </c>
       <c r="BC183" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/66dadf4f-05a0-4bf9-a2b8-b76509a7ef6f/contrato-439522222.pdf?expires_on=1646914594&amp;signature=AwWCX93nVWu%2BKTzbB1bdgmGZyQ7TI92jqVQIDgWTAco%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/66dadf4f-05a0-4bf9-a2b8-b76509a7ef6f/contrato-439522222.pdf?expires_on=1648559529&amp;signature=q9N4UFwRnH25U8ZQ6wAa3J7CbQ81FPgzENM%2Fn325%2FXw%3D"]</t>
         </is>
       </c>
       <c r="BD183" t="inlineStr">
@@ -32259,7 +32326,7 @@
       </c>
       <c r="BC184" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1489b03e-8800-48fd-b40d-c7742f01c5a0/contrato-437920461.pdf?expires_on=1646914594&amp;signature=Jhfa6p9RdmnCtYQUitF63jL7x4t5gXamUhSu71ZR9O4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1489b03e-8800-48fd-b40d-c7742f01c5a0/contrato-437920461.pdf?expires_on=1648559529&amp;signature=0actOthTtcdk66%2FPhhA5NFszr2mi4ZCCrLH0vHWC5H4%3D"]</t>
         </is>
       </c>
       <c r="BD184" t="inlineStr">
@@ -32738,7 +32805,7 @@
       </c>
       <c r="BC186" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/cf81d109-c1d8-4a70-8083-1c9d2bf5fe38/e44f54b2-392f-42dc-801b-acde1c0429ac.pdf?expires_on=1646914594&amp;signature=gAoiURz7P9mQ3Cu60n9anvi9WDnH%2F0ppAc4QzOw2SRk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/cf81d109-c1d8-4a70-8083-1c9d2bf5fe38/e44f54b2-392f-42dc-801b-acde1c0429ac.pdf?expires_on=1648559529&amp;signature=mw2f%2FAVjEpUP4uBDoa8se5yeNCteWM%2Bl%2FmCsBOsvZXU%3D"]</t>
         </is>
       </c>
       <c r="BD186" t="inlineStr">
@@ -33006,7 +33073,7 @@
       </c>
       <c r="BC187" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ec6e75ec-6fc2-4bb8-8a48-67e8bff5a3b0/contrato-441094756.pdf?expires_on=1646914594&amp;signature=pPuHoKHKm%2B%2By1QJN6JqOOCrFpmQZgcP%2Fte1Uy6qDlK8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ec6e75ec-6fc2-4bb8-8a48-67e8bff5a3b0/contrato-441094756.pdf?expires_on=1648559529&amp;signature=WSpASpO434c%2BYZkAXXKy%2BJsSsZwrQdUKxWgVwJ%2BTMz4%3D"]</t>
         </is>
       </c>
       <c r="BD187" t="inlineStr">
@@ -33285,7 +33352,7 @@
       </c>
       <c r="BC188" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/6b680cd9-f9cb-480d-b832-ec82db539fd2/2021-08-1916.24.36.pdf?expires_on=1646914594&amp;signature=fO5YN04M%2FhRDlzYr%2BnvMFi8TxKFbho6uZht64QbVkfA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/6b680cd9-f9cb-480d-b832-ec82db539fd2/2021-08-1916.24.36.pdf?expires_on=1648559529&amp;signature=RpEFofAuRKgzwpadfUaxQaqNUwQ%2BTnFR3%2FpFa1AZEFA%3D"]</t>
         </is>
       </c>
       <c r="BD188" t="inlineStr">
@@ -33575,7 +33642,7 @@
       </c>
       <c r="BC189" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe3b7b54-c5c7-4049-bae3-82911668f608/contrato-439559244.pdf?expires_on=1646914594&amp;signature=nwUKIB%2BmJ853E%2FtlsowR%2FU1VGZQTBpcWNTySRa9h6iI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe3b7b54-c5c7-4049-bae3-82911668f608/contrato-439559244.pdf?expires_on=1648559529&amp;signature=9DAEoePE1rVKIMJw8yRYzWdxfxxgpyQQ8wzQUhloMUQ%3D"]</t>
         </is>
       </c>
       <c r="BD189" t="inlineStr">
@@ -33785,7 +33852,7 @@
       <c r="BB190" t="inlineStr"/>
       <c r="BC190" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81869067-48c9-4988-a646-2002e1d9f879/contrato-439323822.pdf?expires_on=1646914594&amp;signature=EAX9ZjiE2Beq2ogAOUt6ZsZSLDAOfdDi2M3m4Famh%2FQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81869067-48c9-4988-a646-2002e1d9f879/contrato-439323822.pdf?expires_on=1648559529&amp;signature=sgo%2BpJGOuo6hb7ate12UWk2xJCQFsFdXs12rdwf8UQg%3D"]</t>
         </is>
       </c>
       <c r="BD190" t="inlineStr"/>
@@ -34038,7 +34105,7 @@
       </c>
       <c r="BC191" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/83097272-bb98-4fab-8e6c-5171b917b7bc/contrato-442349549.pdf?expires_on=1646914594&amp;signature=1ZvkhUQ2LY8ij37JvbQ6wsdPjiMPRenJOmmwtv3sl7Q%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/83097272-bb98-4fab-8e6c-5171b917b7bc/contrato-442349549.pdf?expires_on=1648559529&amp;signature=0oFieVMYVp%2B9uNRYY%2BLC2udiCFcLuL81dynI2srctoQ%3D"]</t>
         </is>
       </c>
       <c r="BD191" t="inlineStr">
@@ -34275,7 +34342,7 @@
       </c>
       <c r="BC192" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d6f47531-1ce2-4669-b6ec-210062c71ae6/contrato-442351375.pdf?expires_on=1646914594&amp;signature=Q0fqO0M5bhYj2ZFfuaOaQ5oS8LJR5X31p2OoMAlF6Cs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d6f47531-1ce2-4669-b6ec-210062c71ae6/contrato-442351375.pdf?expires_on=1648559529&amp;signature=xr73HBs2D2WoJjwHN7g3uqhDJop5jmH403IHwWTpbFE%3D"]</t>
         </is>
       </c>
       <c r="BD192" t="inlineStr"/>
@@ -34534,7 +34601,7 @@
       </c>
       <c r="BC193" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/718c3f16-e707-47f7-b7b8-adf73ef7d849/2d36fee3-29d8-40df-9573-ecbc71c32e64.pdf?expires_on=1646914594&amp;signature=dVxjgVNNs%2F4ggb%2Fp1t8d7MpetQ6nokN1K2F4urSUb4w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/718c3f16-e707-47f7-b7b8-adf73ef7d849/2d36fee3-29d8-40df-9573-ecbc71c32e64.pdf?expires_on=1648559529&amp;signature=K3VichQfdNzN4NU6YBOZl1LKR8YWYMMppsP9Z2%2Fg1gA%3D"]</t>
         </is>
       </c>
       <c r="BD193" t="inlineStr">
@@ -34798,7 +34865,7 @@
       </c>
       <c r="BC194" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/2ff5167b-01a9-4a8e-aee5-bcdc9a653493/acdd05cd-b3c7-4cc7-8869-b4c0e537e0e5janice.pdf?expires_on=1646914594&amp;signature=bsjE7WXb9oXbFRhWk1rnTei7cWKs%2FInvv9nSknU0kmo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/2ff5167b-01a9-4a8e-aee5-bcdc9a653493/acdd05cd-b3c7-4cc7-8869-b4c0e537e0e5janice.pdf?expires_on=1648559529&amp;signature=cMU%2FmXE24GFK5tEpnnhLnPD0Pvi%2BUMzqTu1TBuM4vLo%3D"]</t>
         </is>
       </c>
       <c r="BD194" t="inlineStr">
@@ -35084,7 +35151,7 @@
       </c>
       <c r="BC195" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6975acfc-3be1-44c9-a5e4-eeea40e17af4/contrato-444677776.pdf?expires_on=1646914594&amp;signature=yNgnz7ESQOku2GTxxRvJUw4CpLylMu%2Bq6dJXHZpmxyY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6975acfc-3be1-44c9-a5e4-eeea40e17af4/contrato-444677776.pdf?expires_on=1648559529&amp;signature=obRwjfyFZ8Ulq0c%2ButlAQwpQQoPQFd2GYY0KosggBf0%3D"]</t>
         </is>
       </c>
       <c r="BD195" t="inlineStr">
@@ -35235,7 +35302,7 @@
       <c r="BB196" t="inlineStr"/>
       <c r="BC196" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0d54ecd7-4899-4b35-9678-2b69417a43a8/8cafda5f-92c7-4f67-822f-93419ae54358geraldo.pdf?expires_on=1646914594&amp;signature=SciQ2%2B99jZJpEZRwdGgviSGtJk1LUqulQkFzVda%2FkXg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0d54ecd7-4899-4b35-9678-2b69417a43a8/8cafda5f-92c7-4f67-822f-93419ae54358geraldo.pdf?expires_on=1648559529&amp;signature=KKkmormndeB4HcNLa90fAQl0HSuKuK9SIG%2FzMXQc2bk%3D"]</t>
         </is>
       </c>
       <c r="BD196" t="inlineStr"/>
@@ -35382,7 +35449,7 @@
       <c r="BB197" t="inlineStr"/>
       <c r="BC197" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b989e586-52a1-4d30-9970-23ba445ce0ad/contrato-446146720.pdf?expires_on=1646914594&amp;signature=BeAUpY2QjfWnwL%2FZtibUhnq6Wv8UMQpyBct6o1Ss8HA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b989e586-52a1-4d30-9970-23ba445ce0ad/contrato-446146720.pdf?expires_on=1648559529&amp;signature=Lc9qtIcMjnGHKn1QRHhSnTg8N2of5Lnb10syxSBhCuI%3D"]</t>
         </is>
       </c>
       <c r="BD197" t="inlineStr"/>
@@ -35644,7 +35711,7 @@
       </c>
       <c r="BC198" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1646914594&amp;signature=a1lzU9ixAWsvgxkkLoUzalWfMXhxdV6aAiFls8EFvzg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648559529&amp;signature=%2F2wA3i78bZZgBtfqaPNdzvaIDl3vIW%2Bu0VO3Kp03Ak0%3D"]</t>
         </is>
       </c>
       <c r="BD198" t="inlineStr">
@@ -35893,7 +35960,7 @@
       </c>
       <c r="BC199" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1646914594&amp;signature=a1lzU9ixAWsvgxkkLoUzalWfMXhxdV6aAiFls8EFvzg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648559529&amp;signature=%2F2wA3i78bZZgBtfqaPNdzvaIDl3vIW%2Bu0VO3Kp03Ak0%3D"]</t>
         </is>
       </c>
       <c r="BD199" t="inlineStr">
@@ -36161,7 +36228,7 @@
       </c>
       <c r="BC200" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9e4b6be5-e3f9-49ba-ab05-103919b8c104/contrato-446643171.pdf?expires_on=1646914594&amp;signature=qjJRNrDRwc46137viS7ARjy4IB8ADefATcZxBGsP3RM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9e4b6be5-e3f9-49ba-ab05-103919b8c104/contrato-446643171.pdf?expires_on=1648559529&amp;signature=q9wdMzbCzaRXIevgvGRF4i%2BTgiB6AuGvRhJyzTe%2BXb8%3D"]</t>
         </is>
       </c>
       <c r="BD200" t="inlineStr">
@@ -36453,7 +36520,7 @@
       </c>
       <c r="BC201" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/d37b0cc9-87d9-4abf-92ef-aa19b5feefa5/2436003b-297f-4c3d-9ed4-c941874c27aa.pdf?expires_on=1646914594&amp;signature=dNXiMi8brZGcEQsXw3lnftj8134CyzJvESscCN342I0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/d37b0cc9-87d9-4abf-92ef-aa19b5feefa5/2436003b-297f-4c3d-9ed4-c941874c27aa.pdf?expires_on=1648559529&amp;signature=BDCVHGXqmIGI7kxCaXj5Aqvb%2FdZuiIjo7M8da39e8nI%3D"]</t>
         </is>
       </c>
       <c r="BD201" t="inlineStr">
@@ -36608,7 +36675,7 @@
       <c r="BB202" t="inlineStr"/>
       <c r="BC202" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8f79ebec-7a55-4ae1-9cc0-d0c89818cd27/contrato-447777761.pdf?expires_on=1646914596&amp;signature=%2FTyOzputX18jzSK4JTn3nIJfQ6G8Kd4HSe6MkNFfMxU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8f79ebec-7a55-4ae1-9cc0-d0c89818cd27/contrato-447777761.pdf?expires_on=1648559531&amp;signature=nl5a%2Beapt9sBZlyqwBfTGWJDGiu0sXkOy88%2BfC8zdnk%3D"]</t>
         </is>
       </c>
       <c r="BD202" t="inlineStr"/>
@@ -36885,7 +36952,7 @@
       </c>
       <c r="BC203" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6cc22b94-946a-4d03-be66-61a857bf8992/contrato-446865281.pdf?expires_on=1646914596&amp;signature=kSl9FboUrexsdzbnLiKw8Ya7jKIdHay89dN0XmL6dKo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6cc22b94-946a-4d03-be66-61a857bf8992/contrato-446865281.pdf?expires_on=1648559531&amp;signature=D%2BD8eU9f8pgFJPxZTBCRw%2BVtKsXf8w%2FwyR01UQfy0nk%3D"]</t>
         </is>
       </c>
       <c r="BD203" t="inlineStr">
@@ -37155,7 +37222,7 @@
       </c>
       <c r="BC204" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fc0b1db7-3d03-42ee-8848-caa5f3d8f78e/contrato-448445335.pdf?expires_on=1646914596&amp;signature=hGwyyusLqRcIUKeaa2R7aFFCq2xz6tW44Sa8t2A6%2BEs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fc0b1db7-3d03-42ee-8848-caa5f3d8f78e/contrato-448445335.pdf?expires_on=1648559531&amp;signature=9m8A%2BvxiypVxzIYtILaVtrnQNNJGiFCMUi8sMA87qSo%3D"]</t>
         </is>
       </c>
       <c r="BD204" t="inlineStr">
@@ -37415,7 +37482,7 @@
       </c>
       <c r="BC205" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b70de362-7734-4f1d-a397-2a0361104da4/contrato-447779663.pdf?expires_on=1646914596&amp;signature=vuydmlgRCFLUdnvSwxtic7FVdwFaw9eOu8iTakIWzGY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b70de362-7734-4f1d-a397-2a0361104da4/contrato-447779663.pdf?expires_on=1648559531&amp;signature=25DiCf%2F2Fl9xzkIqGH%2B8sB74zSepj2TAWoHIyyppJvg%3D"]</t>
         </is>
       </c>
       <c r="BD205" t="inlineStr">
@@ -37571,7 +37638,7 @@
       <c r="BB206" t="inlineStr"/>
       <c r="BC206" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bc14413-62ec-4bc0-a8f4-031faa544a3e/contrato-446133701.pdf?expires_on=1646914596&amp;signature=%2BZWxXy6e1KyUf7lozdCOAs37hCgF9whfWJfJyrHrPUk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bc14413-62ec-4bc0-a8f4-031faa544a3e/contrato-446133701.pdf?expires_on=1648559531&amp;signature=au39E%2Bdyjt3wkB0EImiAmhkjnnOlujyNhWEgg4NfcqM%3D"]</t>
         </is>
       </c>
       <c r="BD206" t="inlineStr"/>
@@ -37718,7 +37785,7 @@
       <c r="BB207" t="inlineStr"/>
       <c r="BC207" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a077aec9-8235-4ef6-8ecb-537af75da48b/contrato-441118408.pdf?expires_on=1646914596&amp;signature=oPVQqEnggNn%2FYzytEvR9W4fcKvLgfP%2BPbsx%2B2HSlw0c%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a077aec9-8235-4ef6-8ecb-537af75da48b/contrato-441118408.pdf?expires_on=1648559531&amp;signature=GtoGtFI4k9QWN2sq2ydz7F49HYK8fNwU%2F1TbTnUZABM%3D"]</t>
         </is>
       </c>
       <c r="BD207" t="inlineStr"/>
@@ -37820,7 +37887,12 @@
       <c r="Y208" t="inlineStr"/>
       <c r="Z208" t="inlineStr"/>
       <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>Gadelha
+gade1964</t>
+        </is>
+      </c>
       <c r="AC208" t="inlineStr"/>
       <c r="AD208" t="inlineStr"/>
       <c r="AE208" t="inlineStr">
@@ -37839,7 +37911,36 @@
         </is>
       </c>
       <c r="AH208" t="inlineStr"/>
-      <c r="AI208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr">
+        <is>
+          <t>Para chegar: 
+Para acessar o Bloco 3, Ap 102 do Thai Beach Home Spa o endereço é: 
+Servidão Catavento, nº 690 e a localização é https://goo.gl/maps/B8KLeavwhuyxGTHMA
+Para entrar:
+Use a 'tag' para entrar pelo portão de pedestres da Servidão Catavento, acessar o bloco 3 e as áreas comuns do condomínio.
+Para abrir a porta do apartamento 102 do Bloco 3 utilize a combinação xxxxxxx#
+A vaga de garagem para estacionar é a de número 119 e a homebox onde poderá pegar ombrelone e cadeiras de praia emprestadas é a de número  113 (quase em frente a vaga de garagem)
+USA
+Good afternoon, NAME!
+My name is Aurélio, I am your host at Anfitriões de Aluguel team. Nice to meet you!
+Our team are responsible for your booking in Florianópolis, which starts on (alterar data)March 13, 2022.
+Thank you very much for booking with us, it will be a pleasure to welcome you to our accommodation.
+We will prepare a clean and pleasant place to receive you, with 1 bed and bath linen kit per person.
+Please note that our check-in starts at (ALTERAR HORARIO)15:00 (3pm).
+Important: if you plan to bring electronic equipment, the regional power grid voltage is 220 volts.
+I would kindly ask you to confer our house rules for a good enjoyment of your stay and complete the National Guest Registration Form at this link: https://conteudo.anfitrioesdealuguel.com.br/cadastro-de-hospedes?cod-reserva=A169-3508618532-172
+In order to receive you at the proper time, please, let me know your estimated arrival time when you define it.
+We look forward to hearing from you.
+Cheers!
+To get:
+To access Block 3, Ap 102 of the Thai Beach Home Spa the address is:
+Serdão Catavento, nº 690 and the location is https://goo.gl/maps/B8KLeavwhuyxGTHMA
+To enter:
+Use the 'tag' to enter through the pedestrian gate of Servidão Catavento, access block 3 and the common areas of the condominium.
+To open the door of apartment 102 in Block 3 use the combination (alterar para nova senha)2768136#
+the parking space is number 119 and the homebox where you can borrow umbrellas and beach chairs is number 113 (almost in front of the parking space).</t>
+        </is>
+      </c>
       <c r="AJ208" t="inlineStr"/>
       <c r="AK208" t="inlineStr"/>
       <c r="AL208" t="inlineStr">
@@ -37865,7 +37966,7 @@
       <c r="BB208" t="inlineStr"/>
       <c r="BC208" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5c0c686e-ff96-43a6-a841-21aef60bfa30/contrato-446754860.pdf?expires_on=1646914596&amp;signature=DAaWyofUbgF7ieF224comzzePK%2B8p521vSbGH9HDCDU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5c0c686e-ff96-43a6-a841-21aef60bfa30/contrato-446754860.pdf?expires_on=1648559531&amp;signature=mvj8IvSKn7VWO%2BNM7U6kveT7jqM%2B%2FJEg0XRZW3BIbzQ%3D"]</t>
         </is>
       </c>
       <c r="BD208" t="inlineStr"/>
@@ -38124,7 +38225,7 @@
       </c>
       <c r="BC209" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b77695b7-4570-41eb-bce8-b67a6c0f5ff9/contrato-444562882.pdf?expires_on=1646914596&amp;signature=qIfDgZqNogKo2HrPkmy3dBMg%2FcZqsBIxh9D8FQ6Dk28%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b77695b7-4570-41eb-bce8-b67a6c0f5ff9/contrato-444562882.pdf?expires_on=1648559531&amp;signature=6veClcx5hGPgWlsiQFCu6XH9Jp3kuqQVT93VbTBoO%2Fw%3D"]</t>
         </is>
       </c>
       <c r="BD209" t="inlineStr"/>
@@ -38382,7 +38483,7 @@
       </c>
       <c r="BC210" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7165e0a7-3a5c-4e06-828a-b0bd079fc127/contrato-445939306.pdf?expires_on=1646914596&amp;signature=ILysVaaLo39e93m9wNXw%2F1xXGKyekkCzqcnC4I0L5wI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7165e0a7-3a5c-4e06-828a-b0bd079fc127/contrato-445939306.pdf?expires_on=1648559531&amp;signature=nl5DzW5AASla8PZhZpgh67P%2Bv9dTT7CPcVguxgmulUo%3D"]</t>
         </is>
       </c>
       <c r="BD210" t="inlineStr">
@@ -38651,7 +38752,7 @@
       </c>
       <c r="BC211" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8a45ff63-35ea-4b5e-9e27-eb256576338b/ContratodePrestaodeServios-DanielGarianiRafael.docx-Clicksign.pdf?expires_on=1646914596&amp;signature=bkIjASPmcUixbXla59aR8gpyuYCLjbNkCQoHfOx%2FH4w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8a45ff63-35ea-4b5e-9e27-eb256576338b/ContratodePrestaodeServios-DanielGarianiRafael.docx-Clicksign.pdf?expires_on=1648559531&amp;signature=iFBGPZcMr5ehEspX8HX%2FmyQQM7Y8QSRJ6DKwIjDsgkY%3D"]</t>
         </is>
       </c>
       <c r="BD211" t="inlineStr">
@@ -38923,7 +39024,7 @@
       </c>
       <c r="BC212" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9928454b-930a-4480-81f9-e403ac3fe938/contrato-450684529.pdf?expires_on=1646914596&amp;signature=CYQcUC6PweTEapgYP2YMQ%2Fjp1nOEQE0iEoO2dDUUKYE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9928454b-930a-4480-81f9-e403ac3fe938/contrato-450684529.pdf?expires_on=1648559531&amp;signature=92MS7ImYKu2%2B8eUWhDnjqYqCR1pL4oLetNKjsEL%2Btgs%3D"]</t>
         </is>
       </c>
       <c r="BD212" t="inlineStr">
@@ -39174,7 +39275,7 @@
       </c>
       <c r="BC213" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c944f8e1-153d-446a-895d-5afce9c49e02/contrato-451523294.pdf?expires_on=1646914596&amp;signature=YxAbXShoTp2WHi5zAY7SqfEacFZydZmKtcU1IfiGjVc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c944f8e1-153d-446a-895d-5afce9c49e02/contrato-451523294.pdf?expires_on=1648559531&amp;signature=D7n0id2e4CeIyMIcn5DG7NBoSLnbi%2Fbr4J2cXh5BnLk%3D"]</t>
         </is>
       </c>
       <c r="BD213" t="inlineStr">
@@ -39476,7 +39577,7 @@
       </c>
       <c r="BC214" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b396fc78-363f-4338-980a-d396622b530b/contrato-450058109.pdf?expires_on=1646914596&amp;signature=Bj5Kjv1O8HuYPLA9i%2F0pKnkHWyzQLJeBeF9cYWKNpJ0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b396fc78-363f-4338-980a-d396622b530b/contrato-450058109.pdf?expires_on=1648559531&amp;signature=wNcduai%2FcT25sHuu6dVZbjKQRMg5lrab32FL%2B1cXpQQ%3D"]</t>
         </is>
       </c>
       <c r="BD214" t="inlineStr">
@@ -39665,7 +39766,7 @@
       <c r="BB215" t="inlineStr"/>
       <c r="BC215" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/75a6bd53-390b-41ce-ade3-9580a0265e85/contrato-453221872.pdf?expires_on=1646914596&amp;signature=vObQhezyhIGbtHk8VC5LPKcRJHdblMrdzdwUI7qLsVU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/75a6bd53-390b-41ce-ade3-9580a0265e85/contrato-453221872.pdf?expires_on=1648559531&amp;signature=jNcFYdnM4QLg11DCyWe6FM%2BRjuC1gdPKz3wHIuK4v6w%3D"]</t>
         </is>
       </c>
       <c r="BD215" t="inlineStr"/>
@@ -39911,7 +40012,7 @@
       </c>
       <c r="BC216" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/98a075d1-21ab-4257-9f27-2e2fa7a85431/contrato-450420793.pdf?expires_on=1646914596&amp;signature=CTukDKgQvWY790MtPdRhhsrqQsmANut2YEo1v9gSCvo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/98a075d1-21ab-4257-9f27-2e2fa7a85431/contrato-450420793.pdf?expires_on=1648559531&amp;signature=VPMLYJefluUmfSQ%2BKsxUsExo4jYsVBtaO%2BOXTRTgAME%3D"]</t>
         </is>
       </c>
       <c r="BD216" t="inlineStr">
@@ -40200,7 +40301,7 @@
       </c>
       <c r="BC217" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e95bb24d-d213-41d8-83fa-96f6be3b660d/contrato-455020368.pdf?expires_on=1646914596&amp;signature=UoIGIBJn2ZrCkb3J7aSJNu4S%2B0PuMv3AuqRQRH7EFhY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e95bb24d-d213-41d8-83fa-96f6be3b660d/contrato-455020368.pdf?expires_on=1648559531&amp;signature=EYSP2KbkefcFNTWIktltNIWAMPCobjGNnkVb4jZp9VA%3D"]</t>
         </is>
       </c>
       <c r="BD217" t="inlineStr">
@@ -40441,7 +40542,7 @@
       </c>
       <c r="BC218" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1646914596&amp;signature=g7WVYewsvViDlUYxzIdi6JRQZpAKcCnzwP4bhmi9sWA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648559531&amp;signature=8JCOBXpUCw3gRspvKkS4Xj9K89MEAaijg2dqk4rWMTU%3D"]</t>
         </is>
       </c>
       <c r="BD218" t="inlineStr">
@@ -40688,7 +40789,7 @@
       </c>
       <c r="BC219" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1646914596&amp;signature=g7WVYewsvViDlUYxzIdi6JRQZpAKcCnzwP4bhmi9sWA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648559531&amp;signature=8JCOBXpUCw3gRspvKkS4Xj9K89MEAaijg2dqk4rWMTU%3D"]</t>
         </is>
       </c>
       <c r="BD219" t="inlineStr">
@@ -40929,7 +41030,7 @@
       </c>
       <c r="BC220" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c78b388e-df0a-49f1-8cae-55c0da4cb325/contrato-448377680.pdf?expires_on=1646914596&amp;signature=CEIKg7Eoktm1zlCfhj7HvE6rW9te0RXp%2BBK7YaMsYBE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c78b388e-df0a-49f1-8cae-55c0da4cb325/contrato-448377680.pdf?expires_on=1648559531&amp;signature=mzkreAGWN%2FmmpAH6dEHvv0Yk3mLFZX5mrv6ncv1di0I%3D"]</t>
         </is>
       </c>
       <c r="BD220" t="inlineStr">
@@ -41084,7 +41185,7 @@
       <c r="BB221" t="inlineStr"/>
       <c r="BC221" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a31ef21a-2886-4362-a57e-8dec8aa67875/contrato-451928712.pdf?expires_on=1646914596&amp;signature=XKIigoSiiQ2GVYxwriDqhrt1sLvS8mKvdMRG0hYBNy8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a31ef21a-2886-4362-a57e-8dec8aa67875/contrato-451928712.pdf?expires_on=1648559531&amp;signature=EBf3D11G%2FIy%2Fj8gKKzKlnBEN5cW49BY666dLO8qG9xg%3D"]</t>
         </is>
       </c>
       <c r="BD221" t="inlineStr"/>
@@ -41378,7 +41479,7 @@
       </c>
       <c r="BC222" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/591dfee3-277c-4bd2-bf21-1a634d75295b/contrato-455117055.pdf?expires_on=1646914596&amp;signature=MWOhLcWLDRoo4YwZAur1wt%2BrI0gppIq%2BtExl%2BTjr%2FZc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/591dfee3-277c-4bd2-bf21-1a634d75295b/contrato-455117055.pdf?expires_on=1648559531&amp;signature=T1xoCfXjXckicbVaFuBtbruGppjLPCQ3wrdNZbWyawA%3D"]</t>
         </is>
       </c>
       <c r="BD222" t="inlineStr">
@@ -41563,7 +41664,7 @@
       <c r="BB223" t="inlineStr"/>
       <c r="BC223" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7247f1f8-1bf0-48c8-874e-a234da5ff917/contrato-450598793.pdf?expires_on=1646914596&amp;signature=k7SLeOkR0H%2F0PUbsNE8wTiYGcv2EbXLpeB3qiLqVO6k%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7247f1f8-1bf0-48c8-874e-a234da5ff917/contrato-450598793.pdf?expires_on=1648559531&amp;signature=mXLo4B4eenaVaJPvi1iLCXcCdaMHbUUADOqjvOWYW%2Bo%3D"]</t>
         </is>
       </c>
       <c r="BD223" t="inlineStr"/>
@@ -41706,7 +41807,7 @@
       <c r="BB224" t="inlineStr"/>
       <c r="BC224" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8ba42a2f-a3e7-48fc-8463-8dc8005ee13d/contrato-451875618.pdf?expires_on=1646914596&amp;signature=v31X2b06F%2Fx12y%2FrVNUGuagBrEMZMmjO3mzkumSQ6k0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8ba42a2f-a3e7-48fc-8463-8dc8005ee13d/contrato-451875618.pdf?expires_on=1648559531&amp;signature=YeVec7epvRRKw93XnHUZb9khbv2kPgioCRrCMZfqT7c%3D"]</t>
         </is>
       </c>
       <c r="BD224" t="inlineStr"/>
@@ -41849,7 +41950,7 @@
       <c r="BB225" t="inlineStr"/>
       <c r="BC225" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/c001b424-475c-40f1-ac48-34d2a1115d75/contrato-451875618.pdf?expires_on=1646914596&amp;signature=gmBMe4At5PJslYfwREGKF5T0Ehh2IFNqn29eKt83R%2F8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/c001b424-475c-40f1-ac48-34d2a1115d75/contrato-451875618.pdf?expires_on=1648559531&amp;signature=oimmQTr6J6qb9LkvRs%2Fh%2B9NavdtzxPGgiF4w1SuyjtU%3D"]</t>
         </is>
       </c>
       <c r="BD225" t="inlineStr"/>
@@ -41996,7 +42097,7 @@
       <c r="BB226" t="inlineStr"/>
       <c r="BC226" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1646914596&amp;signature=hslzBjiXyuMhkeVY%2BKduWGxp4V%2Bg4tOzd8AS%2BG4o8ZI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648559531&amp;signature=GDLqWD8hu7F%2F7ZG7sRatHVmdOQxe3NSB7Op3bYQ1LHs%3D"]</t>
         </is>
       </c>
       <c r="BD226" t="inlineStr"/>
@@ -42267,7 +42368,7 @@
       </c>
       <c r="BC227" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f5391715-b7a8-438a-a6f6-1089d33c05b1/contrato-455277052.pdf?expires_on=1646914596&amp;signature=XOXHxKVsX2bEuWl0vQnm2lG1%2BQvALZ85sq4jlO8WN90%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f5391715-b7a8-438a-a6f6-1089d33c05b1/contrato-455277052.pdf?expires_on=1648559531&amp;signature=jBE2lrVgeObqgm0ibHnC1KAkxie%2FWtwxbR4yOjwzQ4s%3D"]</t>
         </is>
       </c>
       <c r="BD227" t="inlineStr">
@@ -42422,7 +42523,7 @@
       <c r="BB228" t="inlineStr"/>
       <c r="BC228" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0dba00df-f1fd-456c-bb04-403503868603/contrato-455669766.pdf?expires_on=1646914596&amp;signature=DsdfoWBDkDzKAWkuzX4r9AuD0AqgE9MGMWPx2PjUz2w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0dba00df-f1fd-456c-bb04-403503868603/contrato-455669766.pdf?expires_on=1648559531&amp;signature=Itxl59sFBAfw1rvEMM51twUdBB3fxYOs5riycQkgTkw%3D"]</t>
         </is>
       </c>
       <c r="BD228" t="inlineStr"/>
@@ -42569,7 +42670,7 @@
       <c r="BB229" t="inlineStr"/>
       <c r="BC229" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9a7c9638-6ee7-42d9-87d1-530453f85893/contrato-455274515.pdf?expires_on=1646914596&amp;signature=mokSsuV6hvRqi9Ii0FpOoJXO94ePJjoUNColCDZla7w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9a7c9638-6ee7-42d9-87d1-530453f85893/contrato-455274515.pdf?expires_on=1648559531&amp;signature=0qnyGDJFN6H3QAggIxBL78npy5yPKR7BFONscSie0Ps%3D"]</t>
         </is>
       </c>
       <c r="BD229" t="inlineStr"/>
@@ -42845,7 +42946,7 @@
       </c>
       <c r="BC230" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/96b6f12d-d86b-4cf1-8166-ab369a19e944/contrato-453185486.pdf?expires_on=1646914596&amp;signature=k8qhCAmn89M9YB5odejERlnB8vji9RBOiohnyBBFvBU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/96b6f12d-d86b-4cf1-8166-ab369a19e944/contrato-453185486.pdf?expires_on=1648559531&amp;signature=Uq4uiJsAzXVRMQO620Bne8b03v0piaQgqRvkeu7yBXI%3D"]</t>
         </is>
       </c>
       <c r="BD230" t="inlineStr">
@@ -42996,7 +43097,7 @@
       <c r="BB231" t="inlineStr"/>
       <c r="BC231" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab040383-25f3-4f4a-8f99-b5c9bebf8cc5/contrato-447382712.pdf?expires_on=1646914596&amp;signature=%2Bq%2BLcLQSU2Bsuyu1AMsKAtGFpEdgrMyoJhqSfdnNGIA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab040383-25f3-4f4a-8f99-b5c9bebf8cc5/contrato-447382712.pdf?expires_on=1648559531&amp;signature=3s2Ofea5AFP0SJ1uvXiGoZYd7Z%2BOyfSZfrGW9CG4FuM%3D"]</t>
         </is>
       </c>
       <c r="BD231" t="inlineStr"/>
@@ -43182,7 +43283,7 @@
       <c r="BB232" t="inlineStr"/>
       <c r="BC232" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e22d2142-9a98-4f21-b6f1-aeadf1c84c62/contrato-451633873.pdf?expires_on=1646914596&amp;signature=MCK0ncUSN7jY0x3nRyqVuoy3SRXD204P85C7t8veeqI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e22d2142-9a98-4f21-b6f1-aeadf1c84c62/contrato-451633873.pdf?expires_on=1648559531&amp;signature=RCt0hKa%2FEmhyXLQv8VJHBbdCQTOrxBOu90ar8CnOtaI%3D"]</t>
         </is>
       </c>
       <c r="BD232" t="inlineStr"/>
@@ -43449,7 +43550,7 @@
       </c>
       <c r="BC233" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/229ba4e0-2e6d-4968-96c1-3d6e73f5c431/contrato-450949540.pdf?expires_on=1646914596&amp;signature=C1GQR75hKzmJDYLxWNSLAPSyfKCvf3P7VviYFV%2FeBUA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/229ba4e0-2e6d-4968-96c1-3d6e73f5c431/contrato-450949540.pdf?expires_on=1648559531&amp;signature=4h6O8IYwC7sRkTrUgJ8eP75tlZhnVb5Cht5kvHwtk2s%3D"]</t>
         </is>
       </c>
       <c r="BD233" t="inlineStr">
@@ -43715,7 +43816,7 @@
       <c r="BB234" t="inlineStr"/>
       <c r="BC234" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4b13dcea-d9b0-42a4-8960-51088edc6407/contrato-454454798.pdf?expires_on=1646914596&amp;signature=NmW4MrIA6YtNMlfBoOuVayE0xiu5KwRUPgvpno7ejnY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4b13dcea-d9b0-42a4-8960-51088edc6407/contrato-454454798.pdf?expires_on=1648559531&amp;signature=q%2BajoTUuzkpQ%2B%2Bchab639ING3wD%2BtbijX7eTiUBJQN8%3D"]</t>
         </is>
       </c>
       <c r="BD234" t="inlineStr">
@@ -43954,7 +44055,7 @@
       <c r="BB235" t="inlineStr"/>
       <c r="BC235" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7f3321fb-2829-4eb4-859a-c83e9616a6cd/contrato-455506168.pdf?expires_on=1646914596&amp;signature=QtTiP%2BfJFEr0wFxpFbJwG%2BBgiz37XiKsUHTwmCeffdA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7f3321fb-2829-4eb4-859a-c83e9616a6cd/contrato-455506168.pdf?expires_on=1648559531&amp;signature=oDyUY34lz5bhkvJLP0aXjMB8I3WLli50tg7XldO1OfM%3D"]</t>
         </is>
       </c>
       <c r="BD235" t="inlineStr">
@@ -44188,7 +44289,7 @@
       </c>
       <c r="BC236" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ea57abbd-b6e5-4eb0-b3e3-67dd25d7dd28/contrato-457144283.pdf?expires_on=1646914596&amp;signature=j4XVY2zFhDF397hlwVUpF3BOrAJ7YkpzS4nEKBhkVFU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ea57abbd-b6e5-4eb0-b3e3-67dd25d7dd28/contrato-457144283.pdf?expires_on=1648559531&amp;signature=caFgQyvnswWDsJEudUK5Cd7UJTDuIbPm0liKv%2BdVWMw%3D"]</t>
         </is>
       </c>
       <c r="BD236" t="inlineStr">
@@ -44449,7 +44550,7 @@
       </c>
       <c r="BC237" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5d39c650-3b38-41e6-a545-0da59cf764fc/contrato-447364331.pdf?expires_on=1646914596&amp;signature=DiZ6moOhLIMucMkkEebqE%2BLNobYy5Ep5NECGWX5Y%2Fzw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5d39c650-3b38-41e6-a545-0da59cf764fc/contrato-447364331.pdf?expires_on=1648559531&amp;signature=BZjlcUDg53ZDz2xxISbDzxrugZuzYSTLtWwcSIMmIGA%3D"]</t>
         </is>
       </c>
       <c r="BD237" t="inlineStr">
@@ -44604,7 +44705,7 @@
       <c r="BB238" t="inlineStr"/>
       <c r="BC238" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c294477-4e7b-4afd-aa7e-db5481666dd8/contrato-457138022.pdf?expires_on=1646914596&amp;signature=a0y6L9e2bZ%2B1UH%2BLF3Lqu%2FxuL0ntEWDPi8RrWNQkb48%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c294477-4e7b-4afd-aa7e-db5481666dd8/contrato-457138022.pdf?expires_on=1648559531&amp;signature=No8mEBWlylnlulNZD%2FyuDwuil%2BHRwsbjiHjcPFaWa%2Bs%3D"]</t>
         </is>
       </c>
       <c r="BD238" t="inlineStr"/>
@@ -44834,7 +44935,7 @@
       </c>
       <c r="BC239" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9a42c9f-29f4-46ce-8cbd-b5370dc6bc3c/contrato-456649095.pdf?expires_on=1646914596&amp;signature=htcMs4nRZjj54P5%2FBh8KjmKY8z3WAadurgv1XYwu6Rg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9a42c9f-29f4-46ce-8cbd-b5370dc6bc3c/contrato-456649095.pdf?expires_on=1648559531&amp;signature=PyFD3%2BIk2YAr%2BOA4%2FDI5mWNeRbzAn0YYikFgYSzCQ1E%3D"]</t>
         </is>
       </c>
       <c r="BD239" t="inlineStr">
@@ -45102,7 +45203,7 @@
       </c>
       <c r="BC240" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1c5244bf-e241-4890-8146-0db01b041ae9/contrato-454339926.pdf?expires_on=1646914596&amp;signature=oZEDwQyIBqmnC86Ob3RJYngrxl%2FqhcHJxof%2Fy%2BP47ws%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1c5244bf-e241-4890-8146-0db01b041ae9/contrato-454339926.pdf?expires_on=1648559531&amp;signature=Nf3zW70MhO37rug7x2WODc2CTfPtpLrdDd0J2wJ2Ugg%3D"]</t>
         </is>
       </c>
       <c r="BD240" t="inlineStr">
@@ -45281,7 +45382,7 @@
       <c r="BB241" t="inlineStr"/>
       <c r="BC241" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/891a5507-f384-4dfc-bfb2-46fa887380fc/contrato-457680240.pdf?expires_on=1646914596&amp;signature=CX%2FRmL2Budkyu5grWcILcuB8aGhf5XFvNhuWFdqtnLs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/891a5507-f384-4dfc-bfb2-46fa887380fc/contrato-457680240.pdf?expires_on=1648559531&amp;signature=4gv9bRrP5AYfHkYUnQ%2BxW3s1o2%2Fq1tGa8WPBk3Ngadg%3D"]</t>
         </is>
       </c>
       <c r="BD241" t="inlineStr"/>
@@ -45531,7 +45632,7 @@
       </c>
       <c r="BC242" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/03418e81-d6d0-40ab-a0ab-d4d541525833/contrato-457316233.pdf?expires_on=1646914596&amp;signature=ANFAW%2BDRwymaOTrU9TFA2tGP9DVBzf3YDDNPHDBzMHg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/03418e81-d6d0-40ab-a0ab-d4d541525833/contrato-457316233.pdf?expires_on=1648559531&amp;signature=e4dm8sdOimd2A7TgdbERBu8gZS5M6AVDPnM6CfRP8j8%3D"]</t>
         </is>
       </c>
       <c r="BD242" t="inlineStr"/>
@@ -45797,7 +45898,7 @@
       </c>
       <c r="BC243" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0aaafa12-b90e-4c89-9a6b-693a455e168b/contrato-455112943.pdf?expires_on=1646914596&amp;signature=R%2Bxh7jkpvfXE8VVehpeXOAbNoKBVTAb89%2Fr8BZqAL3A%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0aaafa12-b90e-4c89-9a6b-693a455e168b/contrato-455112943.pdf?expires_on=1648559531&amp;signature=7T1oQBR6sXWteivMEbE03iosV2evM%2Fi4OxtwtJvq%2B0o%3D"]</t>
         </is>
       </c>
       <c r="BD243" t="inlineStr">
@@ -46050,7 +46151,7 @@
       </c>
       <c r="BC244" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1646914596&amp;signature=hslzBjiXyuMhkeVY%2BKduWGxp4V%2Bg4tOzd8AS%2BG4o8ZI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648559531&amp;signature=GDLqWD8hu7F%2F7ZG7sRatHVmdOQxe3NSB7Op3bYQ1LHs%3D"]</t>
         </is>
       </c>
       <c r="BD244" t="inlineStr">
@@ -46290,7 +46391,7 @@
       </c>
       <c r="BC245" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca3eb7a8-fffd-44a2-ab2a-c6c95dc0c778/contrato-451875618.pdf?expires_on=1646914596&amp;signature=8N0S%2F%2B%2FvwheY9DIoy37pXWHh6h1as4rEp3O201zdcUU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca3eb7a8-fffd-44a2-ab2a-c6c95dc0c778/contrato-451875618.pdf?expires_on=1648559531&amp;signature=ViMAlO6t58McwYXBJqLzli9ePwG%2F43Blef5MVF2Umgk%3D"]</t>
         </is>
       </c>
       <c r="BD245" t="inlineStr">
@@ -46445,7 +46546,7 @@
       <c r="BB246" t="inlineStr"/>
       <c r="BC246" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5288a216-9dbd-41c7-ae68-4bc787971bb9/contrato-460165669.pdf?expires_on=1646914596&amp;signature=If8V2914IqzzF3yF1FlxqD6UTGnqxpAb5%2FW86%2B4z9t4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5288a216-9dbd-41c7-ae68-4bc787971bb9/contrato-460165669.pdf?expires_on=1648559531&amp;signature=FaLRs%2FP9%2FK8rQLqpxpKOoUz7G2U2ew3E%2F8mJhs6U%2FjQ%3D"]</t>
         </is>
       </c>
       <c r="BD246" t="inlineStr"/>
@@ -46677,7 +46778,7 @@
       </c>
       <c r="BC247" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/eac3c176-95ed-47ce-a99b-ba9652805d9a/contrato-463205453.pdf?expires_on=1646914596&amp;signature=P%2FtTpJy8FLNxvZOpzLOKiF20S6muHDlQ6BE00XzyKic%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/eac3c176-95ed-47ce-a99b-ba9652805d9a/contrato-463205453.pdf?expires_on=1648559531&amp;signature=tGlwp%2BmnXtwV2jiyVWJroRx282XxNb0Yvc1JFYdug20%3D"]</t>
         </is>
       </c>
       <c r="BD247" t="inlineStr">
@@ -46937,7 +47038,7 @@
       </c>
       <c r="BC248" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d9b4a37-6d1a-4f36-8542-f79ef866c85c/contrato-459114701.pdf?expires_on=1646914596&amp;signature=PoiD%2FSjx2QLYeIizfZw8SUSXksbBDPftOZyFUYZFyRU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d9b4a37-6d1a-4f36-8542-f79ef866c85c/contrato-459114701.pdf?expires_on=1648559531&amp;signature=ADLZa7ZqD5rz23dDeW%2BSpxYEKhQqWSEv1kaG6%2FHk92E%3D"]</t>
         </is>
       </c>
       <c r="BD248" t="inlineStr"/>
@@ -47164,7 +47265,7 @@
       <c r="BB249" t="inlineStr"/>
       <c r="BC249" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/091e7cd7-2b1a-400f-a24c-8acd0bfa3165/contrato-460771551.pdf?expires_on=1646914596&amp;signature=hWkgv7WjQKv8NayquX5s8HhJicDg8aegibIwZBtNSd8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/091e7cd7-2b1a-400f-a24c-8acd0bfa3165/contrato-460771551.pdf?expires_on=1648559531&amp;signature=8aRkpE3yj3QdfbaKol0WtmMHmHAnTgpykO0oyq3tBsM%3D"]</t>
         </is>
       </c>
       <c r="BD249" t="inlineStr">
@@ -47407,7 +47508,7 @@
       </c>
       <c r="BC250" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bd70790-381e-4c84-b56c-5dcc777b5c75/contrato-462711487.pdf?expires_on=1646914596&amp;signature=z9JmB444oBFQ0DF8ufIGYSXS6f45iBXVBzxvPQPtW6g%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bd70790-381e-4c84-b56c-5dcc777b5c75/contrato-462711487.pdf?expires_on=1648559531&amp;signature=L1OmEEZkcr8VSp5ezwuI6HhAmwaXXyLaqayYIjnG%2FYs%3D"]</t>
         </is>
       </c>
       <c r="BD250" t="inlineStr">
@@ -47672,7 +47773,7 @@
       </c>
       <c r="BC251" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b4e8e37-084a-4092-b8c1-5af10820b7f5/contrato-461641423.pdf?expires_on=1646914596&amp;signature=aZlOUrSDUQUMiEfNezbBe4mh1RUDY%2BTmJfQJGUkuaw0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b4e8e37-084a-4092-b8c1-5af10820b7f5/contrato-461641423.pdf?expires_on=1648559531&amp;signature=SJBU%2Fl8BZdf09yL2%2Bkpi5YJeNczf5xCsbNKlpypvRRg%3D"]</t>
         </is>
       </c>
       <c r="BD251" t="inlineStr">
@@ -47870,7 +47971,7 @@
       <c r="BB252" t="inlineStr"/>
       <c r="BC252" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a4f4a054-6cd7-4718-af0b-0a644358be16/contrato-460754565.pdf?expires_on=1646914597&amp;signature=sxMDoJqq3CG4W63tmrVvN8mR9tLf1UD1OX7r2TLdGmU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a4f4a054-6cd7-4718-af0b-0a644358be16/contrato-460754565.pdf?expires_on=1648559533&amp;signature=ZFbD5Q4dO5J6e%2FTskXyqVS2qKjaahtu0v6R1Fb%2BigWM%3D"]</t>
         </is>
       </c>
       <c r="BD252" t="inlineStr"/>
@@ -48128,7 +48229,7 @@
       </c>
       <c r="BC253" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9b45555c-c083-4f93-bbe8-e8b2228ff82d/contrato-456657334.pdf?expires_on=1646914597&amp;signature=%2FA4PSZMKU5YJU3U05Jz5pRiDp2eXYCQOVuy08a39dU4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9b45555c-c083-4f93-bbe8-e8b2228ff82d/contrato-456657334.pdf?expires_on=1648559533&amp;signature=GUBVZ6gobqZtSvs4PmSrIfvLpGQqoIJUPFAU%2BQ7GSpQ%3D"]</t>
         </is>
       </c>
       <c r="BD253" t="inlineStr">
@@ -48395,7 +48496,7 @@
       </c>
       <c r="BC254" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bfae2752-d944-46ff-9488-58ebfadf6cac/contrato-463218416.pdf?expires_on=1646914597&amp;signature=lSSwWeRShbIb0JaNTsn%2BNoE0v0jCZK97EmJowTWYHvw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bfae2752-d944-46ff-9488-58ebfadf6cac/contrato-463218416.pdf?expires_on=1648559533&amp;signature=BnMHQxdEdSNB83JH7bz%2BTD3wsKIksrD4HkCzwI2Ians%3D"]</t>
         </is>
       </c>
       <c r="BD254" t="inlineStr">
@@ -48660,7 +48761,7 @@
       </c>
       <c r="BC255" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/913a0110-ee16-4e3d-85d0-a76188bb9125/contrato-461317094.pdf?expires_on=1646914597&amp;signature=h%2FTgWcET7XvIeEvdhdnwxgrpb3l7FYiZhk4SxK9cuCw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/913a0110-ee16-4e3d-85d0-a76188bb9125/contrato-461317094.pdf?expires_on=1648559533&amp;signature=rxv22IyFgtvJ9Grv8ciIIUDYUm2vyn7afzUt9NU82g8%3D"]</t>
         </is>
       </c>
       <c r="BD255" t="inlineStr">
@@ -48926,7 +49027,7 @@
       </c>
       <c r="BC256" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05359369-6ca6-473c-bbe1-791d82d7704a/contrato-459852512.pdf?expires_on=1646914597&amp;signature=XWKTdmQU1T6HPoBNwbQu%2F68Ve9Dx8Sx96Wss6jZfvNc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05359369-6ca6-473c-bbe1-791d82d7704a/contrato-459852512.pdf?expires_on=1648559533&amp;signature=M2VgWSReH0J4aubhMeDA1pDb%2BM1Yp1Iflwlk0WKBt%2BI%3D"]</t>
         </is>
       </c>
       <c r="BD256" t="inlineStr">
@@ -49166,7 +49267,7 @@
       </c>
       <c r="BC257" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b559b4b2-7c9d-40ac-befd-e322db60deac/contrato-462713960.pdf?expires_on=1646914597&amp;signature=%2F9UdQ%2BpILvyCuQwBHWYzQGWYdiQWonYUwCHkyM4dwF4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b559b4b2-7c9d-40ac-befd-e322db60deac/contrato-462713960.pdf?expires_on=1648559533&amp;signature=3YUoyi9fm3sLpH2HezyU25IN%2Bk%2BlZM0mSw%2Bg09FZiOw%3D"]</t>
         </is>
       </c>
       <c r="BD257" t="inlineStr">
@@ -49463,7 +49564,7 @@
       </c>
       <c r="BC258" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9f78a1a-045f-4cc1-a740-a4ff06ef9e0d/contrato-462489239.pdf?expires_on=1646914597&amp;signature=8Q8V2sbs69MShB8Q%2FZsLUTgW7yV1Xk4FojM1Kev1eO8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9f78a1a-045f-4cc1-a740-a4ff06ef9e0d/contrato-462489239.pdf?expires_on=1648559533&amp;signature=21qfePwDspSB8DJTEPjH%2BdIZ%2B0zyCVnGAmC2%2BrrMOGM%3D"]</t>
         </is>
       </c>
       <c r="BD258" t="inlineStr">
@@ -49742,7 +49843,7 @@
       </c>
       <c r="BC259" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/80f9cf51-7941-468f-a31e-d646792fcf16/contrato-462495270.pdf?expires_on=1646914597&amp;signature=jvR55R0t%2BDoaZMHSQqAUhq7we2QfEjTaSSO8DIg8NtA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/80f9cf51-7941-468f-a31e-d646792fcf16/contrato-462495270.pdf?expires_on=1648559533&amp;signature=AhoI10yNDAsgskD6dFTd%2FgjSB76i7TfFaeXwvS0POfM%3D"]</t>
         </is>
       </c>
       <c r="BD259" t="inlineStr">
@@ -50034,7 +50135,7 @@
       </c>
       <c r="BC260" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6818eef4-a2bd-41d3-89f3-6aa207fe063a/contrato-463522281.pdf?expires_on=1646914597&amp;signature=9CYSwnbPqn%2F3Ghlkl5YCCJQhdbmnmgaS7ZOyNqYhoTI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6818eef4-a2bd-41d3-89f3-6aa207fe063a/contrato-463522281.pdf?expires_on=1648559533&amp;signature=ME3LYibEwJAMz60X10z6IR6IosIG3D44qjbw0meuiLs%3D"]</t>
         </is>
       </c>
       <c r="BD260" t="inlineStr">
@@ -50266,7 +50367,7 @@
       </c>
       <c r="BC261" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1646914597&amp;signature=FQrhOtIgfnKpKnxFKNwsly9EO9K092g7dBUizxXbLoo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648559533&amp;signature=UkBnOn1fS5RP8xtRkjlllnTC5kYv6jTLhW9OnC17T3I%3D"]</t>
         </is>
       </c>
       <c r="BD261" t="inlineStr">
@@ -50498,7 +50599,7 @@
       </c>
       <c r="BC262" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1646914597&amp;signature=FQrhOtIgfnKpKnxFKNwsly9EO9K092g7dBUizxXbLoo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648559533&amp;signature=UkBnOn1fS5RP8xtRkjlllnTC5kYv6jTLhW9OnC17T3I%3D"]</t>
         </is>
       </c>
       <c r="BD262" t="inlineStr">
@@ -50744,7 +50845,7 @@
       </c>
       <c r="BC263" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/58770487-9da8-418d-b613-26d3f5b2deec/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1646914597&amp;signature=Mwdtdc05zGiLwDloRrts6iy%2FaaiSl4vxtOEO0bTcTRY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/58770487-9da8-418d-b613-26d3f5b2deec/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648559533&amp;signature=GAgIwXFDZy4TJM5qMjT%2FsXO0el7ABxsvawfrt0nzXRA%3D"]</t>
         </is>
       </c>
       <c r="BD263" t="inlineStr">
@@ -50896,7 +50997,7 @@
       <c r="BB264" t="inlineStr"/>
       <c r="BC264" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1102ac2b-23bb-4b57-a1af-072098340c29/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1646914597&amp;signature=uRsErtLG09GPOb%2F0FZQydQRICnWSyS4iF9yKrEPmN7Q%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1102ac2b-23bb-4b57-a1af-072098340c29/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648559533&amp;signature=HN4QjrAMipYZ2LPrbEqUhEvShDCXEx54ThVHUx5h1Q8%3D"]</t>
         </is>
       </c>
       <c r="BD264" t="inlineStr"/>
@@ -51039,7 +51140,7 @@
       <c r="BB265" t="inlineStr"/>
       <c r="BC265" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5cbcacbb-ed61-4c08-9a09-05ba0bb266ce/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1646914597&amp;signature=mMwbLVvN5MtL7lgrNT%2BRxUcPbyPNrEVwgRtmM9%2FZqXw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5cbcacbb-ed61-4c08-9a09-05ba0bb266ce/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648559533&amp;signature=m1y7OxbAkLerDrWGri9NjYeizuPN55bX7vToMv2%2BHwo%3D"]</t>
         </is>
       </c>
       <c r="BD265" t="inlineStr"/>
@@ -51522,7 +51623,7 @@
       </c>
       <c r="BC267" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/31a02fcf-6248-46aa-a190-eea160264bfc/contrato-451875618.pdf?expires_on=1646914597&amp;signature=mEq5yoyzSSsVtSZf91YqwYIL92VSI0HSCoC2C8PvqjA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/31a02fcf-6248-46aa-a190-eea160264bfc/contrato-451875618.pdf?expires_on=1648559533&amp;signature=Kn3da8F3wdXmyc5lMhVT3MsAnPnaCY6tos70DwGf0w8%3D"]</t>
         </is>
       </c>
       <c r="BD267" t="inlineStr">
@@ -51772,7 +51873,7 @@
       </c>
       <c r="BC268" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1646914597&amp;signature=k%2BPbP8Yuftz2tvVbig5xOtjrqUXLTP1uQuBLvVrCgck%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648559533&amp;signature=Fg8gF5yfFPCCdOUu9FCBidnCaijHoFVP0X0z%2B3r6hCU%3D"]</t>
         </is>
       </c>
       <c r="BD268" t="inlineStr">
@@ -52013,7 +52114,7 @@
       </c>
       <c r="BC269" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/f3e08cd1-4c80-4080-9259-add478b13f6d/contrato-451875618.pdf?expires_on=1646914597&amp;signature=YLFlFnC1cvtlzFu8RGpoU945WXHto0Ky0EPQ0t53Bmg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/f3e08cd1-4c80-4080-9259-add478b13f6d/contrato-451875618.pdf?expires_on=1648559533&amp;signature=j0rF9ElK33Na%2BRQlim6ExTpd4xhXdJMx4ahsjv%2F8AdM%3D"]</t>
         </is>
       </c>
       <c r="BD269" t="inlineStr">
@@ -52246,7 +52347,7 @@
       </c>
       <c r="BC270" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1646914597&amp;signature=pWwi1cm4TlRqL9ixS1Dj6ffNWftuo%2FOyjihs%2Bz1Bj60%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648559533&amp;signature=GIeJIzjHMGIxo82A3%2F5v%2FBBFQwDawZJY674zQaXXIL4%3D"]</t>
         </is>
       </c>
       <c r="BD270" t="inlineStr">
@@ -52476,7 +52577,7 @@
       </c>
       <c r="BC271" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1646914597&amp;signature=pWwi1cm4TlRqL9ixS1Dj6ffNWftuo%2FOyjihs%2Bz1Bj60%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648559533&amp;signature=GIeJIzjHMGIxo82A3%2F5v%2FBBFQwDawZJY674zQaXXIL4%3D"]</t>
         </is>
       </c>
       <c r="BD271" t="inlineStr">
@@ -52631,7 +52732,7 @@
       <c r="BB272" t="inlineStr"/>
       <c r="BC272" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1646914597&amp;signature=pWwi1cm4TlRqL9ixS1Dj6ffNWftuo%2FOyjihs%2Bz1Bj60%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648559533&amp;signature=GIeJIzjHMGIxo82A3%2F5v%2FBBFQwDawZJY674zQaXXIL4%3D"]</t>
         </is>
       </c>
       <c r="BD272" t="inlineStr"/>
@@ -53062,7 +53163,7 @@
       </c>
       <c r="BC274" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0b22c3f4-c287-493c-8a42-b2b4b125cf4e/contrato-463615692.pdf?expires_on=1646914597&amp;signature=4UBjprOH7%2BXtmubxAw%2Fka%2BhRBFxJIXPOzGYMBr5vcE4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0b22c3f4-c287-493c-8a42-b2b4b125cf4e/contrato-463615692.pdf?expires_on=1648559533&amp;signature=i8OZ6fAAcwFp%2FqJMX%2B0q4x%2F%2BfuWbzVwVEsdakapsBfI%3D"]</t>
         </is>
       </c>
       <c r="BD274" t="inlineStr">
@@ -53280,7 +53381,7 @@
       </c>
       <c r="BC275" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/70b7d4b0-b136-46f6-a690-559950ac0ce4/contrato-463615692.pdf?expires_on=1646914597&amp;signature=0TlLFE81bjHLlJklSlTx5ZJj9Hl4crWdz21ChWKiFuY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/70b7d4b0-b136-46f6-a690-559950ac0ce4/contrato-463615692.pdf?expires_on=1648559533&amp;signature=4pVxMWH3kPLGcNyjciz6B2bzOaX%2FSoWzVVyfCTF8oaw%3D"]</t>
         </is>
       </c>
       <c r="BD275" t="inlineStr">
@@ -53533,7 +53634,7 @@
       </c>
       <c r="BC276" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/80111067-ae18-4c45-b482-6238e4b8617c/contrato-451875618.pdf?expires_on=1646914597&amp;signature=Z%2BFlQg5IlBwdjPhKqmRIpZPVo1Z0fRn5tb8j2xBIGz8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/80111067-ae18-4c45-b482-6238e4b8617c/contrato-451875618.pdf?expires_on=1648559533&amp;signature=oJFLIQGg9rbjwD1OYyuXoD7Eq4%2FfbZr4Rwz1Be4fq6s%3D"]</t>
         </is>
       </c>
       <c r="BD276" t="inlineStr">
@@ -53785,7 +53886,7 @@
       </c>
       <c r="BC277" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c0e6946-68ce-4128-9c22-6200d9ad0d51/contrato-463987505.pdf?expires_on=1646914597&amp;signature=Wb6oQkAb34x4JgEbGL2bgTZYjdwXJtBTMEHJ22gROf8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c0e6946-68ce-4128-9c22-6200d9ad0d51/contrato-463987505.pdf?expires_on=1648559533&amp;signature=Rwyv6pLTDaVGQdu8ZVLVGnblE%2FKbNThg2aVUg4ZTz6U%3D"]</t>
         </is>
       </c>
       <c r="BD277" t="inlineStr">
@@ -53943,7 +54044,10 @@
       </c>
       <c r="AH278" t="inlineStr">
         <is>
-          <t>CLARO</t>
+          <t>Vivo
+Maria Augusta Cunha
+CPF 03057882994
+300 MBS</t>
         </is>
       </c>
       <c r="AI278" t="inlineStr">
@@ -54058,7 +54162,7 @@
       </c>
       <c r="BC278" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0cef41d6-b4e8-4ed0-b492-aaa7d4f8a354/contrato-463709590.pdf?expires_on=1646914597&amp;signature=tGclux0cEA6pd0VprxM%2BVrOPJlMP47KCX2T2dQF2khg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0cef41d6-b4e8-4ed0-b492-aaa7d4f8a354/contrato-463709590.pdf?expires_on=1648559533&amp;signature=WR0waBifhdofZ0MOdJmuqFdYNbK%2BQT86FY%2BRRqeRjwU%3D"]</t>
         </is>
       </c>
       <c r="BD278" t="inlineStr">
@@ -54301,7 +54405,7 @@
       </c>
       <c r="BC279" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/39a23952-51a5-4e98-815b-b37a7a82afbc/contrato-463313350.pdf?expires_on=1646914597&amp;signature=zlwnU4Wll2PCJWIqShFJBvu3ZMw3%2FdPgimgb2Pc0L50%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/39a23952-51a5-4e98-815b-b37a7a82afbc/contrato-463313350.pdf?expires_on=1648559533&amp;signature=YHfaNlS%2Bcg2d%2BcALHp6tL9bvryIu6ui%2Fr84tdpCYoPg%3D"]</t>
         </is>
       </c>
       <c r="BD279" t="inlineStr">
@@ -54556,7 +54660,7 @@
       </c>
       <c r="BC280" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b19aad01-76fa-459a-9216-f808d0e2f884/contrato-465174361.pdf?expires_on=1646914597&amp;signature=qrz4HMo8dXxhCp5qudEwzMpFiXx8LDuu5rx%2FsYMhMNw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b19aad01-76fa-459a-9216-f808d0e2f884/contrato-465174361.pdf?expires_on=1648559533&amp;signature=gsrzL7QU8CZNnBWupp1bAw7p94a93Wm3ZVIqDrUsIy4%3D"]</t>
         </is>
       </c>
       <c r="BD280" t="inlineStr">
@@ -54791,7 +54895,7 @@
       </c>
       <c r="BC281" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1646914597&amp;signature=e%2FvfI0uSOavViaxCzjxRF8pOEbpubByueGsMVCvLbnU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648559533&amp;signature=6Oj0tO8bRWhVebTBds0hGubRJjFWpgEX3EhnJRaWHBE%3D"]</t>
         </is>
       </c>
       <c r="BD281" t="inlineStr">
@@ -55034,7 +55138,7 @@
       </c>
       <c r="BC282" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1646914597&amp;signature=e%2FvfI0uSOavViaxCzjxRF8pOEbpubByueGsMVCvLbnU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648559533&amp;signature=6Oj0tO8bRWhVebTBds0hGubRJjFWpgEX3EhnJRaWHBE%3D"]</t>
         </is>
       </c>
       <c r="BD282" t="inlineStr">
@@ -55265,7 +55369,7 @@
       </c>
       <c r="BC283" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1646914597&amp;signature=e%2FvfI0uSOavViaxCzjxRF8pOEbpubByueGsMVCvLbnU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648559533&amp;signature=6Oj0tO8bRWhVebTBds0hGubRJjFWpgEX3EhnJRaWHBE%3D"]</t>
         </is>
       </c>
       <c r="BD283" t="inlineStr">
@@ -55509,7 +55613,7 @@
       </c>
       <c r="BC284" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcd6263c-cdc7-4c3a-8bb7-867dba3890d0/contrato-464989787.pdf?expires_on=1646914597&amp;signature=Zd5K%2F1NSnTPpaGeB50zpljszaPEtG%2B0IZpE3uWu0mbw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcd6263c-cdc7-4c3a-8bb7-867dba3890d0/contrato-464989787.pdf?expires_on=1648559533&amp;signature=QzrmerIljFtLMkHt%2BPEYJYtrTouBksXcBTvEPI4P5j8%3D"]</t>
         </is>
       </c>
       <c r="BD284" t="inlineStr">
@@ -55794,7 +55898,7 @@
       </c>
       <c r="BC285" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/244dd39f-d2f9-45a3-8583-477bf65ea77f/contrato-465747038.pdf?expires_on=1646914597&amp;signature=bxutzFzOORk%2FNYxJrH2AMlx0kZttwSP7U99RdRoZUHU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/244dd39f-d2f9-45a3-8583-477bf65ea77f/contrato-465747038.pdf?expires_on=1648559533&amp;signature=z3L4urIu2BKq8l2TJQtHWovXlpJajQ4k2P61nOLyue4%3D"]</t>
         </is>
       </c>
       <c r="BD285" t="inlineStr">
@@ -56059,7 +56163,7 @@
       </c>
       <c r="BC286" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/feaa77d2-a55f-44bc-a8d6-847aa20ce4d6/contrato-463177961.pdf?expires_on=1646914597&amp;signature=Qk68k09fC2taHjUg15x9K5jWsamlDTnv0KLJxSn9Xi4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/feaa77d2-a55f-44bc-a8d6-847aa20ce4d6/contrato-463177961.pdf?expires_on=1648559533&amp;signature=qoYiYiFHWK%2FV7mzcJ7hQgkH4Vl8sZLICektzclE%2FDcQ%3D"]</t>
         </is>
       </c>
       <c r="BD286" t="inlineStr">
@@ -56346,7 +56450,7 @@
       </c>
       <c r="BC287" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e3059013-bd68-4dde-9b8d-6950a0570496/contrato-468828319.pdf?expires_on=1646914597&amp;signature=a30vMnDzA3Ye8RiQcnDZyf1dAmEaqWIl03Me2ajDHwU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e3059013-bd68-4dde-9b8d-6950a0570496/contrato-468828319.pdf?expires_on=1648559533&amp;signature=DarSsVT7PZsmal%2BhOeeWeAC2MCpRpc6vwhq148xZuTo%3D"]</t>
         </is>
       </c>
       <c r="BD287" t="inlineStr">
@@ -56574,7 +56678,7 @@
       </c>
       <c r="BC288" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1646914597&amp;signature=rX3D8OCNitIn0QEWZyxUD04OBLKscLFdZfFjIR9TKww%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648559533&amp;signature=AZyr9fXy3yFE7ZYVX2uZ1h%2FeBc5S%2Fv6s8zSxKEoigIg%3D"]</t>
         </is>
       </c>
       <c r="BD288" t="inlineStr">
@@ -56806,7 +56910,7 @@
       </c>
       <c r="BC289" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1646914597&amp;signature=rX3D8OCNitIn0QEWZyxUD04OBLKscLFdZfFjIR9TKww%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648559533&amp;signature=AZyr9fXy3yFE7ZYVX2uZ1h%2FeBc5S%2Fv6s8zSxKEoigIg%3D"]</t>
         </is>
       </c>
       <c r="BD289" t="inlineStr">
@@ -57034,7 +57138,7 @@
       </c>
       <c r="BC290" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1646914597&amp;signature=rX3D8OCNitIn0QEWZyxUD04OBLKscLFdZfFjIR9TKww%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648559533&amp;signature=AZyr9fXy3yFE7ZYVX2uZ1h%2FeBc5S%2Fv6s8zSxKEoigIg%3D"]</t>
         </is>
       </c>
       <c r="BD290" t="inlineStr">
@@ -57258,7 +57362,7 @@
       </c>
       <c r="BC291" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca2d632f-7d59-41ef-a6e2-120406635cf3/contrato-466761651.pdf?expires_on=1646914597&amp;signature=wlMX6oLmcrrrMcomrE4My3WlJ5dqzuSH63U6Ye0wa54%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca2d632f-7d59-41ef-a6e2-120406635cf3/contrato-466761651.pdf?expires_on=1648559533&amp;signature=iznfnNGaWqro5MiRhsj9rHkj1x9nUWAZ9WlLsO%2BIU9w%3D"]</t>
         </is>
       </c>
       <c r="BD291" t="inlineStr">
@@ -57482,7 +57586,7 @@
       </c>
       <c r="BC292" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/fb850cfc-0639-4992-8429-2583971f2f57/contrato-466761651.pdf?expires_on=1646914597&amp;signature=2FFBYpIF5yooGBaUbCpY7uzv0bDUkSbMU3KVANipTpI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/fb850cfc-0639-4992-8429-2583971f2f57/contrato-466761651.pdf?expires_on=1648559533&amp;signature=xnUdhGqArDWk6xOXdb7ne41MNuqy909sh4HpV5d4muI%3D"]</t>
         </is>
       </c>
       <c r="BD292" t="inlineStr">
@@ -57710,7 +57814,7 @@
       </c>
       <c r="BC293" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1646914597&amp;signature=hwFBmOFhmkrzXFbRcJk0euPMjHJNebWpWxuudXpHfUI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648559533&amp;signature=J2Ocb8WuMJzfLTgyOYypkaMlSjG9rbmXd56nNOLTMLQ%3D"]</t>
         </is>
       </c>
       <c r="BD293" t="inlineStr">
@@ -57938,7 +58042,7 @@
       </c>
       <c r="BC294" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1646914597&amp;signature=hwFBmOFhmkrzXFbRcJk0euPMjHJNebWpWxuudXpHfUI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648559533&amp;signature=J2Ocb8WuMJzfLTgyOYypkaMlSjG9rbmXd56nNOLTMLQ%3D"]</t>
         </is>
       </c>
       <c r="BD294" t="inlineStr">
@@ -58166,7 +58270,7 @@
       </c>
       <c r="BC295" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1646914597&amp;signature=hwFBmOFhmkrzXFbRcJk0euPMjHJNebWpWxuudXpHfUI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648559533&amp;signature=J2Ocb8WuMJzfLTgyOYypkaMlSjG9rbmXd56nNOLTMLQ%3D"]</t>
         </is>
       </c>
       <c r="BD295" t="inlineStr">
@@ -58390,7 +58494,7 @@
       </c>
       <c r="BC296" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/bdc20416-c523-43fd-9354-066ace0c80aa/contrato-465874860.pdf?expires_on=1646914597&amp;signature=dPxBPvzioPQ8hUy3%2BaHXdqyxyLPAk%2FrovP3FZHYdS3E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/bdc20416-c523-43fd-9354-066ace0c80aa/contrato-465874860.pdf?expires_on=1648559533&amp;signature=BLLf7xkkHz91sOYtift3Gg3G%2F0ebT5JNVaH7p%2FK0e1I%3D"]</t>
         </is>
       </c>
       <c r="BD296" t="inlineStr">
@@ -58618,7 +58722,7 @@
       </c>
       <c r="BC297" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/27654372-8667-4580-873e-6a95b96bc6c0/contrato-465874860.pdf?expires_on=1646914597&amp;signature=Xstgh%2Fp9a6AjPJvTzRWWw2wSE8YPDTRXRZT%2FmgmDjQk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/27654372-8667-4580-873e-6a95b96bc6c0/contrato-465874860.pdf?expires_on=1648559533&amp;signature=hRibNaT4qtI9%2BZJ3RS07EMIhxiIhuSuJcNPUUNv5MhE%3D"]</t>
         </is>
       </c>
       <c r="BD297" t="inlineStr">
@@ -58905,7 +59009,7 @@
       </c>
       <c r="BC298" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aef69f69-2213-487c-b998-dc0d06df06ca/contrato-468417266.pdf?expires_on=1646914597&amp;signature=hbGvHlrTk6taX%2B%2B0icuSD%2BwrNgBR5Fh1f09nDTHj5z4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aef69f69-2213-487c-b998-dc0d06df06ca/contrato-468417266.pdf?expires_on=1648559533&amp;signature=xiKX32u9oW3ecypXPxheu%2Fd0y1b3%2FcDjXgXw%2BGRHlU8%3D"]</t>
         </is>
       </c>
       <c r="BD298" t="inlineStr">
@@ -59200,7 +59304,7 @@
       </c>
       <c r="BC299" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/19b191f4-531b-4c40-9473-90a6fe13bf72/contrato-465732783.pdf?expires_on=1646914597&amp;signature=uvO6X9TphTULiC3Sl4WI%2FSZuewWPt%2BktqizG0fIr%2FP8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/19b191f4-531b-4c40-9473-90a6fe13bf72/contrato-465732783.pdf?expires_on=1648559533&amp;signature=kx6in9qpPbscmuCibgcOAybmXr1rr825r%2FX3QN5LTf4%3D"]</t>
         </is>
       </c>
       <c r="BD299" t="inlineStr"/>
@@ -59447,7 +59551,7 @@
       </c>
       <c r="BC300" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4a6bb469-2355-431c-a0fc-ecc09e4568c0/contrato-469017842.pdf?expires_on=1646914597&amp;signature=%2FxvyLHOm99jVoZmiWzojC7d4T%2FYJl2AaELa4PpJMp50%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4a6bb469-2355-431c-a0fc-ecc09e4568c0/contrato-469017842.pdf?expires_on=1648559533&amp;signature=u%2BPgHLkDAUlAMJDuLBHGfNm5McbRvxtIrqRPzYTIOwk%3D"]</t>
         </is>
       </c>
       <c r="BD300" t="inlineStr">
@@ -59675,7 +59779,7 @@
       </c>
       <c r="BC301" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bf514f31-4854-4dec-ba24-970a10a3b04a/contrato-468749675.pdf?expires_on=1646914597&amp;signature=O3WV12qQAdV3Pz%2Bof9jJ4IjUQbEkhQ0m8br4WuUIKCw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bf514f31-4854-4dec-ba24-970a10a3b04a/contrato-468749675.pdf?expires_on=1648559533&amp;signature=DhRlSrTaxtKYY5807PVdFm%2BDUK9ZeGdKn7gIsXmA4MY%3D"]</t>
         </is>
       </c>
       <c r="BD301" t="inlineStr"/>
@@ -59902,7 +60006,7 @@
       </c>
       <c r="BC302" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a89ef8e4-1e31-4af4-a852-de71d21b0ad5/contrato-467365901.pdf?expires_on=1646914599&amp;signature=JbO%2FEtKaKq%2B5lxw435fElG%2F11qzvK5QpMw%2B6vaR9Ppw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a89ef8e4-1e31-4af4-a852-de71d21b0ad5/contrato-467365901.pdf?expires_on=1648559550&amp;signature=qHyO1la%2Fk9bMEM3cW7orczu6aoSuUyocZ6r%2B5KQK5ms%3D"]</t>
         </is>
       </c>
       <c r="BD302" t="inlineStr">
@@ -60133,7 +60237,7 @@
       </c>
       <c r="BC303" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1646914599&amp;signature=6IN7A81%2BFU5ShpYm%2B6uLuzpdmklEol6j4a3cz6libuY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648559550&amp;signature=Z456JTsv8DzvTkaShBt2x0zwCsmJsMVKyeddrNXh2Wc%3D"]</t>
         </is>
       </c>
       <c r="BD303" t="inlineStr">
@@ -60372,7 +60476,7 @@
       </c>
       <c r="BC304" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1646914599&amp;signature=6IN7A81%2BFU5ShpYm%2B6uLuzpdmklEol6j4a3cz6libuY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648559550&amp;signature=Z456JTsv8DzvTkaShBt2x0zwCsmJsMVKyeddrNXh2Wc%3D"]</t>
         </is>
       </c>
       <c r="BD304" t="inlineStr">
@@ -60622,7 +60726,7 @@
       </c>
       <c r="BC305" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1646914599&amp;signature=0SL2l%2Bm5ns6QFca7BdxsrJtfrItRufM0G9LudjaKNGA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648559550&amp;signature=lepjO8Y1%2F9%2Fq9LCOYolFSd9SaxxnUJdEwQezzfCE%2FV8%3D"]</t>
         </is>
       </c>
       <c r="BD305" t="inlineStr">
@@ -60892,7 +60996,7 @@
       </c>
       <c r="BC306" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1646914599&amp;signature=0SL2l%2Bm5ns6QFca7BdxsrJtfrItRufM0G9LudjaKNGA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648559550&amp;signature=lepjO8Y1%2F9%2Fq9LCOYolFSd9SaxxnUJdEwQezzfCE%2FV8%3D"]</t>
         </is>
       </c>
       <c r="BD306" t="inlineStr">
@@ -61151,7 +61255,7 @@
       </c>
       <c r="BC307" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3754db2c-7916-4b3d-a8ea-238579541e60/contrato-466091729.pdf?expires_on=1646914599&amp;signature=fOltYgpEKCrzMRAIb%2BiegOJmLyweXso%2FISKLg8RzSP0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3754db2c-7916-4b3d-a8ea-238579541e60/contrato-466091729.pdf?expires_on=1648559550&amp;signature=m89MvHvNT2HurNHrjnuloi7pSmax%2BX5g4oC2ni7kQbU%3D"]</t>
         </is>
       </c>
       <c r="BD307" t="inlineStr">
@@ -61413,7 +61517,7 @@
       </c>
       <c r="BC308" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0a5d9c43-fbc3-4f00-9d0c-c97f9edf1d25/contrato-469013309.pdf?expires_on=1646914599&amp;signature=iwrQeSG3sVh4rD1tq73raOicyVmZhh9kMYWmuCVkFB0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0a5d9c43-fbc3-4f00-9d0c-c97f9edf1d25/contrato-469013309.pdf?expires_on=1648559550&amp;signature=%2FeVy2M1Daw6y9%2FhlVjBtkzU42aGSQmogeCbPShn21gw%3D"]</t>
         </is>
       </c>
       <c r="BD308" t="inlineStr">
@@ -61602,7 +61706,7 @@
       <c r="BB309" t="inlineStr"/>
       <c r="BC309" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/50ef0e33-98ed-47e0-9846-36c019aa57ea/contrato-469054289.pdf?expires_on=1646914599&amp;signature=0GI5HVw%2B3Fq7B0okrPC1P0fHYqZEK2ckzZwmEQfE5vM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/50ef0e33-98ed-47e0-9846-36c019aa57ea/contrato-469054289.pdf?expires_on=1648559550&amp;signature=9dLRlFUgfwPkusTwDhtsSiI%2BlZmBUqSUYCjzO8qezvw%3D"]</t>
         </is>
       </c>
       <c r="BD309" t="inlineStr"/>
@@ -61843,7 +61947,7 @@
       </c>
       <c r="BC310" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/185bf35f-fd66-4ba8-a529-81de3bfbb3a3/contrato-469071097.pdf?expires_on=1646914599&amp;signature=%2F%2FCYPjxqZhrbUwRX3wmiigjygZgnE4Ee7dII3huNW8g%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/185bf35f-fd66-4ba8-a529-81de3bfbb3a3/contrato-469071097.pdf?expires_on=1648559550&amp;signature=8qZdJYYGMiKMvaUO2Jngr%2BYS2O8jED5d7%2BuK5aKmpsU%3D"]</t>
         </is>
       </c>
       <c r="BD310" t="inlineStr">
@@ -62093,7 +62197,7 @@
       </c>
       <c r="BC311" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/70cd35c1-9a99-4580-8c08-08a2024e0d64/contrato-469770285.pdf?expires_on=1646914599&amp;signature=E6Rfdyc9FGXMWROJnLumwDRJdR9Ym2jTFghFze1VH8o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/70cd35c1-9a99-4580-8c08-08a2024e0d64/contrato-469770285.pdf?expires_on=1648559550&amp;signature=UoGZZxcQmNOUakwllsn2wWMLkoPnbGW0Zbo9%2F3cuBTY%3D"]</t>
         </is>
       </c>
       <c r="BD311" t="inlineStr">
@@ -62342,7 +62446,7 @@
       </c>
       <c r="BC312" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8857045d-e847-458c-abca-e72faa3c26d2/contrato-468050467.pdf?expires_on=1646914599&amp;signature=mpR11wEx5HPok527iC6vn9HByxYF2Gfyd4aSx4D1nxY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8857045d-e847-458c-abca-e72faa3c26d2/contrato-468050467.pdf?expires_on=1648559550&amp;signature=yFDUrpXdZN%2FcdCb0rmyFz6raa7GDPcqooNnoi7K6nIk%3D"]</t>
         </is>
       </c>
       <c r="BD312" t="inlineStr">
@@ -62600,7 +62704,7 @@
       </c>
       <c r="BC313" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3f13f0d4-96be-458f-9b19-ff0ce401522d/contrato-464585309.pdf?expires_on=1646914599&amp;signature=EQXeQRpRPQopWtLsjxLP9lr9tEqZBLFk18AmKfcO3To%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3f13f0d4-96be-458f-9b19-ff0ce401522d/contrato-464585309.pdf?expires_on=1648559550&amp;signature=bjqZDNHIwnmxJI4nJB9EXKFCggsZpFDbnogqHLzdH3k%3D"]</t>
         </is>
       </c>
       <c r="BD313" t="inlineStr">
@@ -62751,7 +62855,7 @@
       <c r="BB314" t="inlineStr"/>
       <c r="BC314" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1646914599&amp;signature=vf68Ai2nowI8eXLANoMDJVjP7kWBFt%2BScjktqK7sgqw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648559550&amp;signature=j4ui89oY0P30HKhH0fV2lIQbBZy74rhDQt3K2rqs4Go%3D"]</t>
         </is>
       </c>
       <c r="BD314" t="inlineStr"/>
@@ -62894,7 +62998,7 @@
       <c r="BB315" t="inlineStr"/>
       <c r="BC315" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1646914599&amp;signature=vf68Ai2nowI8eXLANoMDJVjP7kWBFt%2BScjktqK7sgqw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648559550&amp;signature=j4ui89oY0P30HKhH0fV2lIQbBZy74rhDQt3K2rqs4Go%3D"]</t>
         </is>
       </c>
       <c r="BD315" t="inlineStr"/>
@@ -63037,7 +63141,7 @@
       <c r="BB316" t="inlineStr"/>
       <c r="BC316" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1646914599&amp;signature=vf68Ai2nowI8eXLANoMDJVjP7kWBFt%2BScjktqK7sgqw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648559550&amp;signature=j4ui89oY0P30HKhH0fV2lIQbBZy74rhDQt3K2rqs4Go%3D"]</t>
         </is>
       </c>
       <c r="BD316" t="inlineStr"/>
@@ -63286,7 +63390,7 @@
       </c>
       <c r="BC317" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d639fc49-28e1-478f-bc28-7a6b97aa8941/contrato-462515224.pdf?expires_on=1646914599&amp;signature=tGgOU7QeYLOT9fUQoN9B5UR%2F1TFq45Kaqcyqc4glCxM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d639fc49-28e1-478f-bc28-7a6b97aa8941/contrato-462515224.pdf?expires_on=1648559550&amp;signature=DN7bdRTxz90nod3wb9QQkyFPoELR3GpCOJC%2BqjFL%2FX8%3D"]</t>
         </is>
       </c>
       <c r="BD317" t="inlineStr">
@@ -63573,7 +63677,7 @@
       </c>
       <c r="BC318" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1fe600c3-ec6d-4287-a1c4-2b977d20a2e2/contrato-484250141.pdf?expires_on=1646914599&amp;signature=4Dw74TJMQA9Iow%2FBrdTOpUKWE5bOdpt%2F0ERLtzMGAMI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1fe600c3-ec6d-4287-a1c4-2b977d20a2e2/contrato-484250141.pdf?expires_on=1648559550&amp;signature=Ks7AcrKpwGanjDGAEjOsk4qZQrjgApfDYNYf1%2BxKO3A%3D"]</t>
         </is>
       </c>
       <c r="BD318" t="inlineStr">
@@ -63843,7 +63947,7 @@
       </c>
       <c r="BC319" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0bacb28e-4ef6-4a4a-883b-e8fb6ab8d2b5/contrato-482339095.pdf?expires_on=1646914599&amp;signature=ea%2FCKaKT2vViEGCfCwEf8WRuD4N4Daszu09Mm4iaj7k%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0bacb28e-4ef6-4a4a-883b-e8fb6ab8d2b5/contrato-482339095.pdf?expires_on=1648559550&amp;signature=%2Ff7rGh4PuXnYDXvEK1AAM9CpSCVVOfw6HmaWOGSLLkw%3D"]</t>
         </is>
       </c>
       <c r="BD319" t="inlineStr">
@@ -64075,7 +64179,7 @@
       </c>
       <c r="BC320" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05c6218a-69e4-4bc7-8f9b-b7f3ecb0e4cf/contrato-468313813.pdf?expires_on=1646914599&amp;signature=fhKOsjDtt8eDB7Z5Y9NrARlzhS%2BDG%2BvCFGqUDBgtyO4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05c6218a-69e4-4bc7-8f9b-b7f3ecb0e4cf/contrato-468313813.pdf?expires_on=1648559550&amp;signature=OEYNemeDDqWYgP32idn4%2B5Pn%2BU4WB815n48%2BBuwrZ9k%3D"]</t>
         </is>
       </c>
       <c r="BD320" t="inlineStr">
@@ -64331,7 +64435,7 @@
       </c>
       <c r="BC321" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1646914599&amp;signature=YXykWnXDsnmno7HdfLToYkpp%2FSBMkGq%2BPxMzz%2Bf4E1E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648559550&amp;signature=%2BUULFykQPFoS01goYPgHuq%2FIRMiU46KkkaoyPNpVrsg%3D"]</t>
         </is>
       </c>
       <c r="BD321" t="inlineStr">
@@ -64571,7 +64675,7 @@
       </c>
       <c r="BC322" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f7c95abb-2c62-40c2-8f73-70dfbe465d23/contrato-483891911.pdf?expires_on=1646914599&amp;signature=VNm6RcvJGXwV4i2cooU%2B6qzJJuZkFzmZMzcz2RDdJNE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f7c95abb-2c62-40c2-8f73-70dfbe465d23/contrato-483891911.pdf?expires_on=1648559550&amp;signature=Sz4mRjthAy0DyXNxd64ergZcguDS1KD%2FqeJQx1Ye0Gk%3D"]</t>
         </is>
       </c>
       <c r="BD322" t="inlineStr"/>
@@ -64825,7 +64929,7 @@
       </c>
       <c r="BC323" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1646914599&amp;signature=YXykWnXDsnmno7HdfLToYkpp%2FSBMkGq%2BPxMzz%2Bf4E1E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648559550&amp;signature=%2BUULFykQPFoS01goYPgHuq%2FIRMiU46KkkaoyPNpVrsg%3D"]</t>
         </is>
       </c>
       <c r="BD323" t="inlineStr">
@@ -65070,7 +65174,7 @@
       </c>
       <c r="BC324" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8ff5e065-1ee7-431d-8c96-c5e59d697ba6/contrato-482326201.pdf?expires_on=1646914599&amp;signature=GfWUaGq%2B279gznPM5dYi1r4VNMj7S1zw%2BW%2B%2FI8Dwlp4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8ff5e065-1ee7-431d-8c96-c5e59d697ba6/contrato-482326201.pdf?expires_on=1648559550&amp;signature=n9Gpy%2Fxlkrj5lL44yVwzTfUy7DA7Ako29Sy1fSWJzW4%3D"]</t>
         </is>
       </c>
       <c r="BD324" t="inlineStr">
@@ -65305,7 +65409,7 @@
       </c>
       <c r="BC325" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f613b665-fd00-40fd-a3a2-ec7d27fcd97c/contrato-481095700.pdf?expires_on=1646914599&amp;signature=3YxGhCOrWfNI1eaoay%2BNaT1wWefLE6%2BBRYcqDT1wX0E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f613b665-fd00-40fd-a3a2-ec7d27fcd97c/contrato-481095700.pdf?expires_on=1648559550&amp;signature=Xp0M%2FDnGOZQYFgyUP3ca3zuLrScgnuNJ5Mgsq05u%2FPE%3D"]</t>
         </is>
       </c>
       <c r="BD325" t="inlineStr">
@@ -65548,7 +65652,7 @@
       </c>
       <c r="BC326" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/907727b0-8360-4977-96b6-865f3e02abc4/contrato-482929161.pdf?expires_on=1646914599&amp;signature=7usHHd1t3tmT%2BI5ssY%2BbjGUbJo7E8ETa%2FVOW4Gx3Ijc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/907727b0-8360-4977-96b6-865f3e02abc4/contrato-482929161.pdf?expires_on=1648559550&amp;signature=RTxkqKLJYrlL0qGaZFUa9Ic%2FhHfxhk8BYQH5ZCXQQaE%3D"]</t>
         </is>
       </c>
       <c r="BD326" t="inlineStr">
@@ -65779,7 +65883,7 @@
       </c>
       <c r="BC327" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0274f89a-4915-4f57-94d7-ddc0ed81d0d5/contrato-489420064.pdf?expires_on=1646914599&amp;signature=%2BvkT%2Fxlx73fvoF%2FGSyOQj10YL8yfYADVDtZyNoOtNJk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0274f89a-4915-4f57-94d7-ddc0ed81d0d5/contrato-489420064.pdf?expires_on=1648559550&amp;signature=QzEM5mTszViKdJbZzkB0gxJ9u%2BMIcploC6HoUR0JlMo%3D"]</t>
         </is>
       </c>
       <c r="BD327" t="inlineStr">
@@ -66030,7 +66134,7 @@
       </c>
       <c r="BC328" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6458e3f4-3af4-417b-84e3-181c3ba8c011/contrato-490074673.pdf?expires_on=1646914599&amp;signature=JFN4GA4c5uEJzvAnNoYVBMnWoMjy6suRggTHT88MKJ4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6458e3f4-3af4-417b-84e3-181c3ba8c011/contrato-490074673.pdf?expires_on=1648559550&amp;signature=qcaw0Iu%2BsJ2ZJV8Zy7O34RFp5bKz6%2BYhdF0A5DtcLW8%3D"]</t>
         </is>
       </c>
       <c r="BD328" t="inlineStr">
@@ -66204,7 +66308,10 @@
       </c>
       <c r="AH329" t="inlineStr">
         <is>
-          <t>Internet Campex252
+          <t>Loreno Soligo
+CPF: 227.834.400-59
+Login: Net-virtua-1796-2.4G  - Senha: 6237517960
+Internet Campex252
 Thiago Augusto Soligo
 Cpf 956792940-87
 28/12/1980
@@ -66222,8 +66329,7 @@
 Ao chegar a pé na propriedade, utilize o tag. 
 O lixo pode ser descartado nas lixeiras que estão na garagem, próximo ao bicicletário e ao portão de entrada. Favor respeitar horário de silêncio das 8 da manhã às 22 horas e sempre ter certeza que todas as portas e portões do condomínio estão fechadas.
 Internet Wifi: 
-Login: 2G THIAGO/5G THIAGO
-senha: Campex252 
+Login: Net-virtua-1796-2.4G  - Senha: 6237517960
 Obs: a academia do prédio e espaço gourmet não estão liberados para uso de hóspedes. 
 Desejamos uma excelente estadia e ficamos à disposição. (P176 L'Essence)</t>
         </is>
@@ -66317,7 +66423,7 @@
       </c>
       <c r="BC329" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/268c2abe-ccfe-422f-959f-9e36a73ba21d/contrato-490721834.pdf?expires_on=1646914599&amp;signature=Kr6BzP9Ba7MurrXtXAwirlsYhIkHXxGLDgInLOB%2FCBc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/268c2abe-ccfe-422f-959f-9e36a73ba21d/contrato-490721834.pdf?expires_on=1648559550&amp;signature=cEDSlIi%2FZHJASQta%2Bt4gX0CRK5lEkAzxeICLZ1kAaeg%3D"]</t>
         </is>
       </c>
       <c r="BD329" t="inlineStr">
@@ -66599,7 +66705,7 @@
       </c>
       <c r="BC330" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7cd39b4e-44a7-49f2-8847-c0f7ba78d7c0/contrato-487326575.pdf?expires_on=1646914599&amp;signature=Br%2FKJdnh%2FKX0enIYcZJqtxAzAhY4rAAZvaReXR2dDkA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7cd39b4e-44a7-49f2-8847-c0f7ba78d7c0/contrato-487326575.pdf?expires_on=1648559550&amp;signature=QUruPzkruxC%2Fol4kC0reOZmRKn8eYq3Wo75B1Yf2Gx0%3D"]</t>
         </is>
       </c>
       <c r="BD330" t="inlineStr"/>
@@ -66750,7 +66856,7 @@
       <c r="BB331" t="inlineStr"/>
       <c r="BC331" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fa0eed8a-9f4b-4e8c-866f-8f78db2c5a27/contrato-490012314.pdf?expires_on=1646914599&amp;signature=pyIVe9OlTUUa0JSfXnAtnRNQIjcNIpNwKivcjeER77E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fa0eed8a-9f4b-4e8c-866f-8f78db2c5a27/contrato-490012314.pdf?expires_on=1648559550&amp;signature=x9OJ0x3yGJmgch6pS8%2BjZiC7fC42il8UWH7QH1gCOXc%3D"]</t>
         </is>
       </c>
       <c r="BD331" t="inlineStr"/>
@@ -66988,7 +67094,7 @@
       </c>
       <c r="BC332" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2f604b6b-78fa-478c-999d-5b05501f32b1/contrato-488220629.pdf?expires_on=1646914599&amp;signature=Pn6xCld2etl%2Bvt8zNKufa6RUFV33w78kPcwU8v%2FRop8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2f604b6b-78fa-478c-999d-5b05501f32b1/contrato-488220629.pdf?expires_on=1648559550&amp;signature=k6w4O6VQneFiGSvnfuQNgOY84Z34JwjQC4rD0RJH4ds%3D"]</t>
         </is>
       </c>
       <c r="BD332" t="inlineStr">
@@ -67252,7 +67358,7 @@
       </c>
       <c r="BC333" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab61a519-69b0-48c4-ab25-12dd9fac4d45/contrato-488653944.pdf?expires_on=1646914599&amp;signature=nuy3%2BWgdjXTs6ipiTqAIXmpPoBI3hmIrARo7uSHWHDw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab61a519-69b0-48c4-ab25-12dd9fac4d45/contrato-488653944.pdf?expires_on=1648559550&amp;signature=0owfcqXkDUf10ir9jlcd6C%2FQhaPJ1q0N05IJy1Oxc4Q%3D"]</t>
         </is>
       </c>
       <c r="BD333" t="inlineStr">
@@ -67515,7 +67621,7 @@
       </c>
       <c r="BC334" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/36b4ad0f-61e5-4b55-8fe2-a3c77319e967/contrato-491949690.pdf?expires_on=1646914599&amp;signature=CC47I0jXogxDzEVqxDd0A3bzMH3oQiYgAtK0aY0Nx2g%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/36b4ad0f-61e5-4b55-8fe2-a3c77319e967/contrato-491949690.pdf?expires_on=1648559550&amp;signature=tAxzoPXxDH0Oxrog1TCcAZSFTNFqXRr2vnDQyrzeTcA%3D"]</t>
         </is>
       </c>
       <c r="BD334" t="inlineStr">
@@ -67788,7 +67894,7 @@
       </c>
       <c r="BC335" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f11b2835-3a83-43cd-a12c-5c4487c60815/contrato-495929206.pdf?expires_on=1646914599&amp;signature=3M%2FmQi%2FwWOsG6ZFsdmmBDyq094puuBh1RdFHBHHhu54%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f11b2835-3a83-43cd-a12c-5c4487c60815/contrato-495929206.pdf?expires_on=1648559550&amp;signature=%2BX7kuMTyQZZIGiIw2yNHNRY5yL%2FFijjsk45%2F9C%2FVZrg%3D"]</t>
         </is>
       </c>
       <c r="BD335" t="inlineStr">
@@ -68029,7 +68135,7 @@
       </c>
       <c r="BC336" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1646914599&amp;signature=xsKo%2FqEKJBXwPWfJTPw41wLqPlI0wphlOTn0eTjMUig%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648559550&amp;signature=GOdLZEbVwPyORgg46xRnb7%2FUg9%2FQUrq5B8RIyrtKqq8%3D"]</t>
         </is>
       </c>
       <c r="BD336" t="inlineStr">
@@ -68287,7 +68393,7 @@
       </c>
       <c r="BC337" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5168106c-16c5-4cc5-b014-fc5309064660/contrato-491297142.pdf?expires_on=1646914599&amp;signature=VY8M%2FrO%2FjI2svMRd28VVUiohrnXXCymOFpQpnYshuwI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5168106c-16c5-4cc5-b014-fc5309064660/contrato-491297142.pdf?expires_on=1648559550&amp;signature=A7oXYwXBm9q6S5qXDHxZfGVBKcmtTOYGjxrPINdUmi0%3D"]</t>
         </is>
       </c>
       <c r="BD337" t="inlineStr">
@@ -68522,7 +68628,7 @@
       </c>
       <c r="BC338" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bb74b6e-6ec6-4133-bdb0-78f75d46bcbb/contrato-493467702.pdf?expires_on=1646914599&amp;signature=1LYaZ6T48pCyGfrcAoeCUohhaKjWOIYCQbeBAej2VkA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bb74b6e-6ec6-4133-bdb0-78f75d46bcbb/contrato-493467702.pdf?expires_on=1648559550&amp;signature=2bej1OyuL1LZaqgbmzACA%2FDq7aLX1rXZW6Gw6G7OWHw%3D"]</t>
         </is>
       </c>
       <c r="BD338" t="inlineStr">
@@ -68677,7 +68783,7 @@
       <c r="BB339" t="inlineStr"/>
       <c r="BC339" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1646914599&amp;signature=xsKo%2FqEKJBXwPWfJTPw41wLqPlI0wphlOTn0eTjMUig%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648559550&amp;signature=GOdLZEbVwPyORgg46xRnb7%2FUg9%2FQUrq5B8RIyrtKqq8%3D"]</t>
         </is>
       </c>
       <c r="BD339" t="inlineStr"/>
@@ -68914,7 +69020,7 @@
       </c>
       <c r="BC340" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d44c791d-49dc-4141-88a5-6cd9f5661c1e/contrato-496263774.pdf?expires_on=1646914599&amp;signature=bkppREu5cSQyEo%2BjBy91PxKJqZiRnXFS4nBzDaO0ht0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d44c791d-49dc-4141-88a5-6cd9f5661c1e/contrato-496263774.pdf?expires_on=1648559550&amp;signature=1DVDX3jyIzo5mzMJwo4FRYxbgX5gE5fbDfuZUtSMHRg%3D"]</t>
         </is>
       </c>
       <c r="BD340" t="inlineStr">
@@ -69153,7 +69259,7 @@
       </c>
       <c r="BC341" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/cf077f2c-8ef0-4846-8321-d54f66ebe604/contrato-484319529.pdf?expires_on=1646914599&amp;signature=d8lfBnjt8nhYDhv6AE4rx%2FOP0XPAwEv56k20BZXPQ4o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/cf077f2c-8ef0-4846-8321-d54f66ebe604/contrato-484319529.pdf?expires_on=1648559550&amp;signature=u3JCVgJeY9fd37%2BufuvQw8lMERWRdCjuece4Gu%2BnHtY%3D"]</t>
         </is>
       </c>
       <c r="BD341" t="inlineStr">
@@ -69399,7 +69505,7 @@
       </c>
       <c r="BC342" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5f666ea2-5c15-47b0-bec7-57697febef24/contrato-491061351.pdf?expires_on=1646914599&amp;signature=1WjOtgaq5uwFZDiu1EfhmBkeTai8LnXzmNO7hS82AuM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5f666ea2-5c15-47b0-bec7-57697febef24/contrato-491061351.pdf?expires_on=1648559550&amp;signature=FZau8pOzVKweQdfAfNP4ObBdTkb7qsaTarF2MaDBhzk%3D"]</t>
         </is>
       </c>
       <c r="BD342" t="inlineStr">
@@ -69646,7 +69752,7 @@
       </c>
       <c r="BC343" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bbe80b1-78b2-4aba-a33a-454d3861e38f/contrato-499250516.pdf?expires_on=1646914599&amp;signature=2%2FBKV%2BMOA4Qde3B%2FGqN6xWYMdjanNj6ujOroOFbdau0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bbe80b1-78b2-4aba-a33a-454d3861e38f/contrato-499250516.pdf?expires_on=1648559550&amp;signature=1Q6C1Hpc5UYfZ2tTr5k4UgLcXhyt%2BboZEpxhSTY3qcI%3D"]</t>
         </is>
       </c>
       <c r="BD343" t="inlineStr"/>
@@ -69663,6 +69769,1020 @@
       <c r="BG343" t="inlineStr">
         <is>
           <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>509460126</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>["416942572"]</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>P341</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>["500812475"]</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rua Recanto do Sol </t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>Apto 202</t>
+        </is>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>88058-577</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingleses </t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianópolis </t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Recanto do sol</t>
+        </is>
+      </c>
+      <c r="S344" t="inlineStr"/>
+      <c r="T344" t="inlineStr"/>
+      <c r="U344" t="inlineStr"/>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr"/>
+      <c r="Y344" t="inlineStr"/>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>Piscina/ horário das 10h às 21h. Não pode levar Utensílios cortantes,(faca/vidro)</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>Elevador e escada</t>
+        </is>
+      </c>
+      <c r="AB344" t="inlineStr"/>
+      <c r="AC344" t="inlineStr"/>
+      <c r="AD344" t="inlineStr"/>
+      <c r="AE344" t="inlineStr">
+        <is>
+          <t>["416941791"]</t>
+        </is>
+      </c>
+      <c r="AF344" t="inlineStr"/>
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH344" t="inlineStr">
+        <is>
+          <t>Claro fibra 250mb
+O contrato está em nome do genro, e se tiver lgum problema com a Internet deverá comunicar o proprietário.
+Rede: virus
+Senha:pedro202</t>
+        </is>
+      </c>
+      <c r="AI344" t="inlineStr"/>
+      <c r="AJ344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AK344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AL344" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="AM344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO344" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AQ344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AR344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AS344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AT344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AU344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AV344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AW344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AX344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AY344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AZ344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BA344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BB344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BC344" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/46144cc6-1699-48b9-a042-cb99f86003ed/contrato-500811506.pdf?expires_on=1648559550&amp;signature=yUFtjKmm46ARj3XrvMCwrhhYAgcqx1Hk2T6ml%2B%2FoodM%3D"]</t>
+        </is>
+      </c>
+      <c r="BD344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As vaga é no subsolo, estilo gaveta, ea última  vaga, cabe dois carros médios </t>
+        </is>
+      </c>
+      <c r="BE344" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF344" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG344" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>509592864</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>["414787990"]</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>P374</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>["460174824"]</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Servidão Alfredo Manoel Vieira</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>88066-242</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>Morro das Pedras</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr"/>
+      <c r="X345" t="inlineStr"/>
+      <c r="Y345" t="inlineStr"/>
+      <c r="Z345" t="inlineStr"/>
+      <c r="AA345" t="inlineStr"/>
+      <c r="AB345" t="inlineStr"/>
+      <c r="AC345" t="inlineStr"/>
+      <c r="AD345" t="inlineStr"/>
+      <c r="AE345" t="inlineStr">
+        <is>
+          <t>["406710170"]</t>
+        </is>
+      </c>
+      <c r="AF345" t="inlineStr"/>
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH345" t="inlineStr"/>
+      <c r="AI345" t="inlineStr"/>
+      <c r="AJ345" t="inlineStr"/>
+      <c r="AK345" t="inlineStr"/>
+      <c r="AL345" t="inlineStr"/>
+      <c r="AM345" t="inlineStr"/>
+      <c r="AN345" t="inlineStr"/>
+      <c r="AO345" t="inlineStr"/>
+      <c r="AP345" t="inlineStr"/>
+      <c r="AQ345" t="inlineStr"/>
+      <c r="AR345" t="inlineStr"/>
+      <c r="AS345" t="inlineStr"/>
+      <c r="AT345" t="inlineStr"/>
+      <c r="AU345" t="inlineStr"/>
+      <c r="AV345" t="inlineStr"/>
+      <c r="AW345" t="inlineStr"/>
+      <c r="AX345" t="inlineStr"/>
+      <c r="AY345" t="inlineStr"/>
+      <c r="AZ345" t="inlineStr"/>
+      <c r="BA345" t="inlineStr"/>
+      <c r="BB345" t="inlineStr"/>
+      <c r="BC345" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1308dcb9-8896-4c49-a9a8-79e3e12f3d07/contrato-460165669.pdf?expires_on=1648559550&amp;signature=vOT8wbScaAZGYYxvI4wMCjHMH2r%2B8OeaUm2WDrYN3LI%3D"]</t>
+        </is>
+      </c>
+      <c r="BD345" t="inlineStr"/>
+      <c r="BE345" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF345" t="inlineStr"/>
+      <c r="BG345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>510279205</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>P330</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>["500802867"]</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Avenida Prefeito Waldemar Vieira</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>88045-500</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saco dos Limoes </t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Lo Roques</t>
+        </is>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>Não há necessidade de cadastro</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr"/>
+      <c r="U346" t="inlineStr"/>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W346" t="inlineStr"/>
+      <c r="X346" t="inlineStr"/>
+      <c r="Y346" t="inlineStr"/>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piscina </t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>Sim, há elevador</t>
+        </is>
+      </c>
+      <c r="AB346" t="inlineStr"/>
+      <c r="AC346" t="inlineStr">
+        <is>
+          <t>Lei do silencio.</t>
+        </is>
+      </c>
+      <c r="AD346" t="inlineStr"/>
+      <c r="AE346" t="inlineStr">
+        <is>
+          <t>["441037073"]</t>
+        </is>
+      </c>
+      <c r="AF346" t="inlineStr"/>
+      <c r="AG346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH346" t="inlineStr">
+        <is>
+          <t>NET Virtua / 50Mega / ap302 / ap302n635</t>
+        </is>
+      </c>
+      <c r="AI346" t="inlineStr"/>
+      <c r="AJ346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AK346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AL346" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AM346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO346" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AQ346" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AR346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AS346" t="inlineStr"/>
+      <c r="AT346" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AU346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AV346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AW346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AX346" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AY346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AZ346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BA346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BB346" t="inlineStr"/>
+      <c r="BC346" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d10b59c7-0ab0-4cea-a2a8-656115e4c21f/contrato-500346265.pdf?expires_on=1648559550&amp;signature=6AtGqJ%2BoH%2FdFsjZD3UCx6yJZWpJW8KJxZ2Z1fCihsDE%3D"]</t>
+        </is>
+      </c>
+      <c r="BD346" t="inlineStr">
+        <is>
+          <t>As vagas são cobertas, ficam na primeira entrada a direita do prédio, número 37 e 38</t>
+        </is>
+      </c>
+      <c r="BE346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF346" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BG346" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>511359657</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>P286</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>["496213943"]</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Rua Felipe Schmidt</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>Apartamento 205</t>
+        </is>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>88010-010</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>Florianopolis</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edifício Governador Felipe Schmidt AC </t>
+        </is>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>Por enquanto não precisa pois ainda estão implementando as regras.</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr"/>
+      <c r="U347" t="inlineStr"/>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr"/>
+      <c r="Y347" t="inlineStr"/>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>Não tem.</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>Há elevador. 
+Mas existe 4 de graus pra acessar o Hall de entrada.</t>
+        </is>
+      </c>
+      <c r="AB347" t="inlineStr"/>
+      <c r="AC347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O condomínio ainda está com poucas regras. Acabou de mudar administração e estão ainda se adequando. </t>
+        </is>
+      </c>
+      <c r="AD347" t="inlineStr"/>
+      <c r="AE347" t="inlineStr">
+        <is>
+          <t>["427999300"]</t>
+        </is>
+      </c>
+      <c r="AF347" t="inlineStr"/>
+      <c r="AG347" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Internet claro do prédio distribuída por andares. 
+Rede COND.FS
+senha bebaagua
+</t>
+        </is>
+      </c>
+      <c r="AI347" t="inlineStr"/>
+      <c r="AJ347" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AK347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AL347" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AM347" t="inlineStr"/>
+      <c r="AN347" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO347" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP347" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AQ347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AR347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AS347" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AT347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AU347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AV347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AW347" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AX347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AY347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AZ347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BA347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BB347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BC347" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7ca55b57-892c-464f-af2a-fdad38dbbc9a/contrato-495796837.pdf?expires_on=1648559550&amp;signature=L72EQskCHSP4Q%2BFJ7l2JiIUkACuacuvGU%2Fm4pMt1nbM%3D"]</t>
+        </is>
+      </c>
+      <c r="BD347" t="inlineStr"/>
+      <c r="BE347" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF347" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG347" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>512933449</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>P308</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>["496218215"]</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estrada Dom João Becker </t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>88058-600</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>Ingleses</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R348" t="inlineStr"/>
+      <c r="S348" t="inlineStr"/>
+      <c r="T348" t="inlineStr"/>
+      <c r="U348" t="inlineStr"/>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr"/>
+      <c r="X348" t="inlineStr"/>
+      <c r="Y348" t="inlineStr"/>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="inlineStr"/>
+      <c r="AB348" t="inlineStr"/>
+      <c r="AC348" t="inlineStr"/>
+      <c r="AD348" t="inlineStr"/>
+      <c r="AE348" t="inlineStr">
+        <is>
+          <t>["419303221"]</t>
+        </is>
+      </c>
+      <c r="AF348" t="inlineStr"/>
+      <c r="AG348" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH348" t="inlineStr"/>
+      <c r="AI348" t="inlineStr"/>
+      <c r="AJ348" t="inlineStr"/>
+      <c r="AK348" t="inlineStr"/>
+      <c r="AL348" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AM348" t="inlineStr"/>
+      <c r="AN348" t="inlineStr"/>
+      <c r="AO348" t="inlineStr"/>
+      <c r="AP348" t="inlineStr"/>
+      <c r="AQ348" t="inlineStr"/>
+      <c r="AR348" t="inlineStr"/>
+      <c r="AS348" t="inlineStr"/>
+      <c r="AT348" t="inlineStr"/>
+      <c r="AU348" t="inlineStr"/>
+      <c r="AV348" t="inlineStr"/>
+      <c r="AW348" t="inlineStr"/>
+      <c r="AX348" t="inlineStr"/>
+      <c r="AY348" t="inlineStr"/>
+      <c r="AZ348" t="inlineStr"/>
+      <c r="BA348" t="inlineStr"/>
+      <c r="BB348" t="inlineStr"/>
+      <c r="BC348" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/13ad6059-3657-4255-bdd0-5a1632b79da7/contrato-496195905.pdf?expires_on=1648559550&amp;signature=%2Bahwxuh5Vxwjtf7EsnpeyivfNQDVb4w0%2F0FirK2I6aA%3D"]</t>
+        </is>
+      </c>
+      <c r="BD348" t="inlineStr"/>
+      <c r="BE348" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF348" t="inlineStr"/>
+      <c r="BG348" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
     </row>

--- a/files/bdPropriedades.xlsx
+++ b/files/bdPropriedades.xlsx
@@ -26513,7 +26513,7 @@
       </c>
       <c r="BC158" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/ABC?expires_on=1648559529&amp;signature=WRwuR8sj5eKR6rf7gt0bW7ORFTjX1RIypT4kZramT9I%3D", "https://app-storage-service.pipefy.com/v1/signed/ABCDE?expires_on=1648559529&amp;signature=lArZoqK70vHF%2BrS1hlspbCk30X80smQzWHmT5AXzZuw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/ABC?expires_on=1648599368&amp;signature=loMvMFMdLHnRARUvS8yZOqao5q%2BkL9joPZgfnWe3i4c%3D", "https://app-storage-service.pipefy.com/v1/signed/ABCDE?expires_on=1648599368&amp;signature=%2Ba9fyn5YqmKCdaVpFq%2BjBvwNJtAkS5BjSIg5LtdXoUs%3D"]</t>
         </is>
       </c>
       <c r="BD158" t="inlineStr"/>
@@ -27736,7 +27736,7 @@
       </c>
       <c r="BC165" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/942fbdb8-4a78-4eaa-bc3a-b672778dc32a/ContratodePrestaodeServios-FernandaGntherRamos.docx-Clicksign.pdf?expires_on=1648559529&amp;signature=Qdy%2F3Krbanb2Wa%2Ft5G%2FYmduWGIBbSepJT5a%2FGJguJB4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/942fbdb8-4a78-4eaa-bc3a-b672778dc32a/ContratodePrestaodeServios-FernandaGntherRamos.docx-Clicksign.pdf?expires_on=1648599368&amp;signature=4Ie2bW9awqpQbstk5QIyCvJjrLzAYZqkqGaVUmbuNH4%3D"]</t>
         </is>
       </c>
       <c r="BD165" t="inlineStr">
@@ -27880,7 +27880,7 @@
       <c r="BB166" t="inlineStr"/>
       <c r="BC166" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/b061a5be-d1e8-46ad-af97-43cf33016a73/137b5472-bca7-4d3e-b7b1-5c7875bd1016.pdf?expires_on=1648559529&amp;signature=9JKLpQyf0xN38oO%2FHbRDosFY7Gcp2em7KeB2U1JI7FA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/b061a5be-d1e8-46ad-af97-43cf33016a73/137b5472-bca7-4d3e-b7b1-5c7875bd1016.pdf?expires_on=1648599368&amp;signature=eGtAvyCxExLwm13%2BrvyTo7yBetkCjmeJqEeDsZUltXA%3D"]</t>
         </is>
       </c>
       <c r="BD166" t="inlineStr"/>
@@ -28139,7 +28139,7 @@
       </c>
       <c r="BC167" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6e707ef8-7dca-4af6-b576-b5708dbe35f2/contrato-425891064.pdf%3Fexpires_on%3D1623440918%26signature%3DH%252B7vFkDAMFrCkFxxnfe3iZhJuDjE6Ji9ayX0IW7wqWg%253D?expires_on=1648559529&amp;signature=Z%2B8l4rQM2a3cH9kRx%2FoQBpiA7JUA2ZXquvqT6ZEHxkI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6e707ef8-7dca-4af6-b576-b5708dbe35f2/contrato-425891064.pdf%3Fexpires_on%3D1623440918%26signature%3DH%252B7vFkDAMFrCkFxxnfe3iZhJuDjE6Ji9ayX0IW7wqWg%253D?expires_on=1648599368&amp;signature=2TTB%2BJPQ2NB%2BKO9tE%2Fq%2FfLknfwf4HxAKQlRBRnSdAxk%3D"]</t>
         </is>
       </c>
       <c r="BD167" t="inlineStr">
@@ -28390,7 +28390,7 @@
       </c>
       <c r="BC168" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7463fe03-ae0a-49dc-a080-7fc81e3e1006/contrato-427292869.pdf%3Fexpires_on%3D1623960718%26signature%3Dcej2yiGIlavCGx%252Br35mL%252B%252FVGRlWpxUigua3OGSKjjZE%253D?expires_on=1648559529&amp;signature=SqzTLT1UtvQCSM%2BCnaEcrpYaleBySZb6nBsQdlhexkI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7463fe03-ae0a-49dc-a080-7fc81e3e1006/contrato-427292869.pdf%3Fexpires_on%3D1623960718%26signature%3Dcej2yiGIlavCGx%252Br35mL%252B%252FVGRlWpxUigua3OGSKjjZE%253D?expires_on=1648599368&amp;signature=FeGpaU1eoX%2Bq2iwbRHNnJkWnjISxNy%2BKZ5upAZKk2xM%3D"]</t>
         </is>
       </c>
       <c r="BD168" t="inlineStr">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="BC169" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2d1ab0da-2b53-4bd9-94b7-c6cc404689eb/contrato-429090864.pdf%3Fexpires_on%3D1624889479%26signature%3Dldz84sarHfUeXn4JANpNsV1OClSz7p3wOQuqPXKR04s%253D?expires_on=1648559529&amp;signature=RquFwAsZxxIhxHMh%2BtJiByqW6sP%2FBA1WRoN%2Baiyb5b8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2d1ab0da-2b53-4bd9-94b7-c6cc404689eb/contrato-429090864.pdf%3Fexpires_on%3D1624889479%26signature%3Dldz84sarHfUeXn4JANpNsV1OClSz7p3wOQuqPXKR04s%253D?expires_on=1648599368&amp;signature=pchOsUQxN%2BPBc%2BrW0NTQ7cOcKKMgXPxTcdKZs80Ih1M%3D"]</t>
         </is>
       </c>
       <c r="BD169" t="inlineStr">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="BC170" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe7fd7ac-b7b0-4234-976c-06a099d57e66/contrato-429948126.pdf%3Fexpires_on%3D1625255326%26signature%3DxJw9VGgJ%252B2ZCQa5hryj6yKghV5%252F2SK1kJmopwqyWxiI%253D?expires_on=1648559529&amp;signature=t7e%2FmxLt%2BauQVCTgDVPN4yD8Pl6Yw7PyBrI6N2KFEEM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe7fd7ac-b7b0-4234-976c-06a099d57e66/contrato-429948126.pdf%3Fexpires_on%3D1625255326%26signature%3DxJw9VGgJ%252B2ZCQa5hryj6yKghV5%252F2SK1kJmopwqyWxiI%253D?expires_on=1648599368&amp;signature=IYILD%2FI15jDoXly9P27s1CETRau6m8z%2FoSL1xN5tejc%3D"]</t>
         </is>
       </c>
       <c r="BD170" t="inlineStr"/>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="BC171" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5fb8a3a0-9b8a-493a-84b4-c584645633be/contrato-427900081.pdf%3Fexpires_on%3D1625765431%26signature%3DdDNYpd8xXNK9k6sTH%252B5Vf61abvFBWQyEogRVXyWEF38%253D?expires_on=1648559529&amp;signature=HzH1AfQhv%2B1WWHxbebJGd%2B%2BcP8oSjxOVGS1HbdjJsio%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5fb8a3a0-9b8a-493a-84b4-c584645633be/contrato-427900081.pdf%3Fexpires_on%3D1625765431%26signature%3DdDNYpd8xXNK9k6sTH%252B5Vf61abvFBWQyEogRVXyWEF38%253D?expires_on=1648599368&amp;signature=R0G%2FSoKRXP4WTarUCv11mpZdD8OONY83jrQut4e44Zo%3D"]</t>
         </is>
       </c>
       <c r="BD171" t="inlineStr"/>
@@ -29402,7 +29402,7 @@
       </c>
       <c r="BC172" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/af097ee8-0fcc-48c3-9c72-fc4e59e6e4dd/contrato-432148485.pdf%3Fexpires_on%3D1626287144%26signature%3DjBXlVDH%252Fmh1YkeFRx%252BiO5ruKohAY72xxgMoE2xZE1Wo%253D?expires_on=1648559529&amp;signature=u7xiyNpFEr4O%2Bvt6j0znRt%2FUGmO78VesEvVJ%2F58WXwk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/af097ee8-0fcc-48c3-9c72-fc4e59e6e4dd/contrato-432148485.pdf%3Fexpires_on%3D1626287144%26signature%3DjBXlVDH%252Fmh1YkeFRx%252BiO5ruKohAY72xxgMoE2xZE1Wo%253D?expires_on=1648599368&amp;signature=4Xz0suQZXU%2BRGJt%2Fh7W891h9TO4CWPaVDvnKW%2BDo6Bg%3D"]</t>
         </is>
       </c>
       <c r="BD172" t="inlineStr">
@@ -29645,7 +29645,7 @@
       </c>
       <c r="BC173" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/30abc82b-01aa-4c80-b09c-3417c8bcf5c6/contrato-427882033.pdf%3Fexpires_on%3D1625843728%26signature%3DWunisUkxaFmldxCGSe1qYUsXgLxvmaQqX92dcxV0v6U%253D?expires_on=1648559529&amp;signature=9NuYY0JSjDPJB%2Fbt0hrvEJRp0FyftgxM%2FeW%2BtLk4Ff8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/30abc82b-01aa-4c80-b09c-3417c8bcf5c6/contrato-427882033.pdf%3Fexpires_on%3D1625843728%26signature%3DWunisUkxaFmldxCGSe1qYUsXgLxvmaQqX92dcxV0v6U%253D?expires_on=1648599368&amp;signature=8g3PRPObRap8CAiDfPwfbwKcXfjk3WVVMlxziJPd%2BPM%3D"]</t>
         </is>
       </c>
       <c r="BD173" t="inlineStr"/>
@@ -29938,7 +29938,7 @@
       </c>
       <c r="BC174" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5147bb95-e4e2-40b7-a231-9ce07b7e9eb2/ContratodePrestaodeServios-SimaraNienktterDeVincenzi.docx-Clicksign.pdf?expires_on=1648559529&amp;signature=UlGikERpmm%2Bt3I9DGisviKTfXvbOL%2BcjfBHXPG5quMQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5147bb95-e4e2-40b7-a231-9ce07b7e9eb2/ContratodePrestaodeServios-SimaraNienktterDeVincenzi.docx-Clicksign.pdf?expires_on=1648599368&amp;signature=4IJViRqOl0Lzd5R80KGvxIM0nuunRFlV2CtmiHfcrHs%3D"]</t>
         </is>
       </c>
       <c r="BD174" t="inlineStr">
@@ -30190,7 +30190,7 @@
       </c>
       <c r="BC175" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcbf1b01-f9cc-40dd-aa45-3d0db4f114c0/contrato-434036046.pdf%3Fexpires_on%3D1627137690%26signature%3DGwEpmsayu1pxiiZsYfPw7QnthQ1n2Ma51QUGqr9RdBE%253D?expires_on=1648559529&amp;signature=e73Vixt5Er7k3TTedpeFJepgLxnGuyqGbwS3A%2BuMqa0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcbf1b01-f9cc-40dd-aa45-3d0db4f114c0/contrato-434036046.pdf%3Fexpires_on%3D1627137690%26signature%3DGwEpmsayu1pxiiZsYfPw7QnthQ1n2Ma51QUGqr9RdBE%253D?expires_on=1648599368&amp;signature=nS0hJVrROxba5qY3dQamasBl8e0T9iYn9H3dsQ97IPY%3D"]</t>
         </is>
       </c>
       <c r="BD175" t="inlineStr">
@@ -30437,7 +30437,7 @@
       </c>
       <c r="BC176" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/56f554bd-1778-4f13-9495-4f6815681e8c/contrato-434347806.pdf%3Fexpires_on%3D1627584670%26signature%3Da0WChkMJKoLURnVR9sdzC0kh9gdvBeWirdlqzivbRW8%253D?expires_on=1648559529&amp;signature=NTLV%2FSQRW%2B6grpArX%2FuFV0i0Gt7rGl7jxw07hAtXPPc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/56f554bd-1778-4f13-9495-4f6815681e8c/contrato-434347806.pdf%3Fexpires_on%3D1627584670%26signature%3Da0WChkMJKoLURnVR9sdzC0kh9gdvBeWirdlqzivbRW8%253D?expires_on=1648599368&amp;signature=EosYw7u6Qp1%2F8cAs3QM%2B9EH04s0nwJNx5fyFc15BNM0%3D"]</t>
         </is>
       </c>
       <c r="BD176" t="inlineStr">
@@ -30592,7 +30592,7 @@
       <c r="BB177" t="inlineStr"/>
       <c r="BC177" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dd480bd1-24df-47c1-8362-f6d01dc13878/contrato-431619440.pdf%3Fexpires_on%3D1626806287%26signature%3DX%252BQo2ROzmN1g11xdVnjwNzA9AO8So6FNK63W3LSVFRk%253D?expires_on=1648559529&amp;signature=kYMG%2FEDkovegJo2x9WFLblIzpTJcsogl%2FHcbiUEWk4o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dd480bd1-24df-47c1-8362-f6d01dc13878/contrato-431619440.pdf%3Fexpires_on%3D1626806287%26signature%3DX%252BQo2ROzmN1g11xdVnjwNzA9AO8So6FNK63W3LSVFRk%253D?expires_on=1648599368&amp;signature=kBuGibF44yry0FMQUEtYzISLbSrciRTH6r44wq0wINo%3D"]</t>
         </is>
       </c>
       <c r="BD177" t="inlineStr"/>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="BC178" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c059f4c0-df75-4770-9787-1a7b51acd3d6/contrato-429083283.pdf%3Fexpires_on%3D1624900895%26signature%3DYV5mzzGOKZVF6rsAxzjjCexGrpZOTEIr7P5aufh42KA%253D?expires_on=1648559529&amp;signature=%2FmXNNu3BHMvHlRhlnKjAJUtNPH2TxxN%2FlfJoNtRwIQg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c059f4c0-df75-4770-9787-1a7b51acd3d6/contrato-429083283.pdf%3Fexpires_on%3D1624900895%26signature%3DYV5mzzGOKZVF6rsAxzjjCexGrpZOTEIr7P5aufh42KA%253D?expires_on=1648599368&amp;signature=8NsrD2%2F3LhlB6jQRIRrtIuuC3faiucdWhy2l%2BFveKtU%3D"]</t>
         </is>
       </c>
       <c r="BD178" t="inlineStr">
@@ -31067,7 +31067,7 @@
       </c>
       <c r="BC179" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/91627539-8586-440f-b672-b7e9ff622c0c/contrato-434769973.pdf%3Fexpires_on%3D1627498777%26signature%3DijkPOWC4AUifANru83whyxhdbyzoiBEOt81CfvEywB4%253D?expires_on=1648559529&amp;signature=ozFJ3%2BXMTsZ8xiqcH5SVhVP6uE0PonrZI%2BrcXq9CNRM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/91627539-8586-440f-b672-b7e9ff622c0c/contrato-434769973.pdf%3Fexpires_on%3D1627498777%26signature%3DijkPOWC4AUifANru83whyxhdbyzoiBEOt81CfvEywB4%253D?expires_on=1648599368&amp;signature=6YhEBDi01hlY3ae1z%2BiHvLR7pcLHqp8JJJkLu7qNp8o%3D"]</t>
         </is>
       </c>
       <c r="BD179" t="inlineStr"/>
@@ -31282,7 +31282,7 @@
       </c>
       <c r="BC180" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/7b2af0b1-8da1-496d-85fa-d8e9e54839bb/contratoassinado-lucianaborgesdeandrade.pdf?expires_on=1648559529&amp;signature=TMwjNYtBBxpUcQwRE9JpGH8ntqPpkE1U7gbTJ1FCFRY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/7b2af0b1-8da1-496d-85fa-d8e9e54839bb/contratoassinado-lucianaborgesdeandrade.pdf?expires_on=1648599368&amp;signature=rxGDBO5xeoiFo%2BK4amK%2FWOAr1g8csAql4QlKrw4f84c%3D"]</t>
         </is>
       </c>
       <c r="BD180" t="inlineStr">
@@ -31573,7 +31573,7 @@
       </c>
       <c r="BC181" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d54f227-d57d-4a8a-a3a0-2e960779f2c8/contrato-435529658.pdf?expires_on=1648559529&amp;signature=nJSp%2BGdTwzEsQioijJYJT%2BSHSv680NpVcEW3bhV1pXg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d54f227-d57d-4a8a-a3a0-2e960779f2c8/contrato-435529658.pdf?expires_on=1648599368&amp;signature=ECTONT2FGMQikiRLdQ2J1G5xUgyCE2smrkXnXF8055Q%3D"]</t>
         </is>
       </c>
       <c r="BD181" t="inlineStr">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="BC182" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b9e771c-b6dd-463d-8053-96db50e18e18/contrato-437964316.pdf?expires_on=1648559529&amp;signature=xJN1gxJu2hvSzIYRpPMxM7FMFW3yTSUIE%2FrguHJE8MQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b9e771c-b6dd-463d-8053-96db50e18e18/contrato-437964316.pdf?expires_on=1648599368&amp;signature=pzP9rmxTP38SKAGUoVtI4VT%2FzJHVRDtJLrKexXmjWOk%3D"]</t>
         </is>
       </c>
       <c r="BD182" t="inlineStr">
@@ -32082,7 +32082,7 @@
       </c>
       <c r="BC183" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/66dadf4f-05a0-4bf9-a2b8-b76509a7ef6f/contrato-439522222.pdf?expires_on=1648559529&amp;signature=q9N4UFwRnH25U8ZQ6wAa3J7CbQ81FPgzENM%2Fn325%2FXw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/66dadf4f-05a0-4bf9-a2b8-b76509a7ef6f/contrato-439522222.pdf?expires_on=1648599368&amp;signature=Bc0RtlQCQkP6slK2sPG2qb41L3b8u2WgueFvwlm3HOc%3D"]</t>
         </is>
       </c>
       <c r="BD183" t="inlineStr">
@@ -32326,7 +32326,7 @@
       </c>
       <c r="BC184" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1489b03e-8800-48fd-b40d-c7742f01c5a0/contrato-437920461.pdf?expires_on=1648559529&amp;signature=0actOthTtcdk66%2FPhhA5NFszr2mi4ZCCrLH0vHWC5H4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1489b03e-8800-48fd-b40d-c7742f01c5a0/contrato-437920461.pdf?expires_on=1648599368&amp;signature=luGcmas1R61stTiDIiLybPxIG8HMc0tbqhKJLXjdK70%3D"]</t>
         </is>
       </c>
       <c r="BD184" t="inlineStr">
@@ -32805,7 +32805,7 @@
       </c>
       <c r="BC186" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/cf81d109-c1d8-4a70-8083-1c9d2bf5fe38/e44f54b2-392f-42dc-801b-acde1c0429ac.pdf?expires_on=1648559529&amp;signature=mw2f%2FAVjEpUP4uBDoa8se5yeNCteWM%2Bl%2FmCsBOsvZXU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/cf81d109-c1d8-4a70-8083-1c9d2bf5fe38/e44f54b2-392f-42dc-801b-acde1c0429ac.pdf?expires_on=1648599368&amp;signature=wnjipMUQZfrzkU4J%2BwM9RHz6XNagH5mf%2Fy0zo5p8EiU%3D"]</t>
         </is>
       </c>
       <c r="BD186" t="inlineStr">
@@ -33073,7 +33073,7 @@
       </c>
       <c r="BC187" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ec6e75ec-6fc2-4bb8-8a48-67e8bff5a3b0/contrato-441094756.pdf?expires_on=1648559529&amp;signature=WSpASpO434c%2BYZkAXXKy%2BJsSsZwrQdUKxWgVwJ%2BTMz4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ec6e75ec-6fc2-4bb8-8a48-67e8bff5a3b0/contrato-441094756.pdf?expires_on=1648599368&amp;signature=dcr6%2B60xfSNzIs%2BXMOaTotnoe%2FtP%2F40I2Y2UDGNMrgc%3D"]</t>
         </is>
       </c>
       <c r="BD187" t="inlineStr">
@@ -33352,7 +33352,7 @@
       </c>
       <c r="BC188" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/6b680cd9-f9cb-480d-b832-ec82db539fd2/2021-08-1916.24.36.pdf?expires_on=1648559529&amp;signature=RpEFofAuRKgzwpadfUaxQaqNUwQ%2BTnFR3%2FpFa1AZEFA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/6b680cd9-f9cb-480d-b832-ec82db539fd2/2021-08-1916.24.36.pdf?expires_on=1648599368&amp;signature=dPV6Dq2gjGvzuchcxO1UXfCCwq%2FQ9AhyA0oG0od%2Bq38%3D"]</t>
         </is>
       </c>
       <c r="BD188" t="inlineStr">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="BC189" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe3b7b54-c5c7-4049-bae3-82911668f608/contrato-439559244.pdf?expires_on=1648559529&amp;signature=9DAEoePE1rVKIMJw8yRYzWdxfxxgpyQQ8wzQUhloMUQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe3b7b54-c5c7-4049-bae3-82911668f608/contrato-439559244.pdf?expires_on=1648599368&amp;signature=nmWqnRvzLPvDDda7iBL%2BFf%2Bp1X6tfHfLck3NSzJCtio%3D"]</t>
         </is>
       </c>
       <c r="BD189" t="inlineStr">
@@ -33852,7 +33852,7 @@
       <c r="BB190" t="inlineStr"/>
       <c r="BC190" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81869067-48c9-4988-a646-2002e1d9f879/contrato-439323822.pdf?expires_on=1648559529&amp;signature=sgo%2BpJGOuo6hb7ate12UWk2xJCQFsFdXs12rdwf8UQg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81869067-48c9-4988-a646-2002e1d9f879/contrato-439323822.pdf?expires_on=1648599368&amp;signature=dz6Fgd2vjY%2FB%2F0hxW5q2d3%2FpAchONSsU7QBnjyjTA5M%3D"]</t>
         </is>
       </c>
       <c r="BD190" t="inlineStr"/>
@@ -34105,7 +34105,7 @@
       </c>
       <c r="BC191" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/83097272-bb98-4fab-8e6c-5171b917b7bc/contrato-442349549.pdf?expires_on=1648559529&amp;signature=0oFieVMYVp%2B9uNRYY%2BLC2udiCFcLuL81dynI2srctoQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/83097272-bb98-4fab-8e6c-5171b917b7bc/contrato-442349549.pdf?expires_on=1648599368&amp;signature=cHkN79LlW7u00vnFmi9pc7NicXyIDO9dLDiyEiK%2BqgM%3D"]</t>
         </is>
       </c>
       <c r="BD191" t="inlineStr">
@@ -34342,7 +34342,7 @@
       </c>
       <c r="BC192" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d6f47531-1ce2-4669-b6ec-210062c71ae6/contrato-442351375.pdf?expires_on=1648559529&amp;signature=xr73HBs2D2WoJjwHN7g3uqhDJop5jmH403IHwWTpbFE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d6f47531-1ce2-4669-b6ec-210062c71ae6/contrato-442351375.pdf?expires_on=1648599368&amp;signature=35kGZuzlcFqGbN%2FlBJTGK4X2v8BrlgwN5ZHP5Fam6mo%3D"]</t>
         </is>
       </c>
       <c r="BD192" t="inlineStr"/>
@@ -34601,7 +34601,7 @@
       </c>
       <c r="BC193" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/718c3f16-e707-47f7-b7b8-adf73ef7d849/2d36fee3-29d8-40df-9573-ecbc71c32e64.pdf?expires_on=1648559529&amp;signature=K3VichQfdNzN4NU6YBOZl1LKR8YWYMMppsP9Z2%2Fg1gA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/718c3f16-e707-47f7-b7b8-adf73ef7d849/2d36fee3-29d8-40df-9573-ecbc71c32e64.pdf?expires_on=1648599368&amp;signature=sEJ%2Bumlcmet5w5v3O5qAXu0UfdZnyTdY%2FecakNRYf9c%3D"]</t>
         </is>
       </c>
       <c r="BD193" t="inlineStr">
@@ -34865,7 +34865,7 @@
       </c>
       <c r="BC194" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/2ff5167b-01a9-4a8e-aee5-bcdc9a653493/acdd05cd-b3c7-4cc7-8869-b4c0e537e0e5janice.pdf?expires_on=1648559529&amp;signature=cMU%2FmXE24GFK5tEpnnhLnPD0Pvi%2BUMzqTu1TBuM4vLo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/2ff5167b-01a9-4a8e-aee5-bcdc9a653493/acdd05cd-b3c7-4cc7-8869-b4c0e537e0e5janice.pdf?expires_on=1648599368&amp;signature=3HvspteBllTsM6j8h9Wb4Yyos54sHAQGEk%2FV7FExZ58%3D"]</t>
         </is>
       </c>
       <c r="BD194" t="inlineStr">
@@ -35151,7 +35151,7 @@
       </c>
       <c r="BC195" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6975acfc-3be1-44c9-a5e4-eeea40e17af4/contrato-444677776.pdf?expires_on=1648559529&amp;signature=obRwjfyFZ8Ulq0c%2ButlAQwpQQoPQFd2GYY0KosggBf0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6975acfc-3be1-44c9-a5e4-eeea40e17af4/contrato-444677776.pdf?expires_on=1648599368&amp;signature=b8jYhWNDYZlQt2YmWUXUAoqt5QAYYDMR3nZYm8M4tio%3D"]</t>
         </is>
       </c>
       <c r="BD195" t="inlineStr">
@@ -35302,7 +35302,7 @@
       <c r="BB196" t="inlineStr"/>
       <c r="BC196" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0d54ecd7-4899-4b35-9678-2b69417a43a8/8cafda5f-92c7-4f67-822f-93419ae54358geraldo.pdf?expires_on=1648559529&amp;signature=KKkmormndeB4HcNLa90fAQl0HSuKuK9SIG%2FzMXQc2bk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0d54ecd7-4899-4b35-9678-2b69417a43a8/8cafda5f-92c7-4f67-822f-93419ae54358geraldo.pdf?expires_on=1648599368&amp;signature=%2F3K9LruLNLSmQEgPrFyc7ft2xV4PzPFXzUwNDH8KaNg%3D"]</t>
         </is>
       </c>
       <c r="BD196" t="inlineStr"/>
@@ -35449,7 +35449,7 @@
       <c r="BB197" t="inlineStr"/>
       <c r="BC197" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b989e586-52a1-4d30-9970-23ba445ce0ad/contrato-446146720.pdf?expires_on=1648559529&amp;signature=Lc9qtIcMjnGHKn1QRHhSnTg8N2of5Lnb10syxSBhCuI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b989e586-52a1-4d30-9970-23ba445ce0ad/contrato-446146720.pdf?expires_on=1648599368&amp;signature=IdgPN8kMEN1ImnS4G9P6sZb1BO%2BKKLRZ70yomG8MV4Y%3D"]</t>
         </is>
       </c>
       <c r="BD197" t="inlineStr"/>
@@ -35711,7 +35711,7 @@
       </c>
       <c r="BC198" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648559529&amp;signature=%2F2wA3i78bZZgBtfqaPNdzvaIDl3vIW%2Bu0VO3Kp03Ak0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648599368&amp;signature=di%2FWsK5SEiiuHTqA%2BTApZwaztHPmNRlJcBQLH3EVJf8%3D"]</t>
         </is>
       </c>
       <c r="BD198" t="inlineStr">
@@ -35960,7 +35960,7 @@
       </c>
       <c r="BC199" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648559529&amp;signature=%2F2wA3i78bZZgBtfqaPNdzvaIDl3vIW%2Bu0VO3Kp03Ak0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648599368&amp;signature=di%2FWsK5SEiiuHTqA%2BTApZwaztHPmNRlJcBQLH3EVJf8%3D"]</t>
         </is>
       </c>
       <c r="BD199" t="inlineStr">
@@ -36228,7 +36228,7 @@
       </c>
       <c r="BC200" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9e4b6be5-e3f9-49ba-ab05-103919b8c104/contrato-446643171.pdf?expires_on=1648559529&amp;signature=q9wdMzbCzaRXIevgvGRF4i%2BTgiB6AuGvRhJyzTe%2BXb8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9e4b6be5-e3f9-49ba-ab05-103919b8c104/contrato-446643171.pdf?expires_on=1648599368&amp;signature=lFsdXIgG3DkMNgaqafqKXkflmJwErnjTA8dk1UWhWu4%3D"]</t>
         </is>
       </c>
       <c r="BD200" t="inlineStr">
@@ -36520,7 +36520,7 @@
       </c>
       <c r="BC201" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/d37b0cc9-87d9-4abf-92ef-aa19b5feefa5/2436003b-297f-4c3d-9ed4-c941874c27aa.pdf?expires_on=1648559529&amp;signature=BDCVHGXqmIGI7kxCaXj5Aqvb%2FdZuiIjo7M8da39e8nI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/d37b0cc9-87d9-4abf-92ef-aa19b5feefa5/2436003b-297f-4c3d-9ed4-c941874c27aa.pdf?expires_on=1648599368&amp;signature=IJKpFXMPjd4xjTwRIKn9KPT5kPveiPQ6y9NgBHTDg0I%3D"]</t>
         </is>
       </c>
       <c r="BD201" t="inlineStr">
@@ -36675,7 +36675,7 @@
       <c r="BB202" t="inlineStr"/>
       <c r="BC202" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8f79ebec-7a55-4ae1-9cc0-d0c89818cd27/contrato-447777761.pdf?expires_on=1648559531&amp;signature=nl5a%2Beapt9sBZlyqwBfTGWJDGiu0sXkOy88%2BfC8zdnk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8f79ebec-7a55-4ae1-9cc0-d0c89818cd27/contrato-447777761.pdf?expires_on=1648599369&amp;signature=yRsnEYxOab0Txw3A4ANrKzyTmNwjmcDcBlL3x%2Fyv9Yo%3D"]</t>
         </is>
       </c>
       <c r="BD202" t="inlineStr"/>
@@ -36952,7 +36952,7 @@
       </c>
       <c r="BC203" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6cc22b94-946a-4d03-be66-61a857bf8992/contrato-446865281.pdf?expires_on=1648559531&amp;signature=D%2BD8eU9f8pgFJPxZTBCRw%2BVtKsXf8w%2FwyR01UQfy0nk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6cc22b94-946a-4d03-be66-61a857bf8992/contrato-446865281.pdf?expires_on=1648599369&amp;signature=IUUv4rcyp9gttN5QaEqEgQfLL2LpvTsZXDb6tzkcYqk%3D"]</t>
         </is>
       </c>
       <c r="BD203" t="inlineStr">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="BC204" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fc0b1db7-3d03-42ee-8848-caa5f3d8f78e/contrato-448445335.pdf?expires_on=1648559531&amp;signature=9m8A%2BvxiypVxzIYtILaVtrnQNNJGiFCMUi8sMA87qSo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fc0b1db7-3d03-42ee-8848-caa5f3d8f78e/contrato-448445335.pdf?expires_on=1648599369&amp;signature=GfzeCodlLvepOVUfu%2FxWjrf39GBuV8Rs%2BUhV4z52M6A%3D"]</t>
         </is>
       </c>
       <c r="BD204" t="inlineStr">
@@ -37482,7 +37482,7 @@
       </c>
       <c r="BC205" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b70de362-7734-4f1d-a397-2a0361104da4/contrato-447779663.pdf?expires_on=1648559531&amp;signature=25DiCf%2F2Fl9xzkIqGH%2B8sB74zSepj2TAWoHIyyppJvg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b70de362-7734-4f1d-a397-2a0361104da4/contrato-447779663.pdf?expires_on=1648599369&amp;signature=0jUcFvXNZAMcL56G4P6mATfXEMwUTYTjELuUszB0XlM%3D"]</t>
         </is>
       </c>
       <c r="BD205" t="inlineStr">
@@ -37638,7 +37638,7 @@
       <c r="BB206" t="inlineStr"/>
       <c r="BC206" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bc14413-62ec-4bc0-a8f4-031faa544a3e/contrato-446133701.pdf?expires_on=1648559531&amp;signature=au39E%2Bdyjt3wkB0EImiAmhkjnnOlujyNhWEgg4NfcqM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bc14413-62ec-4bc0-a8f4-031faa544a3e/contrato-446133701.pdf?expires_on=1648599369&amp;signature=DuNCqOSlJDRI%2Bi9%2BHr9KPCUCSqtl%2BWY838zm0VJhVmg%3D"]</t>
         </is>
       </c>
       <c r="BD206" t="inlineStr"/>
@@ -37785,7 +37785,7 @@
       <c r="BB207" t="inlineStr"/>
       <c r="BC207" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a077aec9-8235-4ef6-8ecb-537af75da48b/contrato-441118408.pdf?expires_on=1648559531&amp;signature=GtoGtFI4k9QWN2sq2ydz7F49HYK8fNwU%2F1TbTnUZABM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a077aec9-8235-4ef6-8ecb-537af75da48b/contrato-441118408.pdf?expires_on=1648599369&amp;signature=WiQhfI6EGPyELuoen2NMTjHOq2%2BRbhLVe066QuAfDk4%3D"]</t>
         </is>
       </c>
       <c r="BD207" t="inlineStr"/>
@@ -37966,7 +37966,7 @@
       <c r="BB208" t="inlineStr"/>
       <c r="BC208" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5c0c686e-ff96-43a6-a841-21aef60bfa30/contrato-446754860.pdf?expires_on=1648559531&amp;signature=mvj8IvSKn7VWO%2BNM7U6kveT7jqM%2B%2FJEg0XRZW3BIbzQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5c0c686e-ff96-43a6-a841-21aef60bfa30/contrato-446754860.pdf?expires_on=1648599369&amp;signature=HOrt0aKNMiAiq6edQqSch0ihhMZVNvhOgAXbeaMrxS8%3D"]</t>
         </is>
       </c>
       <c r="BD208" t="inlineStr"/>
@@ -38225,7 +38225,7 @@
       </c>
       <c r="BC209" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b77695b7-4570-41eb-bce8-b67a6c0f5ff9/contrato-444562882.pdf?expires_on=1648559531&amp;signature=6veClcx5hGPgWlsiQFCu6XH9Jp3kuqQVT93VbTBoO%2Fw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b77695b7-4570-41eb-bce8-b67a6c0f5ff9/contrato-444562882.pdf?expires_on=1648599369&amp;signature=EOL5Uiy9JFff0ZYsf8QgelW7BivgTkzg6vWaxQh%2BzSk%3D"]</t>
         </is>
       </c>
       <c r="BD209" t="inlineStr"/>
@@ -38483,7 +38483,7 @@
       </c>
       <c r="BC210" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7165e0a7-3a5c-4e06-828a-b0bd079fc127/contrato-445939306.pdf?expires_on=1648559531&amp;signature=nl5DzW5AASla8PZhZpgh67P%2Bv9dTT7CPcVguxgmulUo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7165e0a7-3a5c-4e06-828a-b0bd079fc127/contrato-445939306.pdf?expires_on=1648599369&amp;signature=%2BtNxTcZ0TSKuGHE9nH9uIXVpA6JPSt%2Ba%2B47gxIwL9T8%3D"]</t>
         </is>
       </c>
       <c r="BD210" t="inlineStr">
@@ -38752,7 +38752,7 @@
       </c>
       <c r="BC211" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8a45ff63-35ea-4b5e-9e27-eb256576338b/ContratodePrestaodeServios-DanielGarianiRafael.docx-Clicksign.pdf?expires_on=1648559531&amp;signature=iFBGPZcMr5ehEspX8HX%2FmyQQM7Y8QSRJ6DKwIjDsgkY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8a45ff63-35ea-4b5e-9e27-eb256576338b/ContratodePrestaodeServios-DanielGarianiRafael.docx-Clicksign.pdf?expires_on=1648599369&amp;signature=AKG4%2BhdJ2zAHRqKEfaziEJRThE2uqZZ05sQkQXzfzG4%3D"]</t>
         </is>
       </c>
       <c r="BD211" t="inlineStr">
@@ -39024,7 +39024,7 @@
       </c>
       <c r="BC212" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9928454b-930a-4480-81f9-e403ac3fe938/contrato-450684529.pdf?expires_on=1648559531&amp;signature=92MS7ImYKu2%2B8eUWhDnjqYqCR1pL4oLetNKjsEL%2Btgs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9928454b-930a-4480-81f9-e403ac3fe938/contrato-450684529.pdf?expires_on=1648599369&amp;signature=DN2XjRX2jrBj70Z7qVbWVJUFSN5vSldX21%2BesMN2pd8%3D"]</t>
         </is>
       </c>
       <c r="BD212" t="inlineStr">
@@ -39275,7 +39275,7 @@
       </c>
       <c r="BC213" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c944f8e1-153d-446a-895d-5afce9c49e02/contrato-451523294.pdf?expires_on=1648559531&amp;signature=D7n0id2e4CeIyMIcn5DG7NBoSLnbi%2Fbr4J2cXh5BnLk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c944f8e1-153d-446a-895d-5afce9c49e02/contrato-451523294.pdf?expires_on=1648599369&amp;signature=vQTFehWL6FYJNGSps7E21DVR0Did%2FNsi%2FMqKW%2F0E2cI%3D"]</t>
         </is>
       </c>
       <c r="BD213" t="inlineStr">
@@ -39577,7 +39577,7 @@
       </c>
       <c r="BC214" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b396fc78-363f-4338-980a-d396622b530b/contrato-450058109.pdf?expires_on=1648559531&amp;signature=wNcduai%2FcT25sHuu6dVZbjKQRMg5lrab32FL%2B1cXpQQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b396fc78-363f-4338-980a-d396622b530b/contrato-450058109.pdf?expires_on=1648599369&amp;signature=n3pYXekSNaw1bMTHkGtkez1tMhY1aXzU%2B%2F%2F6YdVUoLU%3D"]</t>
         </is>
       </c>
       <c r="BD214" t="inlineStr">
@@ -39766,7 +39766,7 @@
       <c r="BB215" t="inlineStr"/>
       <c r="BC215" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/75a6bd53-390b-41ce-ade3-9580a0265e85/contrato-453221872.pdf?expires_on=1648559531&amp;signature=jNcFYdnM4QLg11DCyWe6FM%2BRjuC1gdPKz3wHIuK4v6w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/75a6bd53-390b-41ce-ade3-9580a0265e85/contrato-453221872.pdf?expires_on=1648599369&amp;signature=B5iZVzz6CNMGWaXw%2Fi3EbxPJ4adseNy7mf5S6Wkvp1M%3D"]</t>
         </is>
       </c>
       <c r="BD215" t="inlineStr"/>
@@ -40012,7 +40012,7 @@
       </c>
       <c r="BC216" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/98a075d1-21ab-4257-9f27-2e2fa7a85431/contrato-450420793.pdf?expires_on=1648559531&amp;signature=VPMLYJefluUmfSQ%2BKsxUsExo4jYsVBtaO%2BOXTRTgAME%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/98a075d1-21ab-4257-9f27-2e2fa7a85431/contrato-450420793.pdf?expires_on=1648599369&amp;signature=OFNYC%2F30GYuImqzNVSkJg%2FqUkuPMWRrueqi5buLJA5M%3D"]</t>
         </is>
       </c>
       <c r="BD216" t="inlineStr">
@@ -40301,7 +40301,7 @@
       </c>
       <c r="BC217" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e95bb24d-d213-41d8-83fa-96f6be3b660d/contrato-455020368.pdf?expires_on=1648559531&amp;signature=EYSP2KbkefcFNTWIktltNIWAMPCobjGNnkVb4jZp9VA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e95bb24d-d213-41d8-83fa-96f6be3b660d/contrato-455020368.pdf?expires_on=1648599369&amp;signature=1eYHFFPuKEFb8f4bUBwFW%2BX4UeAbRqP8Ll4AZEdC7ZQ%3D"]</t>
         </is>
       </c>
       <c r="BD217" t="inlineStr">
@@ -40542,7 +40542,7 @@
       </c>
       <c r="BC218" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648559531&amp;signature=8JCOBXpUCw3gRspvKkS4Xj9K89MEAaijg2dqk4rWMTU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648599369&amp;signature=e2eHFMrw92xFrrtCmal0DYerQWq3WR1NxjW5Vk74cow%3D"]</t>
         </is>
       </c>
       <c r="BD218" t="inlineStr">
@@ -40789,7 +40789,7 @@
       </c>
       <c r="BC219" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648559531&amp;signature=8JCOBXpUCw3gRspvKkS4Xj9K89MEAaijg2dqk4rWMTU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648599369&amp;signature=e2eHFMrw92xFrrtCmal0DYerQWq3WR1NxjW5Vk74cow%3D"]</t>
         </is>
       </c>
       <c r="BD219" t="inlineStr">
@@ -41030,7 +41030,7 @@
       </c>
       <c r="BC220" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c78b388e-df0a-49f1-8cae-55c0da4cb325/contrato-448377680.pdf?expires_on=1648559531&amp;signature=mzkreAGWN%2FmmpAH6dEHvv0Yk3mLFZX5mrv6ncv1di0I%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c78b388e-df0a-49f1-8cae-55c0da4cb325/contrato-448377680.pdf?expires_on=1648599369&amp;signature=cnhqY%2Ftx5Ry40AAY2tC9pVzG4opDQLlsUXNeQgcYKrs%3D"]</t>
         </is>
       </c>
       <c r="BD220" t="inlineStr">
@@ -41185,7 +41185,7 @@
       <c r="BB221" t="inlineStr"/>
       <c r="BC221" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a31ef21a-2886-4362-a57e-8dec8aa67875/contrato-451928712.pdf?expires_on=1648559531&amp;signature=EBf3D11G%2FIy%2Fj8gKKzKlnBEN5cW49BY666dLO8qG9xg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a31ef21a-2886-4362-a57e-8dec8aa67875/contrato-451928712.pdf?expires_on=1648599369&amp;signature=kEi5shN2%2BQqqKZ6uTFScSokd8CajBNgOOM6rojYe0dI%3D"]</t>
         </is>
       </c>
       <c r="BD221" t="inlineStr"/>
@@ -41479,7 +41479,7 @@
       </c>
       <c r="BC222" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/591dfee3-277c-4bd2-bf21-1a634d75295b/contrato-455117055.pdf?expires_on=1648559531&amp;signature=T1xoCfXjXckicbVaFuBtbruGppjLPCQ3wrdNZbWyawA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/591dfee3-277c-4bd2-bf21-1a634d75295b/contrato-455117055.pdf?expires_on=1648599369&amp;signature=J6h%2FivzcObusg2%2FwM8JLpwXP7iljcseSkz05AxSDm6c%3D"]</t>
         </is>
       </c>
       <c r="BD222" t="inlineStr">
@@ -41664,7 +41664,7 @@
       <c r="BB223" t="inlineStr"/>
       <c r="BC223" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7247f1f8-1bf0-48c8-874e-a234da5ff917/contrato-450598793.pdf?expires_on=1648559531&amp;signature=mXLo4B4eenaVaJPvi1iLCXcCdaMHbUUADOqjvOWYW%2Bo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7247f1f8-1bf0-48c8-874e-a234da5ff917/contrato-450598793.pdf?expires_on=1648599369&amp;signature=82%2FRufjPMHkVshXZ0655KB1KWro9i2seUieqifMbiZg%3D"]</t>
         </is>
       </c>
       <c r="BD223" t="inlineStr"/>
@@ -41807,7 +41807,7 @@
       <c r="BB224" t="inlineStr"/>
       <c r="BC224" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8ba42a2f-a3e7-48fc-8463-8dc8005ee13d/contrato-451875618.pdf?expires_on=1648559531&amp;signature=YeVec7epvRRKw93XnHUZb9khbv2kPgioCRrCMZfqT7c%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8ba42a2f-a3e7-48fc-8463-8dc8005ee13d/contrato-451875618.pdf?expires_on=1648599369&amp;signature=eK51JATxiwvJFh8MMvHgDhQ%2FVJgdCraC%2BMKrQQAmwcA%3D"]</t>
         </is>
       </c>
       <c r="BD224" t="inlineStr"/>
@@ -41950,7 +41950,7 @@
       <c r="BB225" t="inlineStr"/>
       <c r="BC225" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/c001b424-475c-40f1-ac48-34d2a1115d75/contrato-451875618.pdf?expires_on=1648559531&amp;signature=oimmQTr6J6qb9LkvRs%2Fh%2B9NavdtzxPGgiF4w1SuyjtU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/c001b424-475c-40f1-ac48-34d2a1115d75/contrato-451875618.pdf?expires_on=1648599369&amp;signature=%2Bp%2Ba0mMbDEmj4v8v%2FsGLeFr4DmtmUdlOPdmHk23pmS0%3D"]</t>
         </is>
       </c>
       <c r="BD225" t="inlineStr"/>
@@ -42097,7 +42097,7 @@
       <c r="BB226" t="inlineStr"/>
       <c r="BC226" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648559531&amp;signature=GDLqWD8hu7F%2F7ZG7sRatHVmdOQxe3NSB7Op3bYQ1LHs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648599369&amp;signature=V6%2FzmayjZLN%2FQI91gvAEze%2B6SBoRpuennHf491UlBkE%3D"]</t>
         </is>
       </c>
       <c r="BD226" t="inlineStr"/>
@@ -42368,7 +42368,7 @@
       </c>
       <c r="BC227" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f5391715-b7a8-438a-a6f6-1089d33c05b1/contrato-455277052.pdf?expires_on=1648559531&amp;signature=jBE2lrVgeObqgm0ibHnC1KAkxie%2FWtwxbR4yOjwzQ4s%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f5391715-b7a8-438a-a6f6-1089d33c05b1/contrato-455277052.pdf?expires_on=1648599369&amp;signature=ID9wCBiJIxnXyFLdqn3rUPAN%2FL2T01lA24aFauoSGqI%3D"]</t>
         </is>
       </c>
       <c r="BD227" t="inlineStr">
@@ -42523,7 +42523,7 @@
       <c r="BB228" t="inlineStr"/>
       <c r="BC228" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0dba00df-f1fd-456c-bb04-403503868603/contrato-455669766.pdf?expires_on=1648559531&amp;signature=Itxl59sFBAfw1rvEMM51twUdBB3fxYOs5riycQkgTkw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0dba00df-f1fd-456c-bb04-403503868603/contrato-455669766.pdf?expires_on=1648599369&amp;signature=R2gNer8QQ6CHWPtqbc0SMljqHsqIpGl8nIa%2FFOxZajI%3D"]</t>
         </is>
       </c>
       <c r="BD228" t="inlineStr"/>
@@ -42670,7 +42670,7 @@
       <c r="BB229" t="inlineStr"/>
       <c r="BC229" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9a7c9638-6ee7-42d9-87d1-530453f85893/contrato-455274515.pdf?expires_on=1648559531&amp;signature=0qnyGDJFN6H3QAggIxBL78npy5yPKR7BFONscSie0Ps%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9a7c9638-6ee7-42d9-87d1-530453f85893/contrato-455274515.pdf?expires_on=1648599369&amp;signature=d5rubnz0ccIjUuM1Ogzz9QNnO%2FkTfjgVxVf%2BJgUfpuc%3D"]</t>
         </is>
       </c>
       <c r="BD229" t="inlineStr"/>
@@ -42946,7 +42946,7 @@
       </c>
       <c r="BC230" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/96b6f12d-d86b-4cf1-8166-ab369a19e944/contrato-453185486.pdf?expires_on=1648559531&amp;signature=Uq4uiJsAzXVRMQO620Bne8b03v0piaQgqRvkeu7yBXI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/96b6f12d-d86b-4cf1-8166-ab369a19e944/contrato-453185486.pdf?expires_on=1648599369&amp;signature=JUjO5CNV2AL17JW2vBNer0FbjIwSX7aVrIsY5JTBoys%3D"]</t>
         </is>
       </c>
       <c r="BD230" t="inlineStr">
@@ -43097,7 +43097,7 @@
       <c r="BB231" t="inlineStr"/>
       <c r="BC231" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab040383-25f3-4f4a-8f99-b5c9bebf8cc5/contrato-447382712.pdf?expires_on=1648559531&amp;signature=3s2Ofea5AFP0SJ1uvXiGoZYd7Z%2BOyfSZfrGW9CG4FuM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab040383-25f3-4f4a-8f99-b5c9bebf8cc5/contrato-447382712.pdf?expires_on=1648599369&amp;signature=BvLav01kyoQV%2B0yfVEQIdCu%2Bl226EYX8E62u3FZVrpU%3D"]</t>
         </is>
       </c>
       <c r="BD231" t="inlineStr"/>
@@ -43283,7 +43283,7 @@
       <c r="BB232" t="inlineStr"/>
       <c r="BC232" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e22d2142-9a98-4f21-b6f1-aeadf1c84c62/contrato-451633873.pdf?expires_on=1648559531&amp;signature=RCt0hKa%2FEmhyXLQv8VJHBbdCQTOrxBOu90ar8CnOtaI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e22d2142-9a98-4f21-b6f1-aeadf1c84c62/contrato-451633873.pdf?expires_on=1648599369&amp;signature=EpIjBebZbAODK3q%2BqVeQSWZ9uDk5kocT0xArM941Cgc%3D"]</t>
         </is>
       </c>
       <c r="BD232" t="inlineStr"/>
@@ -43550,7 +43550,7 @@
       </c>
       <c r="BC233" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/229ba4e0-2e6d-4968-96c1-3d6e73f5c431/contrato-450949540.pdf?expires_on=1648559531&amp;signature=4h6O8IYwC7sRkTrUgJ8eP75tlZhnVb5Cht5kvHwtk2s%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/229ba4e0-2e6d-4968-96c1-3d6e73f5c431/contrato-450949540.pdf?expires_on=1648599369&amp;signature=96N5FCVrl8JqRClxDFMoPItg5BeackjJbKnfjzw7Qkk%3D"]</t>
         </is>
       </c>
       <c r="BD233" t="inlineStr">
@@ -43816,7 +43816,7 @@
       <c r="BB234" t="inlineStr"/>
       <c r="BC234" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4b13dcea-d9b0-42a4-8960-51088edc6407/contrato-454454798.pdf?expires_on=1648559531&amp;signature=q%2BajoTUuzkpQ%2B%2Bchab639ING3wD%2BtbijX7eTiUBJQN8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4b13dcea-d9b0-42a4-8960-51088edc6407/contrato-454454798.pdf?expires_on=1648599369&amp;signature=s24f5IS2xIZddO%2FQqKtQ5h%2FzkLTMfFA4LSXgpjPGEWk%3D"]</t>
         </is>
       </c>
       <c r="BD234" t="inlineStr">
@@ -44055,7 +44055,7 @@
       <c r="BB235" t="inlineStr"/>
       <c r="BC235" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7f3321fb-2829-4eb4-859a-c83e9616a6cd/contrato-455506168.pdf?expires_on=1648559531&amp;signature=oDyUY34lz5bhkvJLP0aXjMB8I3WLli50tg7XldO1OfM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7f3321fb-2829-4eb4-859a-c83e9616a6cd/contrato-455506168.pdf?expires_on=1648599369&amp;signature=DuIOa%2FRi1MMTILVfw9yhmzg6A0lO4O%2BA8Vjyn5Ie0To%3D"]</t>
         </is>
       </c>
       <c r="BD235" t="inlineStr">
@@ -44289,7 +44289,7 @@
       </c>
       <c r="BC236" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ea57abbd-b6e5-4eb0-b3e3-67dd25d7dd28/contrato-457144283.pdf?expires_on=1648559531&amp;signature=caFgQyvnswWDsJEudUK5Cd7UJTDuIbPm0liKv%2BdVWMw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ea57abbd-b6e5-4eb0-b3e3-67dd25d7dd28/contrato-457144283.pdf?expires_on=1648599369&amp;signature=RV97SU3ZrSdeBECXvqJ3O0fkUk7Ct2GbJ6c15TfCGtw%3D"]</t>
         </is>
       </c>
       <c r="BD236" t="inlineStr">
@@ -44550,7 +44550,7 @@
       </c>
       <c r="BC237" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5d39c650-3b38-41e6-a545-0da59cf764fc/contrato-447364331.pdf?expires_on=1648559531&amp;signature=BZjlcUDg53ZDz2xxISbDzxrugZuzYSTLtWwcSIMmIGA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5d39c650-3b38-41e6-a545-0da59cf764fc/contrato-447364331.pdf?expires_on=1648599369&amp;signature=ZnwjItLz3vAzG4Wgen%2Fi%2FzKn2Yf7wnkAif1%2BzsWopQs%3D"]</t>
         </is>
       </c>
       <c r="BD237" t="inlineStr">
@@ -44705,7 +44705,7 @@
       <c r="BB238" t="inlineStr"/>
       <c r="BC238" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c294477-4e7b-4afd-aa7e-db5481666dd8/contrato-457138022.pdf?expires_on=1648559531&amp;signature=No8mEBWlylnlulNZD%2FyuDwuil%2BHRwsbjiHjcPFaWa%2Bs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c294477-4e7b-4afd-aa7e-db5481666dd8/contrato-457138022.pdf?expires_on=1648599369&amp;signature=MT0HqAI%2BkBjMreKTVe8F%2B2wCSXt%2B6U6v7vdvhq%2B92VM%3D"]</t>
         </is>
       </c>
       <c r="BD238" t="inlineStr"/>
@@ -44935,7 +44935,7 @@
       </c>
       <c r="BC239" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9a42c9f-29f4-46ce-8cbd-b5370dc6bc3c/contrato-456649095.pdf?expires_on=1648559531&amp;signature=PyFD3%2BIk2YAr%2BOA4%2FDI5mWNeRbzAn0YYikFgYSzCQ1E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9a42c9f-29f4-46ce-8cbd-b5370dc6bc3c/contrato-456649095.pdf?expires_on=1648599369&amp;signature=GuV74ffx%2FFot4ya7P12Rqs1XyoXUQGXIUtultAsfUUU%3D"]</t>
         </is>
       </c>
       <c r="BD239" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="BC240" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1c5244bf-e241-4890-8146-0db01b041ae9/contrato-454339926.pdf?expires_on=1648559531&amp;signature=Nf3zW70MhO37rug7x2WODc2CTfPtpLrdDd0J2wJ2Ugg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1c5244bf-e241-4890-8146-0db01b041ae9/contrato-454339926.pdf?expires_on=1648599369&amp;signature=BrQsK1wrG9%2BtIG4iDFqTTwoPgOBXt%2FTvVvitKF%2BDtS0%3D"]</t>
         </is>
       </c>
       <c r="BD240" t="inlineStr">
@@ -45382,7 +45382,7 @@
       <c r="BB241" t="inlineStr"/>
       <c r="BC241" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/891a5507-f384-4dfc-bfb2-46fa887380fc/contrato-457680240.pdf?expires_on=1648559531&amp;signature=4gv9bRrP5AYfHkYUnQ%2BxW3s1o2%2Fq1tGa8WPBk3Ngadg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/891a5507-f384-4dfc-bfb2-46fa887380fc/contrato-457680240.pdf?expires_on=1648599369&amp;signature=m9MUR2ENNFTHsFCHCO%2BfA3Cf%2BofDVWN8hqYxjXoiA0A%3D"]</t>
         </is>
       </c>
       <c r="BD241" t="inlineStr"/>
@@ -45632,7 +45632,7 @@
       </c>
       <c r="BC242" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/03418e81-d6d0-40ab-a0ab-d4d541525833/contrato-457316233.pdf?expires_on=1648559531&amp;signature=e4dm8sdOimd2A7TgdbERBu8gZS5M6AVDPnM6CfRP8j8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/03418e81-d6d0-40ab-a0ab-d4d541525833/contrato-457316233.pdf?expires_on=1648599369&amp;signature=ZFvEdlrNZ%2BEcUbuvBK1ZCpn%2FhiUx8GNDWDqPDxk4IVs%3D"]</t>
         </is>
       </c>
       <c r="BD242" t="inlineStr"/>
@@ -45898,7 +45898,7 @@
       </c>
       <c r="BC243" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0aaafa12-b90e-4c89-9a6b-693a455e168b/contrato-455112943.pdf?expires_on=1648559531&amp;signature=7T1oQBR6sXWteivMEbE03iosV2evM%2Fi4OxtwtJvq%2B0o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0aaafa12-b90e-4c89-9a6b-693a455e168b/contrato-455112943.pdf?expires_on=1648599369&amp;signature=F6lT86TjwBTjKwjGKHO%2B2a%2Bc5aCEQKmsOS4JjIrnhdI%3D"]</t>
         </is>
       </c>
       <c r="BD243" t="inlineStr">
@@ -46151,7 +46151,7 @@
       </c>
       <c r="BC244" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648559531&amp;signature=GDLqWD8hu7F%2F7ZG7sRatHVmdOQxe3NSB7Op3bYQ1LHs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648599369&amp;signature=V6%2FzmayjZLN%2FQI91gvAEze%2B6SBoRpuennHf491UlBkE%3D"]</t>
         </is>
       </c>
       <c r="BD244" t="inlineStr">
@@ -46391,7 +46391,7 @@
       </c>
       <c r="BC245" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca3eb7a8-fffd-44a2-ab2a-c6c95dc0c778/contrato-451875618.pdf?expires_on=1648559531&amp;signature=ViMAlO6t58McwYXBJqLzli9ePwG%2F43Blef5MVF2Umgk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca3eb7a8-fffd-44a2-ab2a-c6c95dc0c778/contrato-451875618.pdf?expires_on=1648599369&amp;signature=zNZVD80oW0pqWxv0VJjg%2FuiK5P%2BrCnzneiFg2Caf%2Bzk%3D"]</t>
         </is>
       </c>
       <c r="BD245" t="inlineStr">
@@ -46546,7 +46546,7 @@
       <c r="BB246" t="inlineStr"/>
       <c r="BC246" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5288a216-9dbd-41c7-ae68-4bc787971bb9/contrato-460165669.pdf?expires_on=1648559531&amp;signature=FaLRs%2FP9%2FK8rQLqpxpKOoUz7G2U2ew3E%2F8mJhs6U%2FjQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5288a216-9dbd-41c7-ae68-4bc787971bb9/contrato-460165669.pdf?expires_on=1648599369&amp;signature=JqF8YBlzbrJEJxJvFliC2bClrSJOaHc9Xn0k6IpnHOE%3D"]</t>
         </is>
       </c>
       <c r="BD246" t="inlineStr"/>
@@ -46778,7 +46778,7 @@
       </c>
       <c r="BC247" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/eac3c176-95ed-47ce-a99b-ba9652805d9a/contrato-463205453.pdf?expires_on=1648559531&amp;signature=tGlwp%2BmnXtwV2jiyVWJroRx282XxNb0Yvc1JFYdug20%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/eac3c176-95ed-47ce-a99b-ba9652805d9a/contrato-463205453.pdf?expires_on=1648599369&amp;signature=L%2BBGboJxmBY5oYQ9Ka5992BwhO7IDJxN58vZh8xnw28%3D"]</t>
         </is>
       </c>
       <c r="BD247" t="inlineStr">
@@ -47038,7 +47038,7 @@
       </c>
       <c r="BC248" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d9b4a37-6d1a-4f36-8542-f79ef866c85c/contrato-459114701.pdf?expires_on=1648559531&amp;signature=ADLZa7ZqD5rz23dDeW%2BSpxYEKhQqWSEv1kaG6%2FHk92E%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d9b4a37-6d1a-4f36-8542-f79ef866c85c/contrato-459114701.pdf?expires_on=1648599369&amp;signature=XLVaNKppdI8SL2MZ0K4VswOIByMos4iYUke%2Fs1P6UNo%3D"]</t>
         </is>
       </c>
       <c r="BD248" t="inlineStr"/>
@@ -47265,7 +47265,7 @@
       <c r="BB249" t="inlineStr"/>
       <c r="BC249" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/091e7cd7-2b1a-400f-a24c-8acd0bfa3165/contrato-460771551.pdf?expires_on=1648559531&amp;signature=8aRkpE3yj3QdfbaKol0WtmMHmHAnTgpykO0oyq3tBsM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/091e7cd7-2b1a-400f-a24c-8acd0bfa3165/contrato-460771551.pdf?expires_on=1648599369&amp;signature=z3Damto59cm%2Bcwdd81ZMukz%2FPQJd2Eb8smwADBAHRSg%3D"]</t>
         </is>
       </c>
       <c r="BD249" t="inlineStr">
@@ -47508,7 +47508,7 @@
       </c>
       <c r="BC250" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bd70790-381e-4c84-b56c-5dcc777b5c75/contrato-462711487.pdf?expires_on=1648559531&amp;signature=L1OmEEZkcr8VSp5ezwuI6HhAmwaXXyLaqayYIjnG%2FYs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bd70790-381e-4c84-b56c-5dcc777b5c75/contrato-462711487.pdf?expires_on=1648599369&amp;signature=B7WIoRrKE%2FE%2BMPkdao%2FmzGGIb59VTGMEQtYYXpux%2FVM%3D"]</t>
         </is>
       </c>
       <c r="BD250" t="inlineStr">
@@ -47773,7 +47773,7 @@
       </c>
       <c r="BC251" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b4e8e37-084a-4092-b8c1-5af10820b7f5/contrato-461641423.pdf?expires_on=1648559531&amp;signature=SJBU%2Fl8BZdf09yL2%2Bkpi5YJeNczf5xCsbNKlpypvRRg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b4e8e37-084a-4092-b8c1-5af10820b7f5/contrato-461641423.pdf?expires_on=1648599369&amp;signature=V847qXw76E5TiA2xt0a2raFJuJo9u5hAlDazYAJQDSw%3D"]</t>
         </is>
       </c>
       <c r="BD251" t="inlineStr">
@@ -47971,7 +47971,7 @@
       <c r="BB252" t="inlineStr"/>
       <c r="BC252" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a4f4a054-6cd7-4718-af0b-0a644358be16/contrato-460754565.pdf?expires_on=1648559533&amp;signature=ZFbD5Q4dO5J6e%2FTskXyqVS2qKjaahtu0v6R1Fb%2BigWM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a4f4a054-6cd7-4718-af0b-0a644358be16/contrato-460754565.pdf?expires_on=1648599371&amp;signature=mobhhxiOohf8vmbqWLD06%2FwWHFuuHAmDS3zChTAv8xE%3D"]</t>
         </is>
       </c>
       <c r="BD252" t="inlineStr"/>
@@ -48229,7 +48229,7 @@
       </c>
       <c r="BC253" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9b45555c-c083-4f93-bbe8-e8b2228ff82d/contrato-456657334.pdf?expires_on=1648559533&amp;signature=GUBVZ6gobqZtSvs4PmSrIfvLpGQqoIJUPFAU%2BQ7GSpQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9b45555c-c083-4f93-bbe8-e8b2228ff82d/contrato-456657334.pdf?expires_on=1648599371&amp;signature=lR6N4tjx1CdOl0io4Q13%2FOrZk29FrTBVMjRM8DX0WwE%3D"]</t>
         </is>
       </c>
       <c r="BD253" t="inlineStr">
@@ -48496,7 +48496,7 @@
       </c>
       <c r="BC254" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bfae2752-d944-46ff-9488-58ebfadf6cac/contrato-463218416.pdf?expires_on=1648559533&amp;signature=BnMHQxdEdSNB83JH7bz%2BTD3wsKIksrD4HkCzwI2Ians%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bfae2752-d944-46ff-9488-58ebfadf6cac/contrato-463218416.pdf?expires_on=1648599371&amp;signature=0ee%2FowSm7r%2FvN4DKANwKRNOw8x392FmIMxqr6Ni5y00%3D"]</t>
         </is>
       </c>
       <c r="BD254" t="inlineStr">
@@ -48761,7 +48761,7 @@
       </c>
       <c r="BC255" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/913a0110-ee16-4e3d-85d0-a76188bb9125/contrato-461317094.pdf?expires_on=1648559533&amp;signature=rxv22IyFgtvJ9Grv8ciIIUDYUm2vyn7afzUt9NU82g8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/913a0110-ee16-4e3d-85d0-a76188bb9125/contrato-461317094.pdf?expires_on=1648599371&amp;signature=vp2djO18pSq5FYpd71N9RQl77YatrjdJJK6J%2BKBe5Eo%3D"]</t>
         </is>
       </c>
       <c r="BD255" t="inlineStr">
@@ -49027,7 +49027,7 @@
       </c>
       <c r="BC256" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05359369-6ca6-473c-bbe1-791d82d7704a/contrato-459852512.pdf?expires_on=1648559533&amp;signature=M2VgWSReH0J4aubhMeDA1pDb%2BM1Yp1Iflwlk0WKBt%2BI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05359369-6ca6-473c-bbe1-791d82d7704a/contrato-459852512.pdf?expires_on=1648599371&amp;signature=OLfw5w7L13a%2BoVWbqHQTWsFpecxC3bntZUpeWmOIyIo%3D"]</t>
         </is>
       </c>
       <c r="BD256" t="inlineStr">
@@ -49267,7 +49267,7 @@
       </c>
       <c r="BC257" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b559b4b2-7c9d-40ac-befd-e322db60deac/contrato-462713960.pdf?expires_on=1648559533&amp;signature=3YUoyi9fm3sLpH2HezyU25IN%2Bk%2BlZM0mSw%2Bg09FZiOw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b559b4b2-7c9d-40ac-befd-e322db60deac/contrato-462713960.pdf?expires_on=1648599371&amp;signature=40XsDaGpum7KCsHCyAVAPUlOUqFJsXfBC653IevNAhE%3D"]</t>
         </is>
       </c>
       <c r="BD257" t="inlineStr">
@@ -49564,7 +49564,7 @@
       </c>
       <c r="BC258" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9f78a1a-045f-4cc1-a740-a4ff06ef9e0d/contrato-462489239.pdf?expires_on=1648559533&amp;signature=21qfePwDspSB8DJTEPjH%2BdIZ%2B0zyCVnGAmC2%2BrrMOGM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9f78a1a-045f-4cc1-a740-a4ff06ef9e0d/contrato-462489239.pdf?expires_on=1648599371&amp;signature=TWxQHhuNDcy726DIF1qzzkvLIMeXQj0cbt7Jb64PR0w%3D"]</t>
         </is>
       </c>
       <c r="BD258" t="inlineStr">
@@ -49843,7 +49843,7 @@
       </c>
       <c r="BC259" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/80f9cf51-7941-468f-a31e-d646792fcf16/contrato-462495270.pdf?expires_on=1648559533&amp;signature=AhoI10yNDAsgskD6dFTd%2FgjSB76i7TfFaeXwvS0POfM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/80f9cf51-7941-468f-a31e-d646792fcf16/contrato-462495270.pdf?expires_on=1648599371&amp;signature=7AqYn8fNd56NJf9A7CYXYom2mya8l6KcbXuttISDovM%3D"]</t>
         </is>
       </c>
       <c r="BD259" t="inlineStr">
@@ -50135,7 +50135,7 @@
       </c>
       <c r="BC260" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6818eef4-a2bd-41d3-89f3-6aa207fe063a/contrato-463522281.pdf?expires_on=1648559533&amp;signature=ME3LYibEwJAMz60X10z6IR6IosIG3D44qjbw0meuiLs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6818eef4-a2bd-41d3-89f3-6aa207fe063a/contrato-463522281.pdf?expires_on=1648599371&amp;signature=ks%2BjPHaatw0Rn1r3PqGzhamaLfh5O7%2F2GDYJTKqY9Vk%3D"]</t>
         </is>
       </c>
       <c r="BD260" t="inlineStr">
@@ -50367,7 +50367,7 @@
       </c>
       <c r="BC261" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648559533&amp;signature=UkBnOn1fS5RP8xtRkjlllnTC5kYv6jTLhW9OnC17T3I%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648599371&amp;signature=57FeJ87herFkasn9prBFPKiKBU%2FZhMeZq2uEvsEdWuA%3D"]</t>
         </is>
       </c>
       <c r="BD261" t="inlineStr">
@@ -50599,7 +50599,7 @@
       </c>
       <c r="BC262" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648559533&amp;signature=UkBnOn1fS5RP8xtRkjlllnTC5kYv6jTLhW9OnC17T3I%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648599371&amp;signature=57FeJ87herFkasn9prBFPKiKBU%2FZhMeZq2uEvsEdWuA%3D"]</t>
         </is>
       </c>
       <c r="BD262" t="inlineStr">
@@ -50845,7 +50845,7 @@
       </c>
       <c r="BC263" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/58770487-9da8-418d-b613-26d3f5b2deec/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648559533&amp;signature=GAgIwXFDZy4TJM5qMjT%2FsXO0el7ABxsvawfrt0nzXRA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/58770487-9da8-418d-b613-26d3f5b2deec/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648599371&amp;signature=9BFGAShl96Bj4dgJpP%2B4u%2BOBt9yUzJUEYvtZWzR4JP0%3D"]</t>
         </is>
       </c>
       <c r="BD263" t="inlineStr">
@@ -50997,7 +50997,7 @@
       <c r="BB264" t="inlineStr"/>
       <c r="BC264" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1102ac2b-23bb-4b57-a1af-072098340c29/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648559533&amp;signature=HN4QjrAMipYZ2LPrbEqUhEvShDCXEx54ThVHUx5h1Q8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1102ac2b-23bb-4b57-a1af-072098340c29/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648599371&amp;signature=vFFm%2F6GfmvoXS8HUZNFx4qzHR4HOWF0IW0Iss%2BO%2FxJA%3D"]</t>
         </is>
       </c>
       <c r="BD264" t="inlineStr"/>
@@ -51140,7 +51140,7 @@
       <c r="BB265" t="inlineStr"/>
       <c r="BC265" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5cbcacbb-ed61-4c08-9a09-05ba0bb266ce/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648559533&amp;signature=m1y7OxbAkLerDrWGri9NjYeizuPN55bX7vToMv2%2BHwo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5cbcacbb-ed61-4c08-9a09-05ba0bb266ce/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648599371&amp;signature=fA2xEBjyhDNC0kzhKVnYF4w4M1fsPPwkp7CFBNbmhMw%3D"]</t>
         </is>
       </c>
       <c r="BD265" t="inlineStr"/>
@@ -51623,7 +51623,7 @@
       </c>
       <c r="BC267" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/31a02fcf-6248-46aa-a190-eea160264bfc/contrato-451875618.pdf?expires_on=1648559533&amp;signature=Kn3da8F3wdXmyc5lMhVT3MsAnPnaCY6tos70DwGf0w8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/31a02fcf-6248-46aa-a190-eea160264bfc/contrato-451875618.pdf?expires_on=1648599371&amp;signature=TqF38nNxL5Z0p0feyy5tw3TqIZO2jKDoOFrwL0OXLbo%3D"]</t>
         </is>
       </c>
       <c r="BD267" t="inlineStr">
@@ -51873,7 +51873,7 @@
       </c>
       <c r="BC268" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648559533&amp;signature=Fg8gF5yfFPCCdOUu9FCBidnCaijHoFVP0X0z%2B3r6hCU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648599371&amp;signature=5RxoIIOkSQmB6IgjoJCMSc46JUhXHi5a2VgZQZALKhA%3D"]</t>
         </is>
       </c>
       <c r="BD268" t="inlineStr">
@@ -52114,7 +52114,7 @@
       </c>
       <c r="BC269" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/f3e08cd1-4c80-4080-9259-add478b13f6d/contrato-451875618.pdf?expires_on=1648559533&amp;signature=j0rF9ElK33Na%2BRQlim6ExTpd4xhXdJMx4ahsjv%2F8AdM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/f3e08cd1-4c80-4080-9259-add478b13f6d/contrato-451875618.pdf?expires_on=1648599371&amp;signature=cG5VipK3ifSEyCF91HLfd6unNUQIIZheHH7H6YzsyhM%3D"]</t>
         </is>
       </c>
       <c r="BD269" t="inlineStr">
@@ -52347,7 +52347,7 @@
       </c>
       <c r="BC270" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648559533&amp;signature=GIeJIzjHMGIxo82A3%2F5v%2FBBFQwDawZJY674zQaXXIL4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648599371&amp;signature=ZPwqrsPpHsaMHdDe3vuk%2FxGrvzyVr0TExm%2FlPquckAQ%3D"]</t>
         </is>
       </c>
       <c r="BD270" t="inlineStr">
@@ -52577,7 +52577,7 @@
       </c>
       <c r="BC271" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648559533&amp;signature=GIeJIzjHMGIxo82A3%2F5v%2FBBFQwDawZJY674zQaXXIL4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648599371&amp;signature=ZPwqrsPpHsaMHdDe3vuk%2FxGrvzyVr0TExm%2FlPquckAQ%3D"]</t>
         </is>
       </c>
       <c r="BD271" t="inlineStr">
@@ -52732,7 +52732,7 @@
       <c r="BB272" t="inlineStr"/>
       <c r="BC272" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648559533&amp;signature=GIeJIzjHMGIxo82A3%2F5v%2FBBFQwDawZJY674zQaXXIL4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648599371&amp;signature=ZPwqrsPpHsaMHdDe3vuk%2FxGrvzyVr0TExm%2FlPquckAQ%3D"]</t>
         </is>
       </c>
       <c r="BD272" t="inlineStr"/>
@@ -53163,7 +53163,7 @@
       </c>
       <c r="BC274" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0b22c3f4-c287-493c-8a42-b2b4b125cf4e/contrato-463615692.pdf?expires_on=1648559533&amp;signature=i8OZ6fAAcwFp%2FqJMX%2B0q4x%2F%2BfuWbzVwVEsdakapsBfI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0b22c3f4-c287-493c-8a42-b2b4b125cf4e/contrato-463615692.pdf?expires_on=1648599371&amp;signature=K%2FEYFpRGxStLf467VgHEw5uXs5F%2BgpPaHLriiP8O4dQ%3D"]</t>
         </is>
       </c>
       <c r="BD274" t="inlineStr">
@@ -53381,7 +53381,7 @@
       </c>
       <c r="BC275" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/70b7d4b0-b136-46f6-a690-559950ac0ce4/contrato-463615692.pdf?expires_on=1648559533&amp;signature=4pVxMWH3kPLGcNyjciz6B2bzOaX%2FSoWzVVyfCTF8oaw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/70b7d4b0-b136-46f6-a690-559950ac0ce4/contrato-463615692.pdf?expires_on=1648599371&amp;signature=OOOXAteYqSOGxgTNv2zwsoiSF6exuucpABSJP9aXa3g%3D"]</t>
         </is>
       </c>
       <c r="BD275" t="inlineStr">
@@ -53634,7 +53634,7 @@
       </c>
       <c r="BC276" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/80111067-ae18-4c45-b482-6238e4b8617c/contrato-451875618.pdf?expires_on=1648559533&amp;signature=oJFLIQGg9rbjwD1OYyuXoD7Eq4%2FfbZr4Rwz1Be4fq6s%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/80111067-ae18-4c45-b482-6238e4b8617c/contrato-451875618.pdf?expires_on=1648599371&amp;signature=iLtFZSLYAPnVR1gWOzQC6VUewHOXYx4fxQxfGnoNnDg%3D"]</t>
         </is>
       </c>
       <c r="BD276" t="inlineStr">
@@ -53886,7 +53886,7 @@
       </c>
       <c r="BC277" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c0e6946-68ce-4128-9c22-6200d9ad0d51/contrato-463987505.pdf?expires_on=1648559533&amp;signature=Rwyv6pLTDaVGQdu8ZVLVGnblE%2FKbNThg2aVUg4ZTz6U%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c0e6946-68ce-4128-9c22-6200d9ad0d51/contrato-463987505.pdf?expires_on=1648599371&amp;signature=wzNpveaNkPCuTMGFgy2YpkpHtvFMTPQvY6A9sTl1COg%3D"]</t>
         </is>
       </c>
       <c r="BD277" t="inlineStr">
@@ -54162,7 +54162,7 @@
       </c>
       <c r="BC278" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0cef41d6-b4e8-4ed0-b492-aaa7d4f8a354/contrato-463709590.pdf?expires_on=1648559533&amp;signature=WR0waBifhdofZ0MOdJmuqFdYNbK%2BQT86FY%2BRRqeRjwU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0cef41d6-b4e8-4ed0-b492-aaa7d4f8a354/contrato-463709590.pdf?expires_on=1648599371&amp;signature=4nxLTn6B29xFdZ0ZYE9gW6TZBLaH5avMaWRhA1OalEk%3D"]</t>
         </is>
       </c>
       <c r="BD278" t="inlineStr">
@@ -54405,7 +54405,7 @@
       </c>
       <c r="BC279" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/39a23952-51a5-4e98-815b-b37a7a82afbc/contrato-463313350.pdf?expires_on=1648559533&amp;signature=YHfaNlS%2Bcg2d%2BcALHp6tL9bvryIu6ui%2Fr84tdpCYoPg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/39a23952-51a5-4e98-815b-b37a7a82afbc/contrato-463313350.pdf?expires_on=1648599371&amp;signature=qyN7ptWnBoQO5ckNp1v5%2FzGc8wO1alp9gJDE45W2%2F%2Bw%3D"]</t>
         </is>
       </c>
       <c r="BD279" t="inlineStr">
@@ -54660,7 +54660,7 @@
       </c>
       <c r="BC280" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b19aad01-76fa-459a-9216-f808d0e2f884/contrato-465174361.pdf?expires_on=1648559533&amp;signature=gsrzL7QU8CZNnBWupp1bAw7p94a93Wm3ZVIqDrUsIy4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b19aad01-76fa-459a-9216-f808d0e2f884/contrato-465174361.pdf?expires_on=1648599371&amp;signature=zaO8ms67opjHGIvcurQOTr3KYZ4vAphAgeuzm3i8PiU%3D"]</t>
         </is>
       </c>
       <c r="BD280" t="inlineStr">
@@ -54895,7 +54895,7 @@
       </c>
       <c r="BC281" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648559533&amp;signature=6Oj0tO8bRWhVebTBds0hGubRJjFWpgEX3EhnJRaWHBE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648599371&amp;signature=pPpMWYS81G1h4f27VWXz5TThnl2x5xW1A78t6iw42%2F8%3D"]</t>
         </is>
       </c>
       <c r="BD281" t="inlineStr">
@@ -55138,7 +55138,7 @@
       </c>
       <c r="BC282" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648559533&amp;signature=6Oj0tO8bRWhVebTBds0hGubRJjFWpgEX3EhnJRaWHBE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648599371&amp;signature=pPpMWYS81G1h4f27VWXz5TThnl2x5xW1A78t6iw42%2F8%3D"]</t>
         </is>
       </c>
       <c r="BD282" t="inlineStr">
@@ -55369,7 +55369,7 @@
       </c>
       <c r="BC283" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648559533&amp;signature=6Oj0tO8bRWhVebTBds0hGubRJjFWpgEX3EhnJRaWHBE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648599371&amp;signature=pPpMWYS81G1h4f27VWXz5TThnl2x5xW1A78t6iw42%2F8%3D"]</t>
         </is>
       </c>
       <c r="BD283" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="BC284" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcd6263c-cdc7-4c3a-8bb7-867dba3890d0/contrato-464989787.pdf?expires_on=1648559533&amp;signature=QzrmerIljFtLMkHt%2BPEYJYtrTouBksXcBTvEPI4P5j8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcd6263c-cdc7-4c3a-8bb7-867dba3890d0/contrato-464989787.pdf?expires_on=1648599371&amp;signature=lAAuVH%2BUgwqrLmRhrKRZL2ug5tKmvVyJAPuDVv6V%2Bh8%3D"]</t>
         </is>
       </c>
       <c r="BD284" t="inlineStr">
@@ -55898,7 +55898,7 @@
       </c>
       <c r="BC285" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/244dd39f-d2f9-45a3-8583-477bf65ea77f/contrato-465747038.pdf?expires_on=1648559533&amp;signature=z3L4urIu2BKq8l2TJQtHWovXlpJajQ4k2P61nOLyue4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/244dd39f-d2f9-45a3-8583-477bf65ea77f/contrato-465747038.pdf?expires_on=1648599371&amp;signature=ytLHCcpeA09O1H%2FyF0VcQWUmbBrBXPiiDKfBHS3ux8Y%3D"]</t>
         </is>
       </c>
       <c r="BD285" t="inlineStr">
@@ -56163,7 +56163,7 @@
       </c>
       <c r="BC286" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/feaa77d2-a55f-44bc-a8d6-847aa20ce4d6/contrato-463177961.pdf?expires_on=1648559533&amp;signature=qoYiYiFHWK%2FV7mzcJ7hQgkH4Vl8sZLICektzclE%2FDcQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/feaa77d2-a55f-44bc-a8d6-847aa20ce4d6/contrato-463177961.pdf?expires_on=1648599371&amp;signature=d2%2FBllzwQoM0B66mTieKfHQ1G13lUGcUAvubOATy1ZY%3D"]</t>
         </is>
       </c>
       <c r="BD286" t="inlineStr">
@@ -56450,7 +56450,7 @@
       </c>
       <c r="BC287" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e3059013-bd68-4dde-9b8d-6950a0570496/contrato-468828319.pdf?expires_on=1648559533&amp;signature=DarSsVT7PZsmal%2BhOeeWeAC2MCpRpc6vwhq148xZuTo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e3059013-bd68-4dde-9b8d-6950a0570496/contrato-468828319.pdf?expires_on=1648599371&amp;signature=kBQ0ohdVA0elZ7wMbfIn6zl3SC9JI%2Bhwc3O7cppJAuA%3D"]</t>
         </is>
       </c>
       <c r="BD287" t="inlineStr">
@@ -56678,7 +56678,7 @@
       </c>
       <c r="BC288" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648559533&amp;signature=AZyr9fXy3yFE7ZYVX2uZ1h%2FeBc5S%2Fv6s8zSxKEoigIg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648599371&amp;signature=%2FXILUGdPKMDSI4y9alZ0WWjHRpEb%2Bqupza6ZOVRmc98%3D"]</t>
         </is>
       </c>
       <c r="BD288" t="inlineStr">
@@ -56910,7 +56910,7 @@
       </c>
       <c r="BC289" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648559533&amp;signature=AZyr9fXy3yFE7ZYVX2uZ1h%2FeBc5S%2Fv6s8zSxKEoigIg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648599371&amp;signature=%2FXILUGdPKMDSI4y9alZ0WWjHRpEb%2Bqupza6ZOVRmc98%3D"]</t>
         </is>
       </c>
       <c r="BD289" t="inlineStr">
@@ -57138,7 +57138,7 @@
       </c>
       <c r="BC290" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648559533&amp;signature=AZyr9fXy3yFE7ZYVX2uZ1h%2FeBc5S%2Fv6s8zSxKEoigIg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648599371&amp;signature=%2FXILUGdPKMDSI4y9alZ0WWjHRpEb%2Bqupza6ZOVRmc98%3D"]</t>
         </is>
       </c>
       <c r="BD290" t="inlineStr">
@@ -57362,7 +57362,7 @@
       </c>
       <c r="BC291" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca2d632f-7d59-41ef-a6e2-120406635cf3/contrato-466761651.pdf?expires_on=1648559533&amp;signature=iznfnNGaWqro5MiRhsj9rHkj1x9nUWAZ9WlLsO%2BIU9w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca2d632f-7d59-41ef-a6e2-120406635cf3/contrato-466761651.pdf?expires_on=1648599371&amp;signature=eCtGIpuDjc7rsQBptg7dojipP9bR%2F5tf9lzSxvsNrZI%3D"]</t>
         </is>
       </c>
       <c r="BD291" t="inlineStr">
@@ -57586,7 +57586,7 @@
       </c>
       <c r="BC292" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/fb850cfc-0639-4992-8429-2583971f2f57/contrato-466761651.pdf?expires_on=1648559533&amp;signature=xnUdhGqArDWk6xOXdb7ne41MNuqy909sh4HpV5d4muI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/fb850cfc-0639-4992-8429-2583971f2f57/contrato-466761651.pdf?expires_on=1648599371&amp;signature=3reB9BC%2Bxr0aaUbWX6nO9GyNkrqijC%2FPGl3cb%2F%2FccyA%3D"]</t>
         </is>
       </c>
       <c r="BD292" t="inlineStr">
@@ -57814,7 +57814,7 @@
       </c>
       <c r="BC293" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648559533&amp;signature=J2Ocb8WuMJzfLTgyOYypkaMlSjG9rbmXd56nNOLTMLQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648599371&amp;signature=96KGal33cUqW7%2FL5WdypT7a7h488AasCzGPD2mejMfI%3D"]</t>
         </is>
       </c>
       <c r="BD293" t="inlineStr">
@@ -58042,7 +58042,7 @@
       </c>
       <c r="BC294" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648559533&amp;signature=J2Ocb8WuMJzfLTgyOYypkaMlSjG9rbmXd56nNOLTMLQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648599371&amp;signature=96KGal33cUqW7%2FL5WdypT7a7h488AasCzGPD2mejMfI%3D"]</t>
         </is>
       </c>
       <c r="BD294" t="inlineStr">
@@ -58270,7 +58270,7 @@
       </c>
       <c r="BC295" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648559533&amp;signature=J2Ocb8WuMJzfLTgyOYypkaMlSjG9rbmXd56nNOLTMLQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648599371&amp;signature=96KGal33cUqW7%2FL5WdypT7a7h488AasCzGPD2mejMfI%3D"]</t>
         </is>
       </c>
       <c r="BD295" t="inlineStr">
@@ -58494,7 +58494,7 @@
       </c>
       <c r="BC296" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/bdc20416-c523-43fd-9354-066ace0c80aa/contrato-465874860.pdf?expires_on=1648559533&amp;signature=BLLf7xkkHz91sOYtift3Gg3G%2F0ebT5JNVaH7p%2FK0e1I%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/bdc20416-c523-43fd-9354-066ace0c80aa/contrato-465874860.pdf?expires_on=1648599371&amp;signature=H0x2IzwDNec1jROLS%2FugF1bkI7nTAPlxX%2F06yByfpUQ%3D"]</t>
         </is>
       </c>
       <c r="BD296" t="inlineStr">
@@ -58722,7 +58722,7 @@
       </c>
       <c r="BC297" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/27654372-8667-4580-873e-6a95b96bc6c0/contrato-465874860.pdf?expires_on=1648559533&amp;signature=hRibNaT4qtI9%2BZJ3RS07EMIhxiIhuSuJcNPUUNv5MhE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/27654372-8667-4580-873e-6a95b96bc6c0/contrato-465874860.pdf?expires_on=1648599371&amp;signature=XGG2Y2J7hch46D3uG0QrhTlxallDBKeHiI0AAqGKewU%3D"]</t>
         </is>
       </c>
       <c r="BD297" t="inlineStr">
@@ -59009,7 +59009,7 @@
       </c>
       <c r="BC298" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aef69f69-2213-487c-b998-dc0d06df06ca/contrato-468417266.pdf?expires_on=1648559533&amp;signature=xiKX32u9oW3ecypXPxheu%2Fd0y1b3%2FcDjXgXw%2BGRHlU8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aef69f69-2213-487c-b998-dc0d06df06ca/contrato-468417266.pdf?expires_on=1648599371&amp;signature=c5ZQZWuA1YwJnR7zV1aTJuLkjUeYjnGraGWuoXp%2BQzE%3D"]</t>
         </is>
       </c>
       <c r="BD298" t="inlineStr">
@@ -59304,7 +59304,7 @@
       </c>
       <c r="BC299" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/19b191f4-531b-4c40-9473-90a6fe13bf72/contrato-465732783.pdf?expires_on=1648559533&amp;signature=kx6in9qpPbscmuCibgcOAybmXr1rr825r%2FX3QN5LTf4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/19b191f4-531b-4c40-9473-90a6fe13bf72/contrato-465732783.pdf?expires_on=1648599371&amp;signature=vYOH64ORUq5c8ErTtcTECC6NE0gnk9xz8BpZll0mcuA%3D"]</t>
         </is>
       </c>
       <c r="BD299" t="inlineStr"/>
@@ -59551,7 +59551,7 @@
       </c>
       <c r="BC300" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4a6bb469-2355-431c-a0fc-ecc09e4568c0/contrato-469017842.pdf?expires_on=1648559533&amp;signature=u%2BPgHLkDAUlAMJDuLBHGfNm5McbRvxtIrqRPzYTIOwk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4a6bb469-2355-431c-a0fc-ecc09e4568c0/contrato-469017842.pdf?expires_on=1648599371&amp;signature=l2z6No76lVnbpO6zdL8oilNfzxcPHHo6cRx%2BeUU%2Fccg%3D"]</t>
         </is>
       </c>
       <c r="BD300" t="inlineStr">
@@ -59779,7 +59779,7 @@
       </c>
       <c r="BC301" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bf514f31-4854-4dec-ba24-970a10a3b04a/contrato-468749675.pdf?expires_on=1648559533&amp;signature=DhRlSrTaxtKYY5807PVdFm%2BDUK9ZeGdKn7gIsXmA4MY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bf514f31-4854-4dec-ba24-970a10a3b04a/contrato-468749675.pdf?expires_on=1648599371&amp;signature=n02L4lXME9jOQNzFdUy82404rp5RBuw%2F%2BcHoWrlXwvY%3D"]</t>
         </is>
       </c>
       <c r="BD301" t="inlineStr"/>
@@ -60006,7 +60006,7 @@
       </c>
       <c r="BC302" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a89ef8e4-1e31-4af4-a852-de71d21b0ad5/contrato-467365901.pdf?expires_on=1648559550&amp;signature=qHyO1la%2Fk9bMEM3cW7orczu6aoSuUyocZ6r%2B5KQK5ms%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a89ef8e4-1e31-4af4-a852-de71d21b0ad5/contrato-467365901.pdf?expires_on=1648599372&amp;signature=yJl7y1010fB8lk6Xyf3j2f9sSYtokbbQjWa2S2rJWYI%3D"]</t>
         </is>
       </c>
       <c r="BD302" t="inlineStr">
@@ -60237,7 +60237,7 @@
       </c>
       <c r="BC303" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648559550&amp;signature=Z456JTsv8DzvTkaShBt2x0zwCsmJsMVKyeddrNXh2Wc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648599372&amp;signature=0%2Bhln37f1kS9FvtAIdKiHbBpmADTs4QkEqCmmLYJ7Hs%3D"]</t>
         </is>
       </c>
       <c r="BD303" t="inlineStr">
@@ -60476,7 +60476,7 @@
       </c>
       <c r="BC304" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648559550&amp;signature=Z456JTsv8DzvTkaShBt2x0zwCsmJsMVKyeddrNXh2Wc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648599372&amp;signature=0%2Bhln37f1kS9FvtAIdKiHbBpmADTs4QkEqCmmLYJ7Hs%3D"]</t>
         </is>
       </c>
       <c r="BD304" t="inlineStr">
@@ -60726,7 +60726,7 @@
       </c>
       <c r="BC305" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648559550&amp;signature=lepjO8Y1%2F9%2Fq9LCOYolFSd9SaxxnUJdEwQezzfCE%2FV8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648599372&amp;signature=kPrjsITyFwqIqbw9LT%2BYxFSWtQc7Ou8ylOTrUnLjjKc%3D"]</t>
         </is>
       </c>
       <c r="BD305" t="inlineStr">
@@ -60996,7 +60996,7 @@
       </c>
       <c r="BC306" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648559550&amp;signature=lepjO8Y1%2F9%2Fq9LCOYolFSd9SaxxnUJdEwQezzfCE%2FV8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648599372&amp;signature=kPrjsITyFwqIqbw9LT%2BYxFSWtQc7Ou8ylOTrUnLjjKc%3D"]</t>
         </is>
       </c>
       <c r="BD306" t="inlineStr">
@@ -61255,7 +61255,7 @@
       </c>
       <c r="BC307" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3754db2c-7916-4b3d-a8ea-238579541e60/contrato-466091729.pdf?expires_on=1648559550&amp;signature=m89MvHvNT2HurNHrjnuloi7pSmax%2BX5g4oC2ni7kQbU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3754db2c-7916-4b3d-a8ea-238579541e60/contrato-466091729.pdf?expires_on=1648599372&amp;signature=E03HRGapqa6IagJ1T0R1A9Hlrw34u9GDtRJUMw3B%2B%2F4%3D"]</t>
         </is>
       </c>
       <c r="BD307" t="inlineStr">
@@ -61517,7 +61517,7 @@
       </c>
       <c r="BC308" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0a5d9c43-fbc3-4f00-9d0c-c97f9edf1d25/contrato-469013309.pdf?expires_on=1648559550&amp;signature=%2FeVy2M1Daw6y9%2FhlVjBtkzU42aGSQmogeCbPShn21gw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0a5d9c43-fbc3-4f00-9d0c-c97f9edf1d25/contrato-469013309.pdf?expires_on=1648599372&amp;signature=5HpaGrxC6%2B1ZEt1KHiXtLXsT4udd2gNT8uqLpd8lGIk%3D"]</t>
         </is>
       </c>
       <c r="BD308" t="inlineStr">
@@ -61706,7 +61706,7 @@
       <c r="BB309" t="inlineStr"/>
       <c r="BC309" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/50ef0e33-98ed-47e0-9846-36c019aa57ea/contrato-469054289.pdf?expires_on=1648559550&amp;signature=9dLRlFUgfwPkusTwDhtsSiI%2BlZmBUqSUYCjzO8qezvw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/50ef0e33-98ed-47e0-9846-36c019aa57ea/contrato-469054289.pdf?expires_on=1648599372&amp;signature=dFulKDFaE5TpgzBNnOvbZCltGxnLotlMVr17Sg0ie4w%3D"]</t>
         </is>
       </c>
       <c r="BD309" t="inlineStr"/>
@@ -61947,7 +61947,7 @@
       </c>
       <c r="BC310" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/185bf35f-fd66-4ba8-a529-81de3bfbb3a3/contrato-469071097.pdf?expires_on=1648559550&amp;signature=8qZdJYYGMiKMvaUO2Jngr%2BYS2O8jED5d7%2BuK5aKmpsU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/185bf35f-fd66-4ba8-a529-81de3bfbb3a3/contrato-469071097.pdf?expires_on=1648599372&amp;signature=vPK6VScVGRne1GZ2BA%2BllXF%2BVvdMJ2o5K9luO1VTiaU%3D"]</t>
         </is>
       </c>
       <c r="BD310" t="inlineStr">
@@ -62197,7 +62197,7 @@
       </c>
       <c r="BC311" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/70cd35c1-9a99-4580-8c08-08a2024e0d64/contrato-469770285.pdf?expires_on=1648559550&amp;signature=UoGZZxcQmNOUakwllsn2wWMLkoPnbGW0Zbo9%2F3cuBTY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/70cd35c1-9a99-4580-8c08-08a2024e0d64/contrato-469770285.pdf?expires_on=1648599372&amp;signature=ScBGuzeo7wRsCClBWMM6CDQXnydBD%2FjvjGxLnDLNpRQ%3D"]</t>
         </is>
       </c>
       <c r="BD311" t="inlineStr">
@@ -62446,7 +62446,7 @@
       </c>
       <c r="BC312" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8857045d-e847-458c-abca-e72faa3c26d2/contrato-468050467.pdf?expires_on=1648559550&amp;signature=yFDUrpXdZN%2FcdCb0rmyFz6raa7GDPcqooNnoi7K6nIk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8857045d-e847-458c-abca-e72faa3c26d2/contrato-468050467.pdf?expires_on=1648599372&amp;signature=CNPBZrofYTP4WuXRsbj8GzBlmLiR7xEMbuRUA5cGEIM%3D"]</t>
         </is>
       </c>
       <c r="BD312" t="inlineStr">
@@ -62704,7 +62704,7 @@
       </c>
       <c r="BC313" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3f13f0d4-96be-458f-9b19-ff0ce401522d/contrato-464585309.pdf?expires_on=1648559550&amp;signature=bjqZDNHIwnmxJI4nJB9EXKFCggsZpFDbnogqHLzdH3k%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3f13f0d4-96be-458f-9b19-ff0ce401522d/contrato-464585309.pdf?expires_on=1648599372&amp;signature=fhoKErTCr1JYYL3A7wnzbO6U6ijgzJWFcY5Ni6N%2B4io%3D"]</t>
         </is>
       </c>
       <c r="BD313" t="inlineStr">
@@ -62855,7 +62855,7 @@
       <c r="BB314" t="inlineStr"/>
       <c r="BC314" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648559550&amp;signature=j4ui89oY0P30HKhH0fV2lIQbBZy74rhDQt3K2rqs4Go%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648599372&amp;signature=wXIdQQs7%2BfnLGuLdaeFBtu%2Fz2mOlZXXVhUBYukUyE6Y%3D"]</t>
         </is>
       </c>
       <c r="BD314" t="inlineStr"/>
@@ -62998,7 +62998,7 @@
       <c r="BB315" t="inlineStr"/>
       <c r="BC315" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648559550&amp;signature=j4ui89oY0P30HKhH0fV2lIQbBZy74rhDQt3K2rqs4Go%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648599372&amp;signature=wXIdQQs7%2BfnLGuLdaeFBtu%2Fz2mOlZXXVhUBYukUyE6Y%3D"]</t>
         </is>
       </c>
       <c r="BD315" t="inlineStr"/>
@@ -63141,7 +63141,7 @@
       <c r="BB316" t="inlineStr"/>
       <c r="BC316" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648559550&amp;signature=j4ui89oY0P30HKhH0fV2lIQbBZy74rhDQt3K2rqs4Go%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648599372&amp;signature=wXIdQQs7%2BfnLGuLdaeFBtu%2Fz2mOlZXXVhUBYukUyE6Y%3D"]</t>
         </is>
       </c>
       <c r="BD316" t="inlineStr"/>
@@ -63390,7 +63390,7 @@
       </c>
       <c r="BC317" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d639fc49-28e1-478f-bc28-7a6b97aa8941/contrato-462515224.pdf?expires_on=1648559550&amp;signature=DN7bdRTxz90nod3wb9QQkyFPoELR3GpCOJC%2BqjFL%2FX8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d639fc49-28e1-478f-bc28-7a6b97aa8941/contrato-462515224.pdf?expires_on=1648599372&amp;signature=pUannVBASyU9OHx85FCjTqGmC5CF%2FwG3juXK61RD3Hs%3D"]</t>
         </is>
       </c>
       <c r="BD317" t="inlineStr">
@@ -63677,7 +63677,7 @@
       </c>
       <c r="BC318" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1fe600c3-ec6d-4287-a1c4-2b977d20a2e2/contrato-484250141.pdf?expires_on=1648559550&amp;signature=Ks7AcrKpwGanjDGAEjOsk4qZQrjgApfDYNYf1%2BxKO3A%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1fe600c3-ec6d-4287-a1c4-2b977d20a2e2/contrato-484250141.pdf?expires_on=1648599372&amp;signature=bUqlp%2FDNI58aqqb4pyfPSrrTrdQ4pq616fxSur%2B5%2Fpw%3D"]</t>
         </is>
       </c>
       <c r="BD318" t="inlineStr">
@@ -63947,7 +63947,7 @@
       </c>
       <c r="BC319" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0bacb28e-4ef6-4a4a-883b-e8fb6ab8d2b5/contrato-482339095.pdf?expires_on=1648559550&amp;signature=%2Ff7rGh4PuXnYDXvEK1AAM9CpSCVVOfw6HmaWOGSLLkw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0bacb28e-4ef6-4a4a-883b-e8fb6ab8d2b5/contrato-482339095.pdf?expires_on=1648599372&amp;signature=DUPyoTEdSEi8zdcw8UrHqI4yFR0y0gGioQYITO0nj%2BE%3D"]</t>
         </is>
       </c>
       <c r="BD319" t="inlineStr">
@@ -64179,7 +64179,7 @@
       </c>
       <c r="BC320" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05c6218a-69e4-4bc7-8f9b-b7f3ecb0e4cf/contrato-468313813.pdf?expires_on=1648559550&amp;signature=OEYNemeDDqWYgP32idn4%2B5Pn%2BU4WB815n48%2BBuwrZ9k%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05c6218a-69e4-4bc7-8f9b-b7f3ecb0e4cf/contrato-468313813.pdf?expires_on=1648599372&amp;signature=kTk56yWdukItos8yAIdljB8KvTZ9qBjsDbErC1%2FYYVY%3D"]</t>
         </is>
       </c>
       <c r="BD320" t="inlineStr">
@@ -64435,7 +64435,7 @@
       </c>
       <c r="BC321" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648559550&amp;signature=%2BUULFykQPFoS01goYPgHuq%2FIRMiU46KkkaoyPNpVrsg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648599372&amp;signature=ZxwbXDpJKBWwn3ZRz%2B6ps5rHpuTfvUaby%2BIV7WaejSM%3D"]</t>
         </is>
       </c>
       <c r="BD321" t="inlineStr">
@@ -64675,7 +64675,7 @@
       </c>
       <c r="BC322" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f7c95abb-2c62-40c2-8f73-70dfbe465d23/contrato-483891911.pdf?expires_on=1648559550&amp;signature=Sz4mRjthAy0DyXNxd64ergZcguDS1KD%2FqeJQx1Ye0Gk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f7c95abb-2c62-40c2-8f73-70dfbe465d23/contrato-483891911.pdf?expires_on=1648599372&amp;signature=aNQE4Kbq41fG1tjg%2FEb7AlT5KLcjYHNw1TVZdWzcT0Y%3D"]</t>
         </is>
       </c>
       <c r="BD322" t="inlineStr"/>
@@ -64929,7 +64929,7 @@
       </c>
       <c r="BC323" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648559550&amp;signature=%2BUULFykQPFoS01goYPgHuq%2FIRMiU46KkkaoyPNpVrsg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648599372&amp;signature=ZxwbXDpJKBWwn3ZRz%2B6ps5rHpuTfvUaby%2BIV7WaejSM%3D"]</t>
         </is>
       </c>
       <c r="BD323" t="inlineStr">
@@ -65174,7 +65174,7 @@
       </c>
       <c r="BC324" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8ff5e065-1ee7-431d-8c96-c5e59d697ba6/contrato-482326201.pdf?expires_on=1648559550&amp;signature=n9Gpy%2Fxlkrj5lL44yVwzTfUy7DA7Ako29Sy1fSWJzW4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8ff5e065-1ee7-431d-8c96-c5e59d697ba6/contrato-482326201.pdf?expires_on=1648599372&amp;signature=Uhg4J57VeFSgsro42ocQz0qpP7JWzdMZEn34N0%2FNzxg%3D"]</t>
         </is>
       </c>
       <c r="BD324" t="inlineStr">
@@ -65409,7 +65409,7 @@
       </c>
       <c r="BC325" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f613b665-fd00-40fd-a3a2-ec7d27fcd97c/contrato-481095700.pdf?expires_on=1648559550&amp;signature=Xp0M%2FDnGOZQYFgyUP3ca3zuLrScgnuNJ5Mgsq05u%2FPE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f613b665-fd00-40fd-a3a2-ec7d27fcd97c/contrato-481095700.pdf?expires_on=1648599372&amp;signature=NNFJXoxv7wYTUMmpwQxVDaO0v3I1mAEQAQiQEsh84Ik%3D"]</t>
         </is>
       </c>
       <c r="BD325" t="inlineStr">
@@ -65652,7 +65652,7 @@
       </c>
       <c r="BC326" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/907727b0-8360-4977-96b6-865f3e02abc4/contrato-482929161.pdf?expires_on=1648559550&amp;signature=RTxkqKLJYrlL0qGaZFUa9Ic%2FhHfxhk8BYQH5ZCXQQaE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/907727b0-8360-4977-96b6-865f3e02abc4/contrato-482929161.pdf?expires_on=1648599372&amp;signature=C7zhRlpz4xYyEY235oLUb%2Fg5JgLDjY2myply04thLFk%3D"]</t>
         </is>
       </c>
       <c r="BD326" t="inlineStr">
@@ -65883,7 +65883,7 @@
       </c>
       <c r="BC327" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0274f89a-4915-4f57-94d7-ddc0ed81d0d5/contrato-489420064.pdf?expires_on=1648559550&amp;signature=QzEM5mTszViKdJbZzkB0gxJ9u%2BMIcploC6HoUR0JlMo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0274f89a-4915-4f57-94d7-ddc0ed81d0d5/contrato-489420064.pdf?expires_on=1648599372&amp;signature=LbRO6qFrdTCbmuBqPOE60XFdLilWG4HtsfYz64rWoZk%3D"]</t>
         </is>
       </c>
       <c r="BD327" t="inlineStr">
@@ -66134,7 +66134,7 @@
       </c>
       <c r="BC328" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6458e3f4-3af4-417b-84e3-181c3ba8c011/contrato-490074673.pdf?expires_on=1648559550&amp;signature=qcaw0Iu%2BsJ2ZJV8Zy7O34RFp5bKz6%2BYhdF0A5DtcLW8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6458e3f4-3af4-417b-84e3-181c3ba8c011/contrato-490074673.pdf?expires_on=1648599372&amp;signature=bUiaAxqJ1Qn7Laon3ypDQ1M4wqVmvn%2Fy51T93la5fWQ%3D"]</t>
         </is>
       </c>
       <c r="BD328" t="inlineStr">
@@ -66423,7 +66423,7 @@
       </c>
       <c r="BC329" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/268c2abe-ccfe-422f-959f-9e36a73ba21d/contrato-490721834.pdf?expires_on=1648559550&amp;signature=cEDSlIi%2FZHJASQta%2Bt4gX0CRK5lEkAzxeICLZ1kAaeg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/268c2abe-ccfe-422f-959f-9e36a73ba21d/contrato-490721834.pdf?expires_on=1648599372&amp;signature=JKMPsOMKsmKJOyfH7HxSmJjx23bKrPCNxhzb7YNfG5Q%3D"]</t>
         </is>
       </c>
       <c r="BD329" t="inlineStr">
@@ -66705,7 +66705,7 @@
       </c>
       <c r="BC330" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7cd39b4e-44a7-49f2-8847-c0f7ba78d7c0/contrato-487326575.pdf?expires_on=1648559550&amp;signature=QUruPzkruxC%2Fol4kC0reOZmRKn8eYq3Wo75B1Yf2Gx0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7cd39b4e-44a7-49f2-8847-c0f7ba78d7c0/contrato-487326575.pdf?expires_on=1648599372&amp;signature=4FJM0KZ2QPsNxCM%2Fle9caM7RJ24B7ettx1F243%2FYcrM%3D"]</t>
         </is>
       </c>
       <c r="BD330" t="inlineStr"/>
@@ -66856,7 +66856,7 @@
       <c r="BB331" t="inlineStr"/>
       <c r="BC331" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fa0eed8a-9f4b-4e8c-866f-8f78db2c5a27/contrato-490012314.pdf?expires_on=1648559550&amp;signature=x9OJ0x3yGJmgch6pS8%2BjZiC7fC42il8UWH7QH1gCOXc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fa0eed8a-9f4b-4e8c-866f-8f78db2c5a27/contrato-490012314.pdf?expires_on=1648599372&amp;signature=b2prrIrxfJrBTLtYfEMsEU0cH1tm9wHK83Jif5zf9TI%3D"]</t>
         </is>
       </c>
       <c r="BD331" t="inlineStr"/>
@@ -67094,7 +67094,7 @@
       </c>
       <c r="BC332" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2f604b6b-78fa-478c-999d-5b05501f32b1/contrato-488220629.pdf?expires_on=1648559550&amp;signature=k6w4O6VQneFiGSvnfuQNgOY84Z34JwjQC4rD0RJH4ds%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2f604b6b-78fa-478c-999d-5b05501f32b1/contrato-488220629.pdf?expires_on=1648599372&amp;signature=9r5aTWqqSs9l9KdIQxr10BJGca9Ke0Mc7QpfDazhQ64%3D"]</t>
         </is>
       </c>
       <c r="BD332" t="inlineStr">
@@ -67358,7 +67358,7 @@
       </c>
       <c r="BC333" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab61a519-69b0-48c4-ab25-12dd9fac4d45/contrato-488653944.pdf?expires_on=1648559550&amp;signature=0owfcqXkDUf10ir9jlcd6C%2FQhaPJ1q0N05IJy1Oxc4Q%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab61a519-69b0-48c4-ab25-12dd9fac4d45/contrato-488653944.pdf?expires_on=1648599372&amp;signature=hJgIaMlk5BN1LgWJc4sG096q%2BapFNVP17B3M8%2FkVCOg%3D"]</t>
         </is>
       </c>
       <c r="BD333" t="inlineStr">
@@ -67621,7 +67621,7 @@
       </c>
       <c r="BC334" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/36b4ad0f-61e5-4b55-8fe2-a3c77319e967/contrato-491949690.pdf?expires_on=1648559550&amp;signature=tAxzoPXxDH0Oxrog1TCcAZSFTNFqXRr2vnDQyrzeTcA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/36b4ad0f-61e5-4b55-8fe2-a3c77319e967/contrato-491949690.pdf?expires_on=1648599372&amp;signature=hqposaSRI%2Br50Rp0tP%2FfbkRN2S%2BnvdNfUExFc7bcyXE%3D"]</t>
         </is>
       </c>
       <c r="BD334" t="inlineStr">
@@ -67894,7 +67894,7 @@
       </c>
       <c r="BC335" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f11b2835-3a83-43cd-a12c-5c4487c60815/contrato-495929206.pdf?expires_on=1648559550&amp;signature=%2BX7kuMTyQZZIGiIw2yNHNRY5yL%2FFijjsk45%2F9C%2FVZrg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f11b2835-3a83-43cd-a12c-5c4487c60815/contrato-495929206.pdf?expires_on=1648599372&amp;signature=JqHGofhfwaIhzKnjsfIAbnqgyf8MXlAOhCUY5nri53w%3D"]</t>
         </is>
       </c>
       <c r="BD335" t="inlineStr">
@@ -68135,7 +68135,7 @@
       </c>
       <c r="BC336" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648559550&amp;signature=GOdLZEbVwPyORgg46xRnb7%2FUg9%2FQUrq5B8RIyrtKqq8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648599372&amp;signature=1AYgRknYqDNFAb%2FcquCSx1EF6yrtyViHiSGTxKsbvt0%3D"]</t>
         </is>
       </c>
       <c r="BD336" t="inlineStr">
@@ -68393,7 +68393,7 @@
       </c>
       <c r="BC337" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5168106c-16c5-4cc5-b014-fc5309064660/contrato-491297142.pdf?expires_on=1648559550&amp;signature=A7oXYwXBm9q6S5qXDHxZfGVBKcmtTOYGjxrPINdUmi0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5168106c-16c5-4cc5-b014-fc5309064660/contrato-491297142.pdf?expires_on=1648599372&amp;signature=8jphfUpm2BHlQ33HOoEbw1b8LPFX%2BJutZOXl3nbf7MA%3D"]</t>
         </is>
       </c>
       <c r="BD337" t="inlineStr">
@@ -68628,7 +68628,7 @@
       </c>
       <c r="BC338" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bb74b6e-6ec6-4133-bdb0-78f75d46bcbb/contrato-493467702.pdf?expires_on=1648559550&amp;signature=2bej1OyuL1LZaqgbmzACA%2FDq7aLX1rXZW6Gw6G7OWHw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bb74b6e-6ec6-4133-bdb0-78f75d46bcbb/contrato-493467702.pdf?expires_on=1648599372&amp;signature=SOmj9gwAoAtPU7gxlUp3uMF1UFgtvxZz4nbG2ckOipw%3D"]</t>
         </is>
       </c>
       <c r="BD338" t="inlineStr">
@@ -68783,7 +68783,7 @@
       <c r="BB339" t="inlineStr"/>
       <c r="BC339" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648559550&amp;signature=GOdLZEbVwPyORgg46xRnb7%2FUg9%2FQUrq5B8RIyrtKqq8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648599372&amp;signature=1AYgRknYqDNFAb%2FcquCSx1EF6yrtyViHiSGTxKsbvt0%3D"]</t>
         </is>
       </c>
       <c r="BD339" t="inlineStr"/>
@@ -69020,7 +69020,7 @@
       </c>
       <c r="BC340" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d44c791d-49dc-4141-88a5-6cd9f5661c1e/contrato-496263774.pdf?expires_on=1648559550&amp;signature=1DVDX3jyIzo5mzMJwo4FRYxbgX5gE5fbDfuZUtSMHRg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d44c791d-49dc-4141-88a5-6cd9f5661c1e/contrato-496263774.pdf?expires_on=1648599372&amp;signature=mnfiVc3osrRVLZYMUjSCaW4z1U66qaBUYW8p8jl5iyw%3D"]</t>
         </is>
       </c>
       <c r="BD340" t="inlineStr">
@@ -69259,7 +69259,7 @@
       </c>
       <c r="BC341" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/cf077f2c-8ef0-4846-8321-d54f66ebe604/contrato-484319529.pdf?expires_on=1648559550&amp;signature=u3JCVgJeY9fd37%2BufuvQw8lMERWRdCjuece4Gu%2BnHtY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/cf077f2c-8ef0-4846-8321-d54f66ebe604/contrato-484319529.pdf?expires_on=1648599372&amp;signature=AYsCU9Q8KssQKHhO7L0Ip9uj03Vkhc%2FNNDcl6jm5JkI%3D"]</t>
         </is>
       </c>
       <c r="BD341" t="inlineStr">
@@ -69505,7 +69505,7 @@
       </c>
       <c r="BC342" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5f666ea2-5c15-47b0-bec7-57697febef24/contrato-491061351.pdf?expires_on=1648559550&amp;signature=FZau8pOzVKweQdfAfNP4ObBdTkb7qsaTarF2MaDBhzk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5f666ea2-5c15-47b0-bec7-57697febef24/contrato-491061351.pdf?expires_on=1648599372&amp;signature=nQJNjnFh9vl6ecA8nUuPtT1SmbVyjdnI26jTgMMeiDk%3D"]</t>
         </is>
       </c>
       <c r="BD342" t="inlineStr">
@@ -69752,7 +69752,7 @@
       </c>
       <c r="BC343" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bbe80b1-78b2-4aba-a33a-454d3861e38f/contrato-499250516.pdf?expires_on=1648559550&amp;signature=1Q6C1Hpc5UYfZ2tTr5k4UgLcXhyt%2BboZEpxhSTY3qcI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bbe80b1-78b2-4aba-a33a-454d3861e38f/contrato-499250516.pdf?expires_on=1648599372&amp;signature=x%2BjEGcSN2jqxgilqQA9MCkNPFP0gFRGIAq%2FwAyDg4Sg%3D"]</t>
         </is>
       </c>
       <c r="BD343" t="inlineStr"/>
@@ -69994,7 +69994,7 @@
       </c>
       <c r="BC344" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/46144cc6-1699-48b9-a042-cb99f86003ed/contrato-500811506.pdf?expires_on=1648559550&amp;signature=yUFtjKmm46ARj3XrvMCwrhhYAgcqx1Hk2T6ml%2B%2FoodM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/46144cc6-1699-48b9-a042-cb99f86003ed/contrato-500811506.pdf?expires_on=1648599372&amp;signature=joMqv4sGbFaSzBb6zBkZb6VTxF8yzTWzLAIlYUYY2%2Bg%3D"]</t>
         </is>
       </c>
       <c r="BD344" t="inlineStr">
@@ -70141,7 +70141,7 @@
       <c r="BB345" t="inlineStr"/>
       <c r="BC345" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1308dcb9-8896-4c49-a9a8-79e3e12f3d07/contrato-460165669.pdf?expires_on=1648559550&amp;signature=vOT8wbScaAZGYYxvI4wMCjHMH2r%2B8OeaUm2WDrYN3LI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1308dcb9-8896-4c49-a9a8-79e3e12f3d07/contrato-460165669.pdf?expires_on=1648599372&amp;signature=S%2FX4mq%2BVZScf%2BQw23SjMmGIogpFb2uZ7an1IgXQK7YU%3D"]</t>
         </is>
       </c>
       <c r="BD345" t="inlineStr"/>
@@ -70372,7 +70372,7 @@
       <c r="BB346" t="inlineStr"/>
       <c r="BC346" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d10b59c7-0ab0-4cea-a2a8-656115e4c21f/contrato-500346265.pdf?expires_on=1648559550&amp;signature=6AtGqJ%2BoH%2FdFsjZD3UCx6yJZWpJW8KJxZ2Z1fCihsDE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d10b59c7-0ab0-4cea-a2a8-656115e4c21f/contrato-500346265.pdf?expires_on=1648599372&amp;signature=5t4hUHhSHsi%2FsV0kMLHMeTLQSlCKJ6JNs4kGegIOknM%3D"]</t>
         </is>
       </c>
       <c r="BD346" t="inlineStr">
@@ -70623,7 +70623,7 @@
       </c>
       <c r="BC347" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7ca55b57-892c-464f-af2a-fdad38dbbc9a/contrato-495796837.pdf?expires_on=1648559550&amp;signature=L72EQskCHSP4Q%2BFJ7l2JiIUkACuacuvGU%2Fm4pMt1nbM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7ca55b57-892c-464f-af2a-fdad38dbbc9a/contrato-495796837.pdf?expires_on=1648599372&amp;signature=vFo5mPtwg1Zox%2FKhorV6lpT9%2B9NGMEczNrdDJLStYCw%3D"]</t>
         </is>
       </c>
       <c r="BD347" t="inlineStr"/>
@@ -70770,7 +70770,7 @@
       <c r="BB348" t="inlineStr"/>
       <c r="BC348" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/13ad6059-3657-4255-bdd0-5a1632b79da7/contrato-496195905.pdf?expires_on=1648559550&amp;signature=%2Bahwxuh5Vxwjtf7EsnpeyivfNQDVb4w0%2F0FirK2I6aA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/13ad6059-3657-4255-bdd0-5a1632b79da7/contrato-496195905.pdf?expires_on=1648599372&amp;signature=EV3BrQL%2FphzcWpGNt%2B0lzj8vkEc6luG%2B1mFchpyPdwk%3D"]</t>
         </is>
       </c>
       <c r="BD348" t="inlineStr"/>

--- a/files/bdPropriedades.xlsx
+++ b/files/bdPropriedades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG348"/>
+  <dimension ref="A1:BG350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="BC158" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/ABC?expires_on=1648599368&amp;signature=loMvMFMdLHnRARUvS8yZOqao5q%2BkL9joPZgfnWe3i4c%3D", "https://app-storage-service.pipefy.com/v1/signed/ABCDE?expires_on=1648599368&amp;signature=%2Ba9fyn5YqmKCdaVpFq%2BjBvwNJtAkS5BjSIg5LtdXoUs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/ABC?expires_on=1648651956&amp;signature=HdTHa6dAMsQ0x8lSgZGh%2FIpTdHMpsXMRuQsjeXzzrFY%3D", "https://app-storage-service.pipefy.com/v1/signed/ABCDE?expires_on=1648651956&amp;signature=4EJTHj9SoEtbfiLyTjXKECAvlTax9Kw7YKQGLlqCGGA%3D"]</t>
         </is>
       </c>
       <c r="BD158" t="inlineStr"/>
@@ -27736,7 +27736,7 @@
       </c>
       <c r="BC165" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/942fbdb8-4a78-4eaa-bc3a-b672778dc32a/ContratodePrestaodeServios-FernandaGntherRamos.docx-Clicksign.pdf?expires_on=1648599368&amp;signature=4Ie2bW9awqpQbstk5QIyCvJjrLzAYZqkqGaVUmbuNH4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/942fbdb8-4a78-4eaa-bc3a-b672778dc32a/ContratodePrestaodeServios-FernandaGntherRamos.docx-Clicksign.pdf?expires_on=1648651956&amp;signature=QYSratUKwc3e0J1BxNlsA7vUNF1smw%2BbLpxX1snNiQs%3D"]</t>
         </is>
       </c>
       <c r="BD165" t="inlineStr">
@@ -27880,7 +27880,7 @@
       <c r="BB166" t="inlineStr"/>
       <c r="BC166" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/b061a5be-d1e8-46ad-af97-43cf33016a73/137b5472-bca7-4d3e-b7b1-5c7875bd1016.pdf?expires_on=1648599368&amp;signature=eGtAvyCxExLwm13%2BrvyTo7yBetkCjmeJqEeDsZUltXA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/b061a5be-d1e8-46ad-af97-43cf33016a73/137b5472-bca7-4d3e-b7b1-5c7875bd1016.pdf?expires_on=1648651956&amp;signature=XI%2BNXc6RCGP6eBiAaVZX7hsKpCec0o%2BQqu95Hjg2LB8%3D"]</t>
         </is>
       </c>
       <c r="BD166" t="inlineStr"/>
@@ -28139,7 +28139,7 @@
       </c>
       <c r="BC167" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6e707ef8-7dca-4af6-b576-b5708dbe35f2/contrato-425891064.pdf%3Fexpires_on%3D1623440918%26signature%3DH%252B7vFkDAMFrCkFxxnfe3iZhJuDjE6Ji9ayX0IW7wqWg%253D?expires_on=1648599368&amp;signature=2TTB%2BJPQ2NB%2BKO9tE%2Fq%2FfLknfwf4HxAKQlRBRnSdAxk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6e707ef8-7dca-4af6-b576-b5708dbe35f2/contrato-425891064.pdf%3Fexpires_on%3D1623440918%26signature%3DH%252B7vFkDAMFrCkFxxnfe3iZhJuDjE6Ji9ayX0IW7wqWg%253D?expires_on=1648651956&amp;signature=g0Kb3LtCEgfu44jDiAmMESz7uiBgdaQfsADlvwad4zY%3D"]</t>
         </is>
       </c>
       <c r="BD167" t="inlineStr">
@@ -28390,7 +28390,7 @@
       </c>
       <c r="BC168" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7463fe03-ae0a-49dc-a080-7fc81e3e1006/contrato-427292869.pdf%3Fexpires_on%3D1623960718%26signature%3Dcej2yiGIlavCGx%252Br35mL%252B%252FVGRlWpxUigua3OGSKjjZE%253D?expires_on=1648599368&amp;signature=FeGpaU1eoX%2Bq2iwbRHNnJkWnjISxNy%2BKZ5upAZKk2xM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7463fe03-ae0a-49dc-a080-7fc81e3e1006/contrato-427292869.pdf%3Fexpires_on%3D1623960718%26signature%3Dcej2yiGIlavCGx%252Br35mL%252B%252FVGRlWpxUigua3OGSKjjZE%253D?expires_on=1648651956&amp;signature=k3AInKTXwl0PqhEbYA4sqYxQptMnT7F8gIsyMzpRhmQ%3D"]</t>
         </is>
       </c>
       <c r="BD168" t="inlineStr">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="BC169" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2d1ab0da-2b53-4bd9-94b7-c6cc404689eb/contrato-429090864.pdf%3Fexpires_on%3D1624889479%26signature%3Dldz84sarHfUeXn4JANpNsV1OClSz7p3wOQuqPXKR04s%253D?expires_on=1648599368&amp;signature=pchOsUQxN%2BPBc%2BrW0NTQ7cOcKKMgXPxTcdKZs80Ih1M%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2d1ab0da-2b53-4bd9-94b7-c6cc404689eb/contrato-429090864.pdf%3Fexpires_on%3D1624889479%26signature%3Dldz84sarHfUeXn4JANpNsV1OClSz7p3wOQuqPXKR04s%253D?expires_on=1648651956&amp;signature=ila23zJWvmV%2FvwWvmIcckdp0dwPuTS6FgF7P7O1%2Fs0E%3D"]</t>
         </is>
       </c>
       <c r="BD169" t="inlineStr">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="BC170" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe7fd7ac-b7b0-4234-976c-06a099d57e66/contrato-429948126.pdf%3Fexpires_on%3D1625255326%26signature%3DxJw9VGgJ%252B2ZCQa5hryj6yKghV5%252F2SK1kJmopwqyWxiI%253D?expires_on=1648599368&amp;signature=IYILD%2FI15jDoXly9P27s1CETRau6m8z%2FoSL1xN5tejc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe7fd7ac-b7b0-4234-976c-06a099d57e66/contrato-429948126.pdf%3Fexpires_on%3D1625255326%26signature%3DxJw9VGgJ%252B2ZCQa5hryj6yKghV5%252F2SK1kJmopwqyWxiI%253D?expires_on=1648651956&amp;signature=yWZJG4i9zK3GVQ6TRn5gxEqEYGlJXui8Rho19Rbdr%2Fo%3D"]</t>
         </is>
       </c>
       <c r="BD170" t="inlineStr"/>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="BC171" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5fb8a3a0-9b8a-493a-84b4-c584645633be/contrato-427900081.pdf%3Fexpires_on%3D1625765431%26signature%3DdDNYpd8xXNK9k6sTH%252B5Vf61abvFBWQyEogRVXyWEF38%253D?expires_on=1648599368&amp;signature=R0G%2FSoKRXP4WTarUCv11mpZdD8OONY83jrQut4e44Zo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5fb8a3a0-9b8a-493a-84b4-c584645633be/contrato-427900081.pdf%3Fexpires_on%3D1625765431%26signature%3DdDNYpd8xXNK9k6sTH%252B5Vf61abvFBWQyEogRVXyWEF38%253D?expires_on=1648651956&amp;signature=%2BqDwr3L8tcU1CfphQ33BJLmt0c32gCd6F8lcRaIChq4%3D"]</t>
         </is>
       </c>
       <c r="BD171" t="inlineStr"/>
@@ -29402,7 +29402,7 @@
       </c>
       <c r="BC172" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/af097ee8-0fcc-48c3-9c72-fc4e59e6e4dd/contrato-432148485.pdf%3Fexpires_on%3D1626287144%26signature%3DjBXlVDH%252Fmh1YkeFRx%252BiO5ruKohAY72xxgMoE2xZE1Wo%253D?expires_on=1648599368&amp;signature=4Xz0suQZXU%2BRGJt%2Fh7W891h9TO4CWPaVDvnKW%2BDo6Bg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/af097ee8-0fcc-48c3-9c72-fc4e59e6e4dd/contrato-432148485.pdf%3Fexpires_on%3D1626287144%26signature%3DjBXlVDH%252Fmh1YkeFRx%252BiO5ruKohAY72xxgMoE2xZE1Wo%253D?expires_on=1648651956&amp;signature=H70Hnozdbt%2F8iBfCnmjbFl5smkGbmzSSZpIlv4tw2CM%3D"]</t>
         </is>
       </c>
       <c r="BD172" t="inlineStr">
@@ -29645,7 +29645,7 @@
       </c>
       <c r="BC173" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/30abc82b-01aa-4c80-b09c-3417c8bcf5c6/contrato-427882033.pdf%3Fexpires_on%3D1625843728%26signature%3DWunisUkxaFmldxCGSe1qYUsXgLxvmaQqX92dcxV0v6U%253D?expires_on=1648599368&amp;signature=8g3PRPObRap8CAiDfPwfbwKcXfjk3WVVMlxziJPd%2BPM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/30abc82b-01aa-4c80-b09c-3417c8bcf5c6/contrato-427882033.pdf%3Fexpires_on%3D1625843728%26signature%3DWunisUkxaFmldxCGSe1qYUsXgLxvmaQqX92dcxV0v6U%253D?expires_on=1648651956&amp;signature=Zy93eMUPYnlHEKjeuCc6%2BL5enSIBHo%2Fy%2FjEFrDIRTvo%3D"]</t>
         </is>
       </c>
       <c r="BD173" t="inlineStr"/>
@@ -29938,7 +29938,7 @@
       </c>
       <c r="BC174" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5147bb95-e4e2-40b7-a231-9ce07b7e9eb2/ContratodePrestaodeServios-SimaraNienktterDeVincenzi.docx-Clicksign.pdf?expires_on=1648599368&amp;signature=4IJViRqOl0Lzd5R80KGvxIM0nuunRFlV2CtmiHfcrHs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5147bb95-e4e2-40b7-a231-9ce07b7e9eb2/ContratodePrestaodeServios-SimaraNienktterDeVincenzi.docx-Clicksign.pdf?expires_on=1648651956&amp;signature=E4foCz7YfPYPp0RfmUhFRhWhWUz1C%2BhJD9NrPkXn4DY%3D"]</t>
         </is>
       </c>
       <c r="BD174" t="inlineStr">
@@ -30190,7 +30190,7 @@
       </c>
       <c r="BC175" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcbf1b01-f9cc-40dd-aa45-3d0db4f114c0/contrato-434036046.pdf%3Fexpires_on%3D1627137690%26signature%3DGwEpmsayu1pxiiZsYfPw7QnthQ1n2Ma51QUGqr9RdBE%253D?expires_on=1648599368&amp;signature=nS0hJVrROxba5qY3dQamasBl8e0T9iYn9H3dsQ97IPY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcbf1b01-f9cc-40dd-aa45-3d0db4f114c0/contrato-434036046.pdf%3Fexpires_on%3D1627137690%26signature%3DGwEpmsayu1pxiiZsYfPw7QnthQ1n2Ma51QUGqr9RdBE%253D?expires_on=1648651956&amp;signature=Ed3lnlk%2FwQ%2B4FssJAYKqweguCNqVW6WvKakGYKUdm9A%3D"]</t>
         </is>
       </c>
       <c r="BD175" t="inlineStr">
@@ -30437,7 +30437,7 @@
       </c>
       <c r="BC176" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/56f554bd-1778-4f13-9495-4f6815681e8c/contrato-434347806.pdf%3Fexpires_on%3D1627584670%26signature%3Da0WChkMJKoLURnVR9sdzC0kh9gdvBeWirdlqzivbRW8%253D?expires_on=1648599368&amp;signature=EosYw7u6Qp1%2F8cAs3QM%2B9EH04s0nwJNx5fyFc15BNM0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/56f554bd-1778-4f13-9495-4f6815681e8c/contrato-434347806.pdf%3Fexpires_on%3D1627584670%26signature%3Da0WChkMJKoLURnVR9sdzC0kh9gdvBeWirdlqzivbRW8%253D?expires_on=1648651956&amp;signature=%2Fgqo4gCoNJKFPtQ%2BdLUwWtsuStCQWwXxAldqeJE%2FIfo%3D"]</t>
         </is>
       </c>
       <c r="BD176" t="inlineStr">
@@ -30592,7 +30592,7 @@
       <c r="BB177" t="inlineStr"/>
       <c r="BC177" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dd480bd1-24df-47c1-8362-f6d01dc13878/contrato-431619440.pdf%3Fexpires_on%3D1626806287%26signature%3DX%252BQo2ROzmN1g11xdVnjwNzA9AO8So6FNK63W3LSVFRk%253D?expires_on=1648599368&amp;signature=kBuGibF44yry0FMQUEtYzISLbSrciRTH6r44wq0wINo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dd480bd1-24df-47c1-8362-f6d01dc13878/contrato-431619440.pdf%3Fexpires_on%3D1626806287%26signature%3DX%252BQo2ROzmN1g11xdVnjwNzA9AO8So6FNK63W3LSVFRk%253D?expires_on=1648651956&amp;signature=MdAHsxVAt0HbsUBv9EQaWSNllAU2biTumEfHFrWkels%3D"]</t>
         </is>
       </c>
       <c r="BD177" t="inlineStr"/>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="BC178" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c059f4c0-df75-4770-9787-1a7b51acd3d6/contrato-429083283.pdf%3Fexpires_on%3D1624900895%26signature%3DYV5mzzGOKZVF6rsAxzjjCexGrpZOTEIr7P5aufh42KA%253D?expires_on=1648599368&amp;signature=8NsrD2%2F3LhlB6jQRIRrtIuuC3faiucdWhy2l%2BFveKtU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c059f4c0-df75-4770-9787-1a7b51acd3d6/contrato-429083283.pdf%3Fexpires_on%3D1624900895%26signature%3DYV5mzzGOKZVF6rsAxzjjCexGrpZOTEIr7P5aufh42KA%253D?expires_on=1648651956&amp;signature=nTWOCuDY1OVm0%2Fah8RMlVhIkbWJKy0c6DMLZ319TDMQ%3D"]</t>
         </is>
       </c>
       <c r="BD178" t="inlineStr">
@@ -31067,7 +31067,7 @@
       </c>
       <c r="BC179" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/91627539-8586-440f-b672-b7e9ff622c0c/contrato-434769973.pdf%3Fexpires_on%3D1627498777%26signature%3DijkPOWC4AUifANru83whyxhdbyzoiBEOt81CfvEywB4%253D?expires_on=1648599368&amp;signature=6YhEBDi01hlY3ae1z%2BiHvLR7pcLHqp8JJJkLu7qNp8o%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/91627539-8586-440f-b672-b7e9ff622c0c/contrato-434769973.pdf%3Fexpires_on%3D1627498777%26signature%3DijkPOWC4AUifANru83whyxhdbyzoiBEOt81CfvEywB4%253D?expires_on=1648651956&amp;signature=6mNZY3f4JVhKiely6fTuddWKXdwsylntKi%2BkKej6%2B7Q%3D"]</t>
         </is>
       </c>
       <c r="BD179" t="inlineStr"/>
@@ -31282,7 +31282,7 @@
       </c>
       <c r="BC180" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/7b2af0b1-8da1-496d-85fa-d8e9e54839bb/contratoassinado-lucianaborgesdeandrade.pdf?expires_on=1648599368&amp;signature=rxGDBO5xeoiFo%2BK4amK%2FWOAr1g8csAql4QlKrw4f84c%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/7b2af0b1-8da1-496d-85fa-d8e9e54839bb/contratoassinado-lucianaborgesdeandrade.pdf?expires_on=1648651956&amp;signature=icC6GK877U%2Bgd2sx1ngisDw5uXWLcWUnqhIl5BRZIsE%3D"]</t>
         </is>
       </c>
       <c r="BD180" t="inlineStr">
@@ -31573,7 +31573,7 @@
       </c>
       <c r="BC181" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d54f227-d57d-4a8a-a3a0-2e960779f2c8/contrato-435529658.pdf?expires_on=1648599368&amp;signature=ECTONT2FGMQikiRLdQ2J1G5xUgyCE2smrkXnXF8055Q%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d54f227-d57d-4a8a-a3a0-2e960779f2c8/contrato-435529658.pdf?expires_on=1648651956&amp;signature=%2FsLmTlTW8DK%2Fj%2Bquuyd53Og5dnTzQi%2BGzyg72FaDRIM%3D"]</t>
         </is>
       </c>
       <c r="BD181" t="inlineStr">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="BC182" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b9e771c-b6dd-463d-8053-96db50e18e18/contrato-437964316.pdf?expires_on=1648599368&amp;signature=pzP9rmxTP38SKAGUoVtI4VT%2FzJHVRDtJLrKexXmjWOk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b9e771c-b6dd-463d-8053-96db50e18e18/contrato-437964316.pdf?expires_on=1648651956&amp;signature=5z%2F5R4teFKvqTgWEc%2FPnSSLL9yi9HCaP5SCHi3IMzSM%3D"]</t>
         </is>
       </c>
       <c r="BD182" t="inlineStr">
@@ -32082,7 +32082,7 @@
       </c>
       <c r="BC183" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/66dadf4f-05a0-4bf9-a2b8-b76509a7ef6f/contrato-439522222.pdf?expires_on=1648599368&amp;signature=Bc0RtlQCQkP6slK2sPG2qb41L3b8u2WgueFvwlm3HOc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/66dadf4f-05a0-4bf9-a2b8-b76509a7ef6f/contrato-439522222.pdf?expires_on=1648651956&amp;signature=Ucx1Vevbwc9PZQq2KEHbQuFT0aUupjOVC2X61rhxAFM%3D"]</t>
         </is>
       </c>
       <c r="BD183" t="inlineStr">
@@ -32326,7 +32326,7 @@
       </c>
       <c r="BC184" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1489b03e-8800-48fd-b40d-c7742f01c5a0/contrato-437920461.pdf?expires_on=1648599368&amp;signature=luGcmas1R61stTiDIiLybPxIG8HMc0tbqhKJLXjdK70%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1489b03e-8800-48fd-b40d-c7742f01c5a0/contrato-437920461.pdf?expires_on=1648651956&amp;signature=pBcLsiStVds5NXy0ZR43%2BXqNVTJ4xulCqbwhPmPYTN4%3D"]</t>
         </is>
       </c>
       <c r="BD184" t="inlineStr">
@@ -32805,7 +32805,7 @@
       </c>
       <c r="BC186" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/cf81d109-c1d8-4a70-8083-1c9d2bf5fe38/e44f54b2-392f-42dc-801b-acde1c0429ac.pdf?expires_on=1648599368&amp;signature=wnjipMUQZfrzkU4J%2BwM9RHz6XNagH5mf%2Fy0zo5p8EiU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/cf81d109-c1d8-4a70-8083-1c9d2bf5fe38/e44f54b2-392f-42dc-801b-acde1c0429ac.pdf?expires_on=1648651956&amp;signature=46GI6EW6dmU95dy%2BQ5WmycYlahMS35RXV0T8lSuEP2Q%3D"]</t>
         </is>
       </c>
       <c r="BD186" t="inlineStr">
@@ -33073,7 +33073,7 @@
       </c>
       <c r="BC187" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ec6e75ec-6fc2-4bb8-8a48-67e8bff5a3b0/contrato-441094756.pdf?expires_on=1648599368&amp;signature=dcr6%2B60xfSNzIs%2BXMOaTotnoe%2FtP%2F40I2Y2UDGNMrgc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ec6e75ec-6fc2-4bb8-8a48-67e8bff5a3b0/contrato-441094756.pdf?expires_on=1648651956&amp;signature=RQhkIsukdwDmVOOClCNeBs8V26iU4fSjz9xXZHRu4W4%3D"]</t>
         </is>
       </c>
       <c r="BD187" t="inlineStr">
@@ -33352,7 +33352,7 @@
       </c>
       <c r="BC188" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/6b680cd9-f9cb-480d-b832-ec82db539fd2/2021-08-1916.24.36.pdf?expires_on=1648599368&amp;signature=dPV6Dq2gjGvzuchcxO1UXfCCwq%2FQ9AhyA0oG0od%2Bq38%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/6b680cd9-f9cb-480d-b832-ec82db539fd2/2021-08-1916.24.36.pdf?expires_on=1648651956&amp;signature=MVUq%2FFLHTWScZ2UdT37709WEHZQcft68rAQKPa7xBhc%3D"]</t>
         </is>
       </c>
       <c r="BD188" t="inlineStr">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="BC189" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe3b7b54-c5c7-4049-bae3-82911668f608/contrato-439559244.pdf?expires_on=1648599368&amp;signature=nmWqnRvzLPvDDda7iBL%2BFf%2Bp1X6tfHfLck3NSzJCtio%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fe3b7b54-c5c7-4049-bae3-82911668f608/contrato-439559244.pdf?expires_on=1648651956&amp;signature=M1605LTpkKivnXDlFlvWWrjiDSM0tGg1Opxfu7vF7fY%3D"]</t>
         </is>
       </c>
       <c r="BD189" t="inlineStr">
@@ -33852,7 +33852,7 @@
       <c r="BB190" t="inlineStr"/>
       <c r="BC190" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81869067-48c9-4988-a646-2002e1d9f879/contrato-439323822.pdf?expires_on=1648599368&amp;signature=dz6Fgd2vjY%2FB%2F0hxW5q2d3%2FpAchONSsU7QBnjyjTA5M%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81869067-48c9-4988-a646-2002e1d9f879/contrato-439323822.pdf?expires_on=1648651956&amp;signature=M%2BJeRUf0h5R6Z81derERpOkJPTZvM99S4BcYldsfY%2BY%3D"]</t>
         </is>
       </c>
       <c r="BD190" t="inlineStr"/>
@@ -34105,7 +34105,7 @@
       </c>
       <c r="BC191" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/83097272-bb98-4fab-8e6c-5171b917b7bc/contrato-442349549.pdf?expires_on=1648599368&amp;signature=cHkN79LlW7u00vnFmi9pc7NicXyIDO9dLDiyEiK%2BqgM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/83097272-bb98-4fab-8e6c-5171b917b7bc/contrato-442349549.pdf?expires_on=1648651956&amp;signature=kE956ZWE3P1oYJ0jpcuNCe9nOXq6oYuy4%2BgMcsyaF8A%3D"]</t>
         </is>
       </c>
       <c r="BD191" t="inlineStr">
@@ -34342,7 +34342,7 @@
       </c>
       <c r="BC192" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d6f47531-1ce2-4669-b6ec-210062c71ae6/contrato-442351375.pdf?expires_on=1648599368&amp;signature=35kGZuzlcFqGbN%2FlBJTGK4X2v8BrlgwN5ZHP5Fam6mo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d6f47531-1ce2-4669-b6ec-210062c71ae6/contrato-442351375.pdf?expires_on=1648651956&amp;signature=eZeZM5FQFnCoA779rIp3r7Gsza6MaaQ1Iw%2FZ2e5HeUo%3D"]</t>
         </is>
       </c>
       <c r="BD192" t="inlineStr"/>
@@ -34601,7 +34601,7 @@
       </c>
       <c r="BC193" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/718c3f16-e707-47f7-b7b8-adf73ef7d849/2d36fee3-29d8-40df-9573-ecbc71c32e64.pdf?expires_on=1648599368&amp;signature=sEJ%2Bumlcmet5w5v3O5qAXu0UfdZnyTdY%2FecakNRYf9c%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/718c3f16-e707-47f7-b7b8-adf73ef7d849/2d36fee3-29d8-40df-9573-ecbc71c32e64.pdf?expires_on=1648651956&amp;signature=sMIEZcSir5%2FnyxcUuqFJroZkslFZD98Sqc%2B54kZ9ibM%3D"]</t>
         </is>
       </c>
       <c r="BD193" t="inlineStr">
@@ -34865,7 +34865,7 @@
       </c>
       <c r="BC194" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/2ff5167b-01a9-4a8e-aee5-bcdc9a653493/acdd05cd-b3c7-4cc7-8869-b4c0e537e0e5janice.pdf?expires_on=1648599368&amp;signature=3HvspteBllTsM6j8h9Wb4Yyos54sHAQGEk%2FV7FExZ58%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/2ff5167b-01a9-4a8e-aee5-bcdc9a653493/acdd05cd-b3c7-4cc7-8869-b4c0e537e0e5janice.pdf?expires_on=1648651956&amp;signature=3v9hzhTgxM444zQ252VqOp0QIV1BiR%2Fne8lTE9PKKvc%3D"]</t>
         </is>
       </c>
       <c r="BD194" t="inlineStr">
@@ -35151,7 +35151,7 @@
       </c>
       <c r="BC195" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6975acfc-3be1-44c9-a5e4-eeea40e17af4/contrato-444677776.pdf?expires_on=1648599368&amp;signature=b8jYhWNDYZlQt2YmWUXUAoqt5QAYYDMR3nZYm8M4tio%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6975acfc-3be1-44c9-a5e4-eeea40e17af4/contrato-444677776.pdf?expires_on=1648651956&amp;signature=D7cvFzGGDm%2F4KZUBX7EIWUQVJoP5ahSOMGtb2%2Flfz9w%3D"]</t>
         </is>
       </c>
       <c r="BD195" t="inlineStr">
@@ -35302,7 +35302,7 @@
       <c r="BB196" t="inlineStr"/>
       <c r="BC196" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0d54ecd7-4899-4b35-9678-2b69417a43a8/8cafda5f-92c7-4f67-822f-93419ae54358geraldo.pdf?expires_on=1648599368&amp;signature=%2F3K9LruLNLSmQEgPrFyc7ft2xV4PzPFXzUwNDH8KaNg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0d54ecd7-4899-4b35-9678-2b69417a43a8/8cafda5f-92c7-4f67-822f-93419ae54358geraldo.pdf?expires_on=1648651956&amp;signature=LK4%2FDCFQD7O3TUxiLY%2B4w7Nuyg4qALDLNpbEb2hg1Kk%3D"]</t>
         </is>
       </c>
       <c r="BD196" t="inlineStr"/>
@@ -35449,7 +35449,7 @@
       <c r="BB197" t="inlineStr"/>
       <c r="BC197" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b989e586-52a1-4d30-9970-23ba445ce0ad/contrato-446146720.pdf?expires_on=1648599368&amp;signature=IdgPN8kMEN1ImnS4G9P6sZb1BO%2BKKLRZ70yomG8MV4Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b989e586-52a1-4d30-9970-23ba445ce0ad/contrato-446146720.pdf?expires_on=1648651956&amp;signature=Usp40sN9K2HlspOMMV7vaZ3XBvf5zN4RMvHrxQrAvEc%3D"]</t>
         </is>
       </c>
       <c r="BD197" t="inlineStr"/>
@@ -35711,7 +35711,7 @@
       </c>
       <c r="BC198" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648599368&amp;signature=di%2FWsK5SEiiuHTqA%2BTApZwaztHPmNRlJcBQLH3EVJf8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648651956&amp;signature=PP1VLKQbkLhK5z814CpW3a3IzgRXaeCbU6JAIQAjkoc%3D"]</t>
         </is>
       </c>
       <c r="BD198" t="inlineStr">
@@ -35960,7 +35960,7 @@
       </c>
       <c r="BC199" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648599368&amp;signature=di%2FWsK5SEiiuHTqA%2BTApZwaztHPmNRlJcBQLH3EVJf8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/038f848c-d351-41f4-86a8-1567dc487972/contrato-442103714.pdf?expires_on=1648651956&amp;signature=PP1VLKQbkLhK5z814CpW3a3IzgRXaeCbU6JAIQAjkoc%3D"]</t>
         </is>
       </c>
       <c r="BD199" t="inlineStr">
@@ -36228,7 +36228,7 @@
       </c>
       <c r="BC200" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9e4b6be5-e3f9-49ba-ab05-103919b8c104/contrato-446643171.pdf?expires_on=1648599368&amp;signature=lFsdXIgG3DkMNgaqafqKXkflmJwErnjTA8dk1UWhWu4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9e4b6be5-e3f9-49ba-ab05-103919b8c104/contrato-446643171.pdf?expires_on=1648651956&amp;signature=aFlLcpe7nX3aGZ9a96p653hBifDS91okyPukzOo1QlQ%3D"]</t>
         </is>
       </c>
       <c r="BD200" t="inlineStr">
@@ -36520,7 +36520,7 @@
       </c>
       <c r="BC201" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/d37b0cc9-87d9-4abf-92ef-aa19b5feefa5/2436003b-297f-4c3d-9ed4-c941874c27aa.pdf?expires_on=1648599368&amp;signature=IJKpFXMPjd4xjTwRIKn9KPT5kPveiPQ6y9NgBHTDg0I%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/d37b0cc9-87d9-4abf-92ef-aa19b5feefa5/2436003b-297f-4c3d-9ed4-c941874c27aa.pdf?expires_on=1648651956&amp;signature=THxUWJ7QHjg%2FAF%2BZyMOILExsVMP2DlRoj7HLWQPAjYU%3D"]</t>
         </is>
       </c>
       <c r="BD201" t="inlineStr">
@@ -36675,7 +36675,7 @@
       <c r="BB202" t="inlineStr"/>
       <c r="BC202" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8f79ebec-7a55-4ae1-9cc0-d0c89818cd27/contrato-447777761.pdf?expires_on=1648599369&amp;signature=yRsnEYxOab0Txw3A4ANrKzyTmNwjmcDcBlL3x%2Fyv9Yo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8f79ebec-7a55-4ae1-9cc0-d0c89818cd27/contrato-447777761.pdf?expires_on=1648651958&amp;signature=siHQGur0017aD17qObU1Mblkg516EjoSH4B1fHiOFmw%3D"]</t>
         </is>
       </c>
       <c r="BD202" t="inlineStr"/>
@@ -36952,7 +36952,7 @@
       </c>
       <c r="BC203" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6cc22b94-946a-4d03-be66-61a857bf8992/contrato-446865281.pdf?expires_on=1648599369&amp;signature=IUUv4rcyp9gttN5QaEqEgQfLL2LpvTsZXDb6tzkcYqk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6cc22b94-946a-4d03-be66-61a857bf8992/contrato-446865281.pdf?expires_on=1648651958&amp;signature=Rk5V3PrzMrqLqFu%2FNnRNiHd8kPMWOSkt0TSBzA%2FXI4w%3D"]</t>
         </is>
       </c>
       <c r="BD203" t="inlineStr">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="BC204" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fc0b1db7-3d03-42ee-8848-caa5f3d8f78e/contrato-448445335.pdf?expires_on=1648599369&amp;signature=GfzeCodlLvepOVUfu%2FxWjrf39GBuV8Rs%2BUhV4z52M6A%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fc0b1db7-3d03-42ee-8848-caa5f3d8f78e/contrato-448445335.pdf?expires_on=1648651958&amp;signature=nTlSgMoMMxInH0Q%2BO8lQWvnftgOn5pfjk65PhdwO%2BFM%3D"]</t>
         </is>
       </c>
       <c r="BD204" t="inlineStr">
@@ -37482,7 +37482,7 @@
       </c>
       <c r="BC205" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b70de362-7734-4f1d-a397-2a0361104da4/contrato-447779663.pdf?expires_on=1648599369&amp;signature=0jUcFvXNZAMcL56G4P6mATfXEMwUTYTjELuUszB0XlM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b70de362-7734-4f1d-a397-2a0361104da4/contrato-447779663.pdf?expires_on=1648651958&amp;signature=awaR%2FvfIhw%2B6zKv%2FKvFFWyg8pLb%2B1dwpenf2nRvcegc%3D"]</t>
         </is>
       </c>
       <c r="BD205" t="inlineStr">
@@ -37638,7 +37638,7 @@
       <c r="BB206" t="inlineStr"/>
       <c r="BC206" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bc14413-62ec-4bc0-a8f4-031faa544a3e/contrato-446133701.pdf?expires_on=1648599369&amp;signature=DuNCqOSlJDRI%2Bi9%2BHr9KPCUCSqtl%2BWY838zm0VJhVmg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bc14413-62ec-4bc0-a8f4-031faa544a3e/contrato-446133701.pdf?expires_on=1648651958&amp;signature=DScBL5LVb5IX0D1LcilQTG6UbLMif0ZmtfP6%2FwTwZB4%3D"]</t>
         </is>
       </c>
       <c r="BD206" t="inlineStr"/>
@@ -37785,7 +37785,7 @@
       <c r="BB207" t="inlineStr"/>
       <c r="BC207" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a077aec9-8235-4ef6-8ecb-537af75da48b/contrato-441118408.pdf?expires_on=1648599369&amp;signature=WiQhfI6EGPyELuoen2NMTjHOq2%2BRbhLVe066QuAfDk4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a077aec9-8235-4ef6-8ecb-537af75da48b/contrato-441118408.pdf?expires_on=1648651958&amp;signature=7zmEEs%2FvUxrHHtknDLxpg89pPZqrkEQwfSAKjHSjHmI%3D"]</t>
         </is>
       </c>
       <c r="BD207" t="inlineStr"/>
@@ -37966,7 +37966,7 @@
       <c r="BB208" t="inlineStr"/>
       <c r="BC208" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5c0c686e-ff96-43a6-a841-21aef60bfa30/contrato-446754860.pdf?expires_on=1648599369&amp;signature=HOrt0aKNMiAiq6edQqSch0ihhMZVNvhOgAXbeaMrxS8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5c0c686e-ff96-43a6-a841-21aef60bfa30/contrato-446754860.pdf?expires_on=1648651958&amp;signature=XE0tDO84yNSv1K1V0bTkgGR2%2Ft2H9XGuoQmITzbRVko%3D"]</t>
         </is>
       </c>
       <c r="BD208" t="inlineStr"/>
@@ -38225,7 +38225,7 @@
       </c>
       <c r="BC209" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b77695b7-4570-41eb-bce8-b67a6c0f5ff9/contrato-444562882.pdf?expires_on=1648599369&amp;signature=EOL5Uiy9JFff0ZYsf8QgelW7BivgTkzg6vWaxQh%2BzSk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b77695b7-4570-41eb-bce8-b67a6c0f5ff9/contrato-444562882.pdf?expires_on=1648651958&amp;signature=3zl5SFthXlG%2FbQEdmR75YsscxBNSA2G0jorKsilOiOY%3D"]</t>
         </is>
       </c>
       <c r="BD209" t="inlineStr"/>
@@ -38483,7 +38483,7 @@
       </c>
       <c r="BC210" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7165e0a7-3a5c-4e06-828a-b0bd079fc127/contrato-445939306.pdf?expires_on=1648599369&amp;signature=%2BtNxTcZ0TSKuGHE9nH9uIXVpA6JPSt%2Ba%2B47gxIwL9T8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7165e0a7-3a5c-4e06-828a-b0bd079fc127/contrato-445939306.pdf?expires_on=1648651958&amp;signature=gN6rZU4wMyxeZAjSAD8c0wqlV%2Bv9A%2FGBwF1Ml2JNshw%3D"]</t>
         </is>
       </c>
       <c r="BD210" t="inlineStr">
@@ -38752,7 +38752,7 @@
       </c>
       <c r="BC211" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8a45ff63-35ea-4b5e-9e27-eb256576338b/ContratodePrestaodeServios-DanielGarianiRafael.docx-Clicksign.pdf?expires_on=1648599369&amp;signature=AKG4%2BhdJ2zAHRqKEfaziEJRThE2uqZZ05sQkQXzfzG4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8a45ff63-35ea-4b5e-9e27-eb256576338b/ContratodePrestaodeServios-DanielGarianiRafael.docx-Clicksign.pdf?expires_on=1648651958&amp;signature=%2BgEDZC5NySZBVgyJGlmsGckfzFc1Q9D6HsZDwZ%2FKsEY%3D"]</t>
         </is>
       </c>
       <c r="BD211" t="inlineStr">
@@ -39024,7 +39024,7 @@
       </c>
       <c r="BC212" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9928454b-930a-4480-81f9-e403ac3fe938/contrato-450684529.pdf?expires_on=1648599369&amp;signature=DN2XjRX2jrBj70Z7qVbWVJUFSN5vSldX21%2BesMN2pd8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9928454b-930a-4480-81f9-e403ac3fe938/contrato-450684529.pdf?expires_on=1648651958&amp;signature=G%2BxyR2KHs%2FcG4p23uy2jOKPJqljYi0jyCpMmIH0q51I%3D"]</t>
         </is>
       </c>
       <c r="BD212" t="inlineStr">
@@ -39275,7 +39275,7 @@
       </c>
       <c r="BC213" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c944f8e1-153d-446a-895d-5afce9c49e02/contrato-451523294.pdf?expires_on=1648599369&amp;signature=vQTFehWL6FYJNGSps7E21DVR0Did%2FNsi%2FMqKW%2F0E2cI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c944f8e1-153d-446a-895d-5afce9c49e02/contrato-451523294.pdf?expires_on=1648651958&amp;signature=4UtZm%2FV3banHXOx%2FHWYS%2F1%2B%2BGqY0yt%2BPAPYDadeZ250%3D"]</t>
         </is>
       </c>
       <c r="BD213" t="inlineStr">
@@ -39577,7 +39577,7 @@
       </c>
       <c r="BC214" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b396fc78-363f-4338-980a-d396622b530b/contrato-450058109.pdf?expires_on=1648599369&amp;signature=n3pYXekSNaw1bMTHkGtkez1tMhY1aXzU%2B%2F%2F6YdVUoLU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b396fc78-363f-4338-980a-d396622b530b/contrato-450058109.pdf?expires_on=1648651958&amp;signature=1fD7AwVqHQ%2FLpz3dbcAmgqH2yUUyXNnHH6LiOWEeHas%3D"]</t>
         </is>
       </c>
       <c r="BD214" t="inlineStr">
@@ -39766,7 +39766,7 @@
       <c r="BB215" t="inlineStr"/>
       <c r="BC215" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/75a6bd53-390b-41ce-ade3-9580a0265e85/contrato-453221872.pdf?expires_on=1648599369&amp;signature=B5iZVzz6CNMGWaXw%2Fi3EbxPJ4adseNy7mf5S6Wkvp1M%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/75a6bd53-390b-41ce-ade3-9580a0265e85/contrato-453221872.pdf?expires_on=1648651958&amp;signature=kKxVkl2qNBm3Bt6GX8P2rXWpwc%2B7Pc541ht4umglRxc%3D"]</t>
         </is>
       </c>
       <c r="BD215" t="inlineStr"/>
@@ -40012,7 +40012,7 @@
       </c>
       <c r="BC216" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/98a075d1-21ab-4257-9f27-2e2fa7a85431/contrato-450420793.pdf?expires_on=1648599369&amp;signature=OFNYC%2F30GYuImqzNVSkJg%2FqUkuPMWRrueqi5buLJA5M%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/98a075d1-21ab-4257-9f27-2e2fa7a85431/contrato-450420793.pdf?expires_on=1648651958&amp;signature=8ItKQDEYR0N0GAab5I5kQxjyFkp8xp0vwy209oHgUL8%3D"]</t>
         </is>
       </c>
       <c r="BD216" t="inlineStr">
@@ -40301,7 +40301,7 @@
       </c>
       <c r="BC217" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e95bb24d-d213-41d8-83fa-96f6be3b660d/contrato-455020368.pdf?expires_on=1648599369&amp;signature=1eYHFFPuKEFb8f4bUBwFW%2BX4UeAbRqP8Ll4AZEdC7ZQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e95bb24d-d213-41d8-83fa-96f6be3b660d/contrato-455020368.pdf?expires_on=1648651958&amp;signature=n7EGGKQATuhbxVe1RDnjWmp1LodSFzPbYpUq1Y85yuM%3D"]</t>
         </is>
       </c>
       <c r="BD217" t="inlineStr">
@@ -40542,7 +40542,7 @@
       </c>
       <c r="BC218" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648599369&amp;signature=e2eHFMrw92xFrrtCmal0DYerQWq3WR1NxjW5Vk74cow%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648651958&amp;signature=SzvBWauZZYtqf0aOFgYD0OfY2zhsJdks5q6USOrvc6Y%3D"]</t>
         </is>
       </c>
       <c r="BD218" t="inlineStr">
@@ -40789,7 +40789,7 @@
       </c>
       <c r="BC219" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648599369&amp;signature=e2eHFMrw92xFrrtCmal0DYerQWq3WR1NxjW5Vk74cow%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c0617f76-b57f-472b-af8b-f6825bd7ff69/contrato-451796001.pdf?expires_on=1648651958&amp;signature=SzvBWauZZYtqf0aOFgYD0OfY2zhsJdks5q6USOrvc6Y%3D"]</t>
         </is>
       </c>
       <c r="BD219" t="inlineStr">
@@ -41030,7 +41030,7 @@
       </c>
       <c r="BC220" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c78b388e-df0a-49f1-8cae-55c0da4cb325/contrato-448377680.pdf?expires_on=1648599369&amp;signature=cnhqY%2Ftx5Ry40AAY2tC9pVzG4opDQLlsUXNeQgcYKrs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/c78b388e-df0a-49f1-8cae-55c0da4cb325/contrato-448377680.pdf?expires_on=1648651958&amp;signature=Se5bLHyyzT4X9Gmg08vi4oGefdDbNQ2odi%2FZCur6fs8%3D"]</t>
         </is>
       </c>
       <c r="BD220" t="inlineStr">
@@ -41185,7 +41185,7 @@
       <c r="BB221" t="inlineStr"/>
       <c r="BC221" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a31ef21a-2886-4362-a57e-8dec8aa67875/contrato-451928712.pdf?expires_on=1648599369&amp;signature=kEi5shN2%2BQqqKZ6uTFScSokd8CajBNgOOM6rojYe0dI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a31ef21a-2886-4362-a57e-8dec8aa67875/contrato-451928712.pdf?expires_on=1648651958&amp;signature=cy%2BbHCsRda8IF3pWiq9V3h7LDZTi06klIdjvpIfBahc%3D"]</t>
         </is>
       </c>
       <c r="BD221" t="inlineStr"/>
@@ -41479,7 +41479,7 @@
       </c>
       <c r="BC222" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/591dfee3-277c-4bd2-bf21-1a634d75295b/contrato-455117055.pdf?expires_on=1648599369&amp;signature=J6h%2FivzcObusg2%2FwM8JLpwXP7iljcseSkz05AxSDm6c%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/591dfee3-277c-4bd2-bf21-1a634d75295b/contrato-455117055.pdf?expires_on=1648651958&amp;signature=txhxCr%2FeF2yOMk8QhC%2Bu1ENLEiXTxRI1UHIrSvIc4%2FM%3D"]</t>
         </is>
       </c>
       <c r="BD222" t="inlineStr">
@@ -41664,7 +41664,7 @@
       <c r="BB223" t="inlineStr"/>
       <c r="BC223" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7247f1f8-1bf0-48c8-874e-a234da5ff917/contrato-450598793.pdf?expires_on=1648599369&amp;signature=82%2FRufjPMHkVshXZ0655KB1KWro9i2seUieqifMbiZg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7247f1f8-1bf0-48c8-874e-a234da5ff917/contrato-450598793.pdf?expires_on=1648651958&amp;signature=24oUNcgdSKr0aDwr7RB0UqlvBwid3JpSrqFM7XfZus0%3D"]</t>
         </is>
       </c>
       <c r="BD223" t="inlineStr"/>
@@ -41807,7 +41807,7 @@
       <c r="BB224" t="inlineStr"/>
       <c r="BC224" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8ba42a2f-a3e7-48fc-8463-8dc8005ee13d/contrato-451875618.pdf?expires_on=1648599369&amp;signature=eK51JATxiwvJFh8MMvHgDhQ%2FVJgdCraC%2BMKrQQAmwcA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/8ba42a2f-a3e7-48fc-8463-8dc8005ee13d/contrato-451875618.pdf?expires_on=1648651958&amp;signature=1okinIOJKkq2zDDGyb5z0tmxrxqczpE1%2Ffn3Y9kXMA4%3D"]</t>
         </is>
       </c>
       <c r="BD224" t="inlineStr"/>
@@ -41950,7 +41950,7 @@
       <c r="BB225" t="inlineStr"/>
       <c r="BC225" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/c001b424-475c-40f1-ac48-34d2a1115d75/contrato-451875618.pdf?expires_on=1648599369&amp;signature=%2Bp%2Ba0mMbDEmj4v8v%2FsGLeFr4DmtmUdlOPdmHk23pmS0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/c001b424-475c-40f1-ac48-34d2a1115d75/contrato-451875618.pdf?expires_on=1648651958&amp;signature=ARhTYYNATXqaDqrq4MbO9PqB98JkFSaB4vDhUK8U%2BQE%3D"]</t>
         </is>
       </c>
       <c r="BD225" t="inlineStr"/>
@@ -42097,7 +42097,7 @@
       <c r="BB226" t="inlineStr"/>
       <c r="BC226" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648599369&amp;signature=V6%2FzmayjZLN%2FQI91gvAEze%2B6SBoRpuennHf491UlBkE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648651958&amp;signature=01w%2BeXIxLuFSmT30y9etorUhhRVPuaNFJ%2BL1zcNVpI0%3D"]</t>
         </is>
       </c>
       <c r="BD226" t="inlineStr"/>
@@ -42368,7 +42368,7 @@
       </c>
       <c r="BC227" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f5391715-b7a8-438a-a6f6-1089d33c05b1/contrato-455277052.pdf?expires_on=1648599369&amp;signature=ID9wCBiJIxnXyFLdqn3rUPAN%2FL2T01lA24aFauoSGqI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f5391715-b7a8-438a-a6f6-1089d33c05b1/contrato-455277052.pdf?expires_on=1648651958&amp;signature=Z8RWbaZYz5krW6OIQSVa3EOF%2BtezTK0AF7l3jfTW3ps%3D"]</t>
         </is>
       </c>
       <c r="BD227" t="inlineStr">
@@ -42523,7 +42523,7 @@
       <c r="BB228" t="inlineStr"/>
       <c r="BC228" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0dba00df-f1fd-456c-bb04-403503868603/contrato-455669766.pdf?expires_on=1648599369&amp;signature=R2gNer8QQ6CHWPtqbc0SMljqHsqIpGl8nIa%2FFOxZajI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0dba00df-f1fd-456c-bb04-403503868603/contrato-455669766.pdf?expires_on=1648651958&amp;signature=X5%2FZ3ElNTTiW2w6MW0ohYD0xxOewv86cl36oHqe2s7M%3D"]</t>
         </is>
       </c>
       <c r="BD228" t="inlineStr"/>
@@ -42670,7 +42670,7 @@
       <c r="BB229" t="inlineStr"/>
       <c r="BC229" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9a7c9638-6ee7-42d9-87d1-530453f85893/contrato-455274515.pdf?expires_on=1648599369&amp;signature=d5rubnz0ccIjUuM1Ogzz9QNnO%2FkTfjgVxVf%2BJgUfpuc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9a7c9638-6ee7-42d9-87d1-530453f85893/contrato-455274515.pdf?expires_on=1648651958&amp;signature=lFBoKxwJdjjC%2ByTO94q17n0YoutH%2BYaGl5%2FxlqTHb3s%3D"]</t>
         </is>
       </c>
       <c r="BD229" t="inlineStr"/>
@@ -42946,7 +42946,7 @@
       </c>
       <c r="BC230" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/96b6f12d-d86b-4cf1-8166-ab369a19e944/contrato-453185486.pdf?expires_on=1648599369&amp;signature=JUjO5CNV2AL17JW2vBNer0FbjIwSX7aVrIsY5JTBoys%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/96b6f12d-d86b-4cf1-8166-ab369a19e944/contrato-453185486.pdf?expires_on=1648651958&amp;signature=FY9txu65yARRcpXsN6Zexql0qoAjAHv7IIDPxh5j4a8%3D"]</t>
         </is>
       </c>
       <c r="BD230" t="inlineStr">
@@ -43097,7 +43097,7 @@
       <c r="BB231" t="inlineStr"/>
       <c r="BC231" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab040383-25f3-4f4a-8f99-b5c9bebf8cc5/contrato-447382712.pdf?expires_on=1648599369&amp;signature=BvLav01kyoQV%2B0yfVEQIdCu%2Bl226EYX8E62u3FZVrpU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab040383-25f3-4f4a-8f99-b5c9bebf8cc5/contrato-447382712.pdf?expires_on=1648651958&amp;signature=acrMWXHXOiorSlHHcUDrEWaTvhLhjhzJMY5wBpuPW9E%3D"]</t>
         </is>
       </c>
       <c r="BD231" t="inlineStr"/>
@@ -43283,7 +43283,7 @@
       <c r="BB232" t="inlineStr"/>
       <c r="BC232" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e22d2142-9a98-4f21-b6f1-aeadf1c84c62/contrato-451633873.pdf?expires_on=1648599369&amp;signature=EpIjBebZbAODK3q%2BqVeQSWZ9uDk5kocT0xArM941Cgc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e22d2142-9a98-4f21-b6f1-aeadf1c84c62/contrato-451633873.pdf?expires_on=1648651958&amp;signature=ac5mTOlIyB2PDXwKa4HWwfHYkepFr6LxsIlOCwmvbNY%3D"]</t>
         </is>
       </c>
       <c r="BD232" t="inlineStr"/>
@@ -43550,7 +43550,7 @@
       </c>
       <c r="BC233" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/229ba4e0-2e6d-4968-96c1-3d6e73f5c431/contrato-450949540.pdf?expires_on=1648599369&amp;signature=96N5FCVrl8JqRClxDFMoPItg5BeackjJbKnfjzw7Qkk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/229ba4e0-2e6d-4968-96c1-3d6e73f5c431/contrato-450949540.pdf?expires_on=1648651958&amp;signature=Q4%2BuH2BLK7Sxorrcu%2BPHhW1B8rYiRBo7rTw284V45FI%3D"]</t>
         </is>
       </c>
       <c r="BD233" t="inlineStr">
@@ -43816,7 +43816,7 @@
       <c r="BB234" t="inlineStr"/>
       <c r="BC234" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4b13dcea-d9b0-42a4-8960-51088edc6407/contrato-454454798.pdf?expires_on=1648599369&amp;signature=s24f5IS2xIZddO%2FQqKtQ5h%2FzkLTMfFA4LSXgpjPGEWk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4b13dcea-d9b0-42a4-8960-51088edc6407/contrato-454454798.pdf?expires_on=1648651958&amp;signature=7OtQGZBMnz0L8WhbGPSEGEQ6pRaL0t%2FznmsU8CLcOpM%3D"]</t>
         </is>
       </c>
       <c r="BD234" t="inlineStr">
@@ -44055,7 +44055,7 @@
       <c r="BB235" t="inlineStr"/>
       <c r="BC235" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7f3321fb-2829-4eb4-859a-c83e9616a6cd/contrato-455506168.pdf?expires_on=1648599369&amp;signature=DuIOa%2FRi1MMTILVfw9yhmzg6A0lO4O%2BA8Vjyn5Ie0To%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7f3321fb-2829-4eb4-859a-c83e9616a6cd/contrato-455506168.pdf?expires_on=1648651958&amp;signature=dSdErHZZDkVeG6WYDtSA93Slwh0zSiUkQhKnojZFZn0%3D"]</t>
         </is>
       </c>
       <c r="BD235" t="inlineStr">
@@ -44289,7 +44289,7 @@
       </c>
       <c r="BC236" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ea57abbd-b6e5-4eb0-b3e3-67dd25d7dd28/contrato-457144283.pdf?expires_on=1648599369&amp;signature=RV97SU3ZrSdeBECXvqJ3O0fkUk7Ct2GbJ6c15TfCGtw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ea57abbd-b6e5-4eb0-b3e3-67dd25d7dd28/contrato-457144283.pdf?expires_on=1648651958&amp;signature=c5sjHIPl5cWqOxkGaUxxkfmeOxZy49hDNLpoaIgiZ64%3D"]</t>
         </is>
       </c>
       <c r="BD236" t="inlineStr">
@@ -44550,7 +44550,7 @@
       </c>
       <c r="BC237" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5d39c650-3b38-41e6-a545-0da59cf764fc/contrato-447364331.pdf?expires_on=1648599369&amp;signature=ZnwjItLz3vAzG4Wgen%2Fi%2FzKn2Yf7wnkAif1%2BzsWopQs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5d39c650-3b38-41e6-a545-0da59cf764fc/contrato-447364331.pdf?expires_on=1648651958&amp;signature=LQmjj%2FlPF8RdAHg%2FIEzmkWWw%2B%2BwrrJBjgzNCjP%2FJL78%3D"]</t>
         </is>
       </c>
       <c r="BD237" t="inlineStr">
@@ -44705,7 +44705,7 @@
       <c r="BB238" t="inlineStr"/>
       <c r="BC238" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c294477-4e7b-4afd-aa7e-db5481666dd8/contrato-457138022.pdf?expires_on=1648599369&amp;signature=MT0HqAI%2BkBjMreKTVe8F%2B2wCSXt%2B6U6v7vdvhq%2B92VM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c294477-4e7b-4afd-aa7e-db5481666dd8/contrato-457138022.pdf?expires_on=1648651958&amp;signature=oHcU3%2Bqs7q3wM6MU37Je6veE2dgTQk5y9rWQ1Tj%2FUCE%3D"]</t>
         </is>
       </c>
       <c r="BD238" t="inlineStr"/>
@@ -44935,7 +44935,7 @@
       </c>
       <c r="BC239" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9a42c9f-29f4-46ce-8cbd-b5370dc6bc3c/contrato-456649095.pdf?expires_on=1648599369&amp;signature=GuV74ffx%2FFot4ya7P12Rqs1XyoXUQGXIUtultAsfUUU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9a42c9f-29f4-46ce-8cbd-b5370dc6bc3c/contrato-456649095.pdf?expires_on=1648651958&amp;signature=7tX%2BOe5ljKLxGxx4f9aEuCmaR1PwwroD3TPWq4dfTjg%3D"]</t>
         </is>
       </c>
       <c r="BD239" t="inlineStr">
@@ -45203,7 +45203,7 @@
       </c>
       <c r="BC240" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1c5244bf-e241-4890-8146-0db01b041ae9/contrato-454339926.pdf?expires_on=1648599369&amp;signature=BrQsK1wrG9%2BtIG4iDFqTTwoPgOBXt%2FTvVvitKF%2BDtS0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1c5244bf-e241-4890-8146-0db01b041ae9/contrato-454339926.pdf?expires_on=1648651958&amp;signature=rYXOZJ5%2BQj0pAedZhzwdORiGE5FAJYEdgNnDOBiFjFU%3D"]</t>
         </is>
       </c>
       <c r="BD240" t="inlineStr">
@@ -45382,7 +45382,7 @@
       <c r="BB241" t="inlineStr"/>
       <c r="BC241" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/891a5507-f384-4dfc-bfb2-46fa887380fc/contrato-457680240.pdf?expires_on=1648599369&amp;signature=m9MUR2ENNFTHsFCHCO%2BfA3Cf%2BofDVWN8hqYxjXoiA0A%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/891a5507-f384-4dfc-bfb2-46fa887380fc/contrato-457680240.pdf?expires_on=1648651958&amp;signature=LcIwTlSQyuczsARHADAM6IRF5sud%2BFP%2BWUHEzTbqWGo%3D"]</t>
         </is>
       </c>
       <c r="BD241" t="inlineStr"/>
@@ -45632,7 +45632,7 @@
       </c>
       <c r="BC242" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/03418e81-d6d0-40ab-a0ab-d4d541525833/contrato-457316233.pdf?expires_on=1648599369&amp;signature=ZFvEdlrNZ%2BEcUbuvBK1ZCpn%2FhiUx8GNDWDqPDxk4IVs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/03418e81-d6d0-40ab-a0ab-d4d541525833/contrato-457316233.pdf?expires_on=1648651958&amp;signature=ToRvJ9SdjGv%2FcutZHPFYIigIfX2EvFv4N2FDdiKvR%2Fc%3D"]</t>
         </is>
       </c>
       <c r="BD242" t="inlineStr"/>
@@ -45898,7 +45898,7 @@
       </c>
       <c r="BC243" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0aaafa12-b90e-4c89-9a6b-693a455e168b/contrato-455112943.pdf?expires_on=1648599369&amp;signature=F6lT86TjwBTjKwjGKHO%2B2a%2Bc5aCEQKmsOS4JjIrnhdI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0aaafa12-b90e-4c89-9a6b-693a455e168b/contrato-455112943.pdf?expires_on=1648651958&amp;signature=frSXCgOK8ezDXOSjltNlz06t5RkLS%2FbbYoEZqjrpdb4%3D"]</t>
         </is>
       </c>
       <c r="BD243" t="inlineStr">
@@ -46151,7 +46151,7 @@
       </c>
       <c r="BC244" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648599369&amp;signature=V6%2FzmayjZLN%2FQI91gvAEze%2B6SBoRpuennHf491UlBkE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648651958&amp;signature=01w%2BeXIxLuFSmT30y9etorUhhRVPuaNFJ%2BL1zcNVpI0%3D"]</t>
         </is>
       </c>
       <c r="BD244" t="inlineStr">
@@ -46391,7 +46391,7 @@
       </c>
       <c r="BC245" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca3eb7a8-fffd-44a2-ab2a-c6c95dc0c778/contrato-451875618.pdf?expires_on=1648599369&amp;signature=zNZVD80oW0pqWxv0VJjg%2FuiK5P%2BrCnzneiFg2Caf%2Bzk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca3eb7a8-fffd-44a2-ab2a-c6c95dc0c778/contrato-451875618.pdf?expires_on=1648651958&amp;signature=ZNxsntv5S5WWLS5ksFSxVeeO87TV27Bx8nR2f7N8U%2BQ%3D"]</t>
         </is>
       </c>
       <c r="BD245" t="inlineStr">
@@ -46546,7 +46546,7 @@
       <c r="BB246" t="inlineStr"/>
       <c r="BC246" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5288a216-9dbd-41c7-ae68-4bc787971bb9/contrato-460165669.pdf?expires_on=1648599369&amp;signature=JqF8YBlzbrJEJxJvFliC2bClrSJOaHc9Xn0k6IpnHOE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5288a216-9dbd-41c7-ae68-4bc787971bb9/contrato-460165669.pdf?expires_on=1648651958&amp;signature=rZT3H9lUEqsjxQi%2FcrJwgXEbu8pgFiagFHIAnLVx2us%3D"]</t>
         </is>
       </c>
       <c r="BD246" t="inlineStr"/>
@@ -46778,7 +46778,7 @@
       </c>
       <c r="BC247" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/eac3c176-95ed-47ce-a99b-ba9652805d9a/contrato-463205453.pdf?expires_on=1648599369&amp;signature=L%2BBGboJxmBY5oYQ9Ka5992BwhO7IDJxN58vZh8xnw28%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/eac3c176-95ed-47ce-a99b-ba9652805d9a/contrato-463205453.pdf?expires_on=1648651958&amp;signature=qeauzsPxB9quRD3NJuhEJR4XmpbOP%2FbTw%2Ffi6jY6VYc%3D"]</t>
         </is>
       </c>
       <c r="BD247" t="inlineStr">
@@ -47038,7 +47038,7 @@
       </c>
       <c r="BC248" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d9b4a37-6d1a-4f36-8542-f79ef866c85c/contrato-459114701.pdf?expires_on=1648599369&amp;signature=XLVaNKppdI8SL2MZ0K4VswOIByMos4iYUke%2Fs1P6UNo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7d9b4a37-6d1a-4f36-8542-f79ef866c85c/contrato-459114701.pdf?expires_on=1648651958&amp;signature=jTmm3lB39VIrmNcLlx8d319ndIvsqRwlP5Al9cLDowg%3D"]</t>
         </is>
       </c>
       <c r="BD248" t="inlineStr"/>
@@ -47265,7 +47265,7 @@
       <c r="BB249" t="inlineStr"/>
       <c r="BC249" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/091e7cd7-2b1a-400f-a24c-8acd0bfa3165/contrato-460771551.pdf?expires_on=1648599369&amp;signature=z3Damto59cm%2Bcwdd81ZMukz%2FPQJd2Eb8smwADBAHRSg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/091e7cd7-2b1a-400f-a24c-8acd0bfa3165/contrato-460771551.pdf?expires_on=1648651958&amp;signature=jT0sLQLQxtEQSpsPQAGwEL3t3HH90NfqdqE%2Blb3%2B5kI%3D"]</t>
         </is>
       </c>
       <c r="BD249" t="inlineStr">
@@ -47508,7 +47508,7 @@
       </c>
       <c r="BC250" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bd70790-381e-4c84-b56c-5dcc777b5c75/contrato-462711487.pdf?expires_on=1648599369&amp;signature=B7WIoRrKE%2FE%2BMPkdao%2FmzGGIb59VTGMEQtYYXpux%2FVM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bd70790-381e-4c84-b56c-5dcc777b5c75/contrato-462711487.pdf?expires_on=1648651958&amp;signature=XBD5So8HlhWqP8h1vsTPTpfdanJRJ9AjK1Wpu8wZ9Z8%3D"]</t>
         </is>
       </c>
       <c r="BD250" t="inlineStr">
@@ -47773,7 +47773,7 @@
       </c>
       <c r="BC251" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b4e8e37-084a-4092-b8c1-5af10820b7f5/contrato-461641423.pdf?expires_on=1648599369&amp;signature=V847qXw76E5TiA2xt0a2raFJuJo9u5hAlDazYAJQDSw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7b4e8e37-084a-4092-b8c1-5af10820b7f5/contrato-461641423.pdf?expires_on=1648651958&amp;signature=PhfPETeWYxdULGawjn2fNSnO9f%2FkUXyHEGZeoieQen0%3D"]</t>
         </is>
       </c>
       <c r="BD251" t="inlineStr">
@@ -47971,7 +47971,7 @@
       <c r="BB252" t="inlineStr"/>
       <c r="BC252" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a4f4a054-6cd7-4718-af0b-0a644358be16/contrato-460754565.pdf?expires_on=1648599371&amp;signature=mobhhxiOohf8vmbqWLD06%2FwWHFuuHAmDS3zChTAv8xE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a4f4a054-6cd7-4718-af0b-0a644358be16/contrato-460754565.pdf?expires_on=1648651959&amp;signature=q5WngKz5eY%2Fy092H6RjrxqMM5oVXgCR5P%2FXFlQDVPbo%3D"]</t>
         </is>
       </c>
       <c r="BD252" t="inlineStr"/>
@@ -48229,7 +48229,7 @@
       </c>
       <c r="BC253" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9b45555c-c083-4f93-bbe8-e8b2228ff82d/contrato-456657334.pdf?expires_on=1648599371&amp;signature=lR6N4tjx1CdOl0io4Q13%2FOrZk29FrTBVMjRM8DX0WwE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/9b45555c-c083-4f93-bbe8-e8b2228ff82d/contrato-456657334.pdf?expires_on=1648651959&amp;signature=v1E%2FSCpP6BAbYLmTgnuSYYxvSwwM9Opq9O%2BAdrRr3ts%3D"]</t>
         </is>
       </c>
       <c r="BD253" t="inlineStr">
@@ -48496,7 +48496,7 @@
       </c>
       <c r="BC254" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bfae2752-d944-46ff-9488-58ebfadf6cac/contrato-463218416.pdf?expires_on=1648599371&amp;signature=0ee%2FowSm7r%2FvN4DKANwKRNOw8x392FmIMxqr6Ni5y00%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bfae2752-d944-46ff-9488-58ebfadf6cac/contrato-463218416.pdf?expires_on=1648651959&amp;signature=TfE9mZdeOooJqqLd9iGr79yD7k2kBxevggSmhc0ysY8%3D"]</t>
         </is>
       </c>
       <c r="BD254" t="inlineStr">
@@ -48761,7 +48761,7 @@
       </c>
       <c r="BC255" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/913a0110-ee16-4e3d-85d0-a76188bb9125/contrato-461317094.pdf?expires_on=1648599371&amp;signature=vp2djO18pSq5FYpd71N9RQl77YatrjdJJK6J%2BKBe5Eo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/913a0110-ee16-4e3d-85d0-a76188bb9125/contrato-461317094.pdf?expires_on=1648651959&amp;signature=uTZAxrP9xM3Tc8a2K7sNK5ueyYORQAxiGpQJtuGrMbU%3D"]</t>
         </is>
       </c>
       <c r="BD255" t="inlineStr">
@@ -49027,7 +49027,7 @@
       </c>
       <c r="BC256" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05359369-6ca6-473c-bbe1-791d82d7704a/contrato-459852512.pdf?expires_on=1648599371&amp;signature=OLfw5w7L13a%2BoVWbqHQTWsFpecxC3bntZUpeWmOIyIo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05359369-6ca6-473c-bbe1-791d82d7704a/contrato-459852512.pdf?expires_on=1648651959&amp;signature=UZl0dzhRmXVunxWlzk4abRhYhlDuGEwLFjL3VYc8ifA%3D"]</t>
         </is>
       </c>
       <c r="BD256" t="inlineStr">
@@ -49267,7 +49267,7 @@
       </c>
       <c r="BC257" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b559b4b2-7c9d-40ac-befd-e322db60deac/contrato-462713960.pdf?expires_on=1648599371&amp;signature=40XsDaGpum7KCsHCyAVAPUlOUqFJsXfBC653IevNAhE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b559b4b2-7c9d-40ac-befd-e322db60deac/contrato-462713960.pdf?expires_on=1648651959&amp;signature=c8Ca3Ekobwh9HOxg7YlGE2POe9tZ3NbQLQ%2B1ShTuQBA%3D"]</t>
         </is>
       </c>
       <c r="BD257" t="inlineStr">
@@ -49564,7 +49564,7 @@
       </c>
       <c r="BC258" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9f78a1a-045f-4cc1-a740-a4ff06ef9e0d/contrato-462489239.pdf?expires_on=1648599371&amp;signature=TWxQHhuNDcy726DIF1qzzkvLIMeXQj0cbt7Jb64PR0w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d9f78a1a-045f-4cc1-a740-a4ff06ef9e0d/contrato-462489239.pdf?expires_on=1648651959&amp;signature=NcUio%2FxcGvxIKta%2BwQQbUyy5cui02n%2Bq3eYG8v2JAEw%3D"]</t>
         </is>
       </c>
       <c r="BD258" t="inlineStr">
@@ -49843,7 +49843,7 @@
       </c>
       <c r="BC259" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/80f9cf51-7941-468f-a31e-d646792fcf16/contrato-462495270.pdf?expires_on=1648599371&amp;signature=7AqYn8fNd56NJf9A7CYXYom2mya8l6KcbXuttISDovM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/80f9cf51-7941-468f-a31e-d646792fcf16/contrato-462495270.pdf?expires_on=1648651959&amp;signature=zeCn%2Fqv3KQBjQr2sjBeXkQuW2PAOnw7YOnGqE46AR4k%3D"]</t>
         </is>
       </c>
       <c r="BD259" t="inlineStr">
@@ -50135,7 +50135,7 @@
       </c>
       <c r="BC260" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6818eef4-a2bd-41d3-89f3-6aa207fe063a/contrato-463522281.pdf?expires_on=1648599371&amp;signature=ks%2BjPHaatw0Rn1r3PqGzhamaLfh5O7%2F2GDYJTKqY9Vk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6818eef4-a2bd-41d3-89f3-6aa207fe063a/contrato-463522281.pdf?expires_on=1648651959&amp;signature=VRh5LEmDbSsEEv8udyYATg4ZVHNAHWzVarYPdhngzwk%3D"]</t>
         </is>
       </c>
       <c r="BD260" t="inlineStr">
@@ -50367,7 +50367,7 @@
       </c>
       <c r="BC261" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648599371&amp;signature=57FeJ87herFkasn9prBFPKiKBU%2FZhMeZq2uEvsEdWuA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648651959&amp;signature=RXmsy%2BGTfwieq964FivZjtGEhWIgjzgTIF2Bca2FV1U%3D"]</t>
         </is>
       </c>
       <c r="BD261" t="inlineStr">
@@ -50599,7 +50599,7 @@
       </c>
       <c r="BC262" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648599371&amp;signature=57FeJ87herFkasn9prBFPKiKBU%2FZhMeZq2uEvsEdWuA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/707a7145-fd70-4b66-88b1-fedd694ccd9d/contrato-456751114.pdf?expires_on=1648651959&amp;signature=RXmsy%2BGTfwieq964FivZjtGEhWIgjzgTIF2Bca2FV1U%3D"]</t>
         </is>
       </c>
       <c r="BD262" t="inlineStr">
@@ -50845,7 +50845,7 @@
       </c>
       <c r="BC263" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/58770487-9da8-418d-b613-26d3f5b2deec/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648599371&amp;signature=9BFGAShl96Bj4dgJpP%2B4u%2BOBt9yUzJUEYvtZWzR4JP0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/58770487-9da8-418d-b613-26d3f5b2deec/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648651959&amp;signature=DpyYTSvhwW6hoFcgmhbfMkqzrH79SJOQHsa%2FykzA%2Frk%3D"]</t>
         </is>
       </c>
       <c r="BD263" t="inlineStr">
@@ -50997,7 +50997,7 @@
       <c r="BB264" t="inlineStr"/>
       <c r="BC264" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1102ac2b-23bb-4b57-a1af-072098340c29/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648599371&amp;signature=vFFm%2F6GfmvoXS8HUZNFx4qzHR4HOWF0IW0Iss%2BO%2FxJA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1102ac2b-23bb-4b57-a1af-072098340c29/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648651959&amp;signature=Cru4UjfW8SPoyRpIpDT4ttKS9BZNz94GjKtp870yqfM%3D"]</t>
         </is>
       </c>
       <c r="BD264" t="inlineStr"/>
@@ -51140,7 +51140,7 @@
       <c r="BB265" t="inlineStr"/>
       <c r="BC265" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5cbcacbb-ed61-4c08-9a09-05ba0bb266ce/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648599371&amp;signature=fA2xEBjyhDNC0kzhKVnYF4w4M1fsPPwkp7CFBNbmhMw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/5cbcacbb-ed61-4c08-9a09-05ba0bb266ce/54b768e4-767b-4d82-b270-d5afa7d18d10.pdf?expires_on=1648651959&amp;signature=34DYkijls4VZOyPhxkjGz0D8gdWH%2B8YIy5lHV9wr9Iw%3D"]</t>
         </is>
       </c>
       <c r="BD265" t="inlineStr"/>
@@ -51623,7 +51623,7 @@
       </c>
       <c r="BC267" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/31a02fcf-6248-46aa-a190-eea160264bfc/contrato-451875618.pdf?expires_on=1648599371&amp;signature=TqF38nNxL5Z0p0feyy5tw3TqIZO2jKDoOFrwL0OXLbo%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/31a02fcf-6248-46aa-a190-eea160264bfc/contrato-451875618.pdf?expires_on=1648651959&amp;signature=oJR91YODc%2FuJX1f2x%2FKi0Ixqi%2Bjni8LyCkzOhL2CF7s%3D"]</t>
         </is>
       </c>
       <c r="BD267" t="inlineStr">
@@ -51873,7 +51873,7 @@
       </c>
       <c r="BC268" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648599371&amp;signature=5RxoIIOkSQmB6IgjoJCMSc46JUhXHi5a2VgZQZALKhA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4747faf3-312c-4a2c-b5ae-1d36a7e10113/contrato-451875618.pdf?expires_on=1648651959&amp;signature=bEF2hWa9AZFOlXU3eWI4y5wHtPI9evun3zSbt%2FSQL8o%3D"]</t>
         </is>
       </c>
       <c r="BD268" t="inlineStr">
@@ -52114,7 +52114,7 @@
       </c>
       <c r="BC269" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/f3e08cd1-4c80-4080-9259-add478b13f6d/contrato-451875618.pdf?expires_on=1648599371&amp;signature=cG5VipK3ifSEyCF91HLfd6unNUQIIZheHH7H6YzsyhM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/f3e08cd1-4c80-4080-9259-add478b13f6d/contrato-451875618.pdf?expires_on=1648651959&amp;signature=cW4WXBjvhD%2FRgrZP0xKlfgasJA59s3CdOSL61IO9aqY%3D"]</t>
         </is>
       </c>
       <c r="BD269" t="inlineStr">
@@ -52347,7 +52347,7 @@
       </c>
       <c r="BC270" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648599371&amp;signature=ZPwqrsPpHsaMHdDe3vuk%2FxGrvzyVr0TExm%2FlPquckAQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648651959&amp;signature=hsWJsYz3QGKsK0c3aSEhigvpo2JA1%2FHM3hO6isCf8h8%3D"]</t>
         </is>
       </c>
       <c r="BD270" t="inlineStr">
@@ -52577,7 +52577,7 @@
       </c>
       <c r="BC271" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648599371&amp;signature=ZPwqrsPpHsaMHdDe3vuk%2FxGrvzyVr0TExm%2FlPquckAQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648651959&amp;signature=hsWJsYz3QGKsK0c3aSEhigvpo2JA1%2FHM3hO6isCf8h8%3D"]</t>
         </is>
       </c>
       <c r="BD271" t="inlineStr">
@@ -52732,7 +52732,7 @@
       <c r="BB272" t="inlineStr"/>
       <c r="BC272" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648599371&amp;signature=ZPwqrsPpHsaMHdDe3vuk%2FxGrvzyVr0TExm%2FlPquckAQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/107bcfb2-65f6-4921-b5c7-b5889f3f6ba8/contrato-463615692.pdf?expires_on=1648651959&amp;signature=hsWJsYz3QGKsK0c3aSEhigvpo2JA1%2FHM3hO6isCf8h8%3D"]</t>
         </is>
       </c>
       <c r="BD272" t="inlineStr"/>
@@ -53163,7 +53163,7 @@
       </c>
       <c r="BC274" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0b22c3f4-c287-493c-8a42-b2b4b125cf4e/contrato-463615692.pdf?expires_on=1648599371&amp;signature=K%2FEYFpRGxStLf467VgHEw5uXs5F%2BgpPaHLriiP8O4dQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/0b22c3f4-c287-493c-8a42-b2b4b125cf4e/contrato-463615692.pdf?expires_on=1648651959&amp;signature=vM8AREni2N15RoOKlPKvlZ8ci6TDpYd%2BQx6CMf5Fz10%3D"]</t>
         </is>
       </c>
       <c r="BD274" t="inlineStr">
@@ -53381,7 +53381,7 @@
       </c>
       <c r="BC275" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/70b7d4b0-b136-46f6-a690-559950ac0ce4/contrato-463615692.pdf?expires_on=1648599371&amp;signature=OOOXAteYqSOGxgTNv2zwsoiSF6exuucpABSJP9aXa3g%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/70b7d4b0-b136-46f6-a690-559950ac0ce4/contrato-463615692.pdf?expires_on=1648651959&amp;signature=IAGcAwGo0gFtDfc3tC%2BVbTbqAcfquktKDGlUy%2B3Jav4%3D"]</t>
         </is>
       </c>
       <c r="BD275" t="inlineStr">
@@ -53634,7 +53634,7 @@
       </c>
       <c r="BC276" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/80111067-ae18-4c45-b482-6238e4b8617c/contrato-451875618.pdf?expires_on=1648599371&amp;signature=iLtFZSLYAPnVR1gWOzQC6VUewHOXYx4fxQxfGnoNnDg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/80111067-ae18-4c45-b482-6238e4b8617c/contrato-451875618.pdf?expires_on=1648651959&amp;signature=qHdobFZWG7UC9NsTpBqJseMEEWzDZXFjfLBe8SyASvw%3D"]</t>
         </is>
       </c>
       <c r="BD276" t="inlineStr">
@@ -53886,7 +53886,7 @@
       </c>
       <c r="BC277" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c0e6946-68ce-4128-9c22-6200d9ad0d51/contrato-463987505.pdf?expires_on=1648599371&amp;signature=wzNpveaNkPCuTMGFgy2YpkpHtvFMTPQvY6A9sTl1COg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2c0e6946-68ce-4128-9c22-6200d9ad0d51/contrato-463987505.pdf?expires_on=1648651959&amp;signature=au5hS2uy81MQ%2FRx5fcGgCG8D6mzsN%2FG7bel4owCr%2FUw%3D"]</t>
         </is>
       </c>
       <c r="BD277" t="inlineStr">
@@ -54162,7 +54162,7 @@
       </c>
       <c r="BC278" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0cef41d6-b4e8-4ed0-b492-aaa7d4f8a354/contrato-463709590.pdf?expires_on=1648599371&amp;signature=4nxLTn6B29xFdZ0ZYE9gW6TZBLaH5avMaWRhA1OalEk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0cef41d6-b4e8-4ed0-b492-aaa7d4f8a354/contrato-463709590.pdf?expires_on=1648651959&amp;signature=r8DOwsTC3%2BmZm1xMk4JdxcjtwB2gj7dnH2f5ueuDTkI%3D"]</t>
         </is>
       </c>
       <c r="BD278" t="inlineStr">
@@ -54405,7 +54405,7 @@
       </c>
       <c r="BC279" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/39a23952-51a5-4e98-815b-b37a7a82afbc/contrato-463313350.pdf?expires_on=1648599371&amp;signature=qyN7ptWnBoQO5ckNp1v5%2FzGc8wO1alp9gJDE45W2%2F%2Bw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/39a23952-51a5-4e98-815b-b37a7a82afbc/contrato-463313350.pdf?expires_on=1648651959&amp;signature=5qJJMCoG%2BRrc3Jj8osAAznS0DOLCznlRccrUWue%2FzP8%3D"]</t>
         </is>
       </c>
       <c r="BD279" t="inlineStr">
@@ -54660,7 +54660,7 @@
       </c>
       <c r="BC280" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b19aad01-76fa-459a-9216-f808d0e2f884/contrato-465174361.pdf?expires_on=1648599371&amp;signature=zaO8ms67opjHGIvcurQOTr3KYZ4vAphAgeuzm3i8PiU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/b19aad01-76fa-459a-9216-f808d0e2f884/contrato-465174361.pdf?expires_on=1648651959&amp;signature=PiMB20zh71aaAtVXqGYRRbTTpS%2BETNxIMSBFWg%2FxBWQ%3D"]</t>
         </is>
       </c>
       <c r="BD280" t="inlineStr">
@@ -54895,7 +54895,7 @@
       </c>
       <c r="BC281" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648599371&amp;signature=pPpMWYS81G1h4f27VWXz5TThnl2x5xW1A78t6iw42%2F8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648651959&amp;signature=5TUl9nft%2F13YtwZ%2FGrUUTUk%2B8vMqTEOrkzTdRnqYwE0%3D"]</t>
         </is>
       </c>
       <c r="BD281" t="inlineStr">
@@ -55138,7 +55138,7 @@
       </c>
       <c r="BC282" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648599371&amp;signature=pPpMWYS81G1h4f27VWXz5TThnl2x5xW1A78t6iw42%2F8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648651959&amp;signature=5TUl9nft%2F13YtwZ%2FGrUUTUk%2B8vMqTEOrkzTdRnqYwE0%3D"]</t>
         </is>
       </c>
       <c r="BD282" t="inlineStr">
@@ -55369,7 +55369,7 @@
       </c>
       <c r="BC283" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648599371&amp;signature=pPpMWYS81G1h4f27VWXz5TThnl2x5xW1A78t6iw42%2F8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f80ddb0e-e5ba-4682-bee5-474020430e00/contrato-463717668.pdf?expires_on=1648651959&amp;signature=5TUl9nft%2F13YtwZ%2FGrUUTUk%2B8vMqTEOrkzTdRnqYwE0%3D"]</t>
         </is>
       </c>
       <c r="BD283" t="inlineStr">
@@ -55613,7 +55613,7 @@
       </c>
       <c r="BC284" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcd6263c-cdc7-4c3a-8bb7-867dba3890d0/contrato-464989787.pdf?expires_on=1648599371&amp;signature=lAAuVH%2BUgwqrLmRhrKRZL2ug5tKmvVyJAPuDVv6V%2Bh8%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fcd6263c-cdc7-4c3a-8bb7-867dba3890d0/contrato-464989787.pdf?expires_on=1648651959&amp;signature=Lkkosx17cTeheKU0dl%2BQSO%2FgEM4wderjsunHhTEP05o%3D"]</t>
         </is>
       </c>
       <c r="BD284" t="inlineStr">
@@ -55898,7 +55898,7 @@
       </c>
       <c r="BC285" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/244dd39f-d2f9-45a3-8583-477bf65ea77f/contrato-465747038.pdf?expires_on=1648599371&amp;signature=ytLHCcpeA09O1H%2FyF0VcQWUmbBrBXPiiDKfBHS3ux8Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/244dd39f-d2f9-45a3-8583-477bf65ea77f/contrato-465747038.pdf?expires_on=1648651959&amp;signature=iG4biw5wgIRdlYqiSHwbZ1qIDGAuhHhDa9nMh5br6AY%3D"]</t>
         </is>
       </c>
       <c r="BD285" t="inlineStr">
@@ -56163,7 +56163,7 @@
       </c>
       <c r="BC286" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/feaa77d2-a55f-44bc-a8d6-847aa20ce4d6/contrato-463177961.pdf?expires_on=1648599371&amp;signature=d2%2FBllzwQoM0B66mTieKfHQ1G13lUGcUAvubOATy1ZY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/feaa77d2-a55f-44bc-a8d6-847aa20ce4d6/contrato-463177961.pdf?expires_on=1648651959&amp;signature=wdHmuxdlMcHStjR386tkcJp7Kv0dkt3l3sP5dVNIqrc%3D"]</t>
         </is>
       </c>
       <c r="BD286" t="inlineStr">
@@ -56450,7 +56450,7 @@
       </c>
       <c r="BC287" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e3059013-bd68-4dde-9b8d-6950a0570496/contrato-468828319.pdf?expires_on=1648599371&amp;signature=kBQ0ohdVA0elZ7wMbfIn6zl3SC9JI%2Bhwc3O7cppJAuA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/e3059013-bd68-4dde-9b8d-6950a0570496/contrato-468828319.pdf?expires_on=1648651959&amp;signature=yhin6mMSivkdnuoSZDQkeASBocX98DGD7pmPAGZdTfA%3D"]</t>
         </is>
       </c>
       <c r="BD287" t="inlineStr">
@@ -56678,7 +56678,7 @@
       </c>
       <c r="BC288" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648599371&amp;signature=%2FXILUGdPKMDSI4y9alZ0WWjHRpEb%2Bqupza6ZOVRmc98%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648651959&amp;signature=w4FXcfiZSv8xab%2FI9Y9kcN8AIK8Cr8ssQJJqrLEJ3B0%3D"]</t>
         </is>
       </c>
       <c r="BD288" t="inlineStr">
@@ -56910,7 +56910,7 @@
       </c>
       <c r="BC289" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648599371&amp;signature=%2FXILUGdPKMDSI4y9alZ0WWjHRpEb%2Bqupza6ZOVRmc98%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648651959&amp;signature=w4FXcfiZSv8xab%2FI9Y9kcN8AIK8Cr8ssQJJqrLEJ3B0%3D"]</t>
         </is>
       </c>
       <c r="BD289" t="inlineStr">
@@ -57138,7 +57138,7 @@
       </c>
       <c r="BC290" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648599371&amp;signature=%2FXILUGdPKMDSI4y9alZ0WWjHRpEb%2Bqupza6ZOVRmc98%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2ee7690a-9dd2-4666-9495-d3056a96c7ac/contrato-466761651.pdf?expires_on=1648651959&amp;signature=w4FXcfiZSv8xab%2FI9Y9kcN8AIK8Cr8ssQJJqrLEJ3B0%3D"]</t>
         </is>
       </c>
       <c r="BD290" t="inlineStr">
@@ -57362,7 +57362,7 @@
       </c>
       <c r="BC291" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca2d632f-7d59-41ef-a6e2-120406635cf3/contrato-466761651.pdf?expires_on=1648599371&amp;signature=eCtGIpuDjc7rsQBptg7dojipP9bR%2F5tf9lzSxvsNrZI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/ca2d632f-7d59-41ef-a6e2-120406635cf3/contrato-466761651.pdf?expires_on=1648651959&amp;signature=JQ6eucULBjR41j%2B7mB0FdRG3BvY%2FlulEKY7LCxda5B4%3D"]</t>
         </is>
       </c>
       <c r="BD291" t="inlineStr">
@@ -57586,7 +57586,7 @@
       </c>
       <c r="BC292" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/fb850cfc-0639-4992-8429-2583971f2f57/contrato-466761651.pdf?expires_on=1648599371&amp;signature=3reB9BC%2Bxr0aaUbWX6nO9GyNkrqijC%2FPGl3cb%2F%2FccyA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/fb850cfc-0639-4992-8429-2583971f2f57/contrato-466761651.pdf?expires_on=1648651959&amp;signature=VJI4QirHbaQBy6eoOWhYPOoKNBdJzTRt5APRsvb4HPw%3D"]</t>
         </is>
       </c>
       <c r="BD292" t="inlineStr">
@@ -57814,7 +57814,7 @@
       </c>
       <c r="BC293" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648599371&amp;signature=96KGal33cUqW7%2FL5WdypT7a7h488AasCzGPD2mejMfI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648651959&amp;signature=26Qofrn6hbDn82z%2FuO14iKqMjcAtwthkV6HCTVHLN%2F0%3D"]</t>
         </is>
       </c>
       <c r="BD293" t="inlineStr">
@@ -58042,7 +58042,7 @@
       </c>
       <c r="BC294" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648599371&amp;signature=96KGal33cUqW7%2FL5WdypT7a7h488AasCzGPD2mejMfI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648651959&amp;signature=26Qofrn6hbDn82z%2FuO14iKqMjcAtwthkV6HCTVHLN%2F0%3D"]</t>
         </is>
       </c>
       <c r="BD294" t="inlineStr">
@@ -58270,7 +58270,7 @@
       </c>
       <c r="BC295" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648599371&amp;signature=96KGal33cUqW7%2FL5WdypT7a7h488AasCzGPD2mejMfI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/296638fd-3209-4902-bc8a-f8a01c06366e/contrato-465874860.pdf?expires_on=1648651959&amp;signature=26Qofrn6hbDn82z%2FuO14iKqMjcAtwthkV6HCTVHLN%2F0%3D"]</t>
         </is>
       </c>
       <c r="BD295" t="inlineStr">
@@ -58494,7 +58494,7 @@
       </c>
       <c r="BC296" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/bdc20416-c523-43fd-9354-066ace0c80aa/contrato-465874860.pdf?expires_on=1648599371&amp;signature=H0x2IzwDNec1jROLS%2FugF1bkI7nTAPlxX%2F06yByfpUQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/bdc20416-c523-43fd-9354-066ace0c80aa/contrato-465874860.pdf?expires_on=1648651959&amp;signature=stu4fctjrGX7KX96KuAaw25GXqqLmhnoMuMzX0kaTdo%3D"]</t>
         </is>
       </c>
       <c r="BD296" t="inlineStr">
@@ -58722,7 +58722,7 @@
       </c>
       <c r="BC297" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/27654372-8667-4580-873e-6a95b96bc6c0/contrato-465874860.pdf?expires_on=1648599371&amp;signature=XGG2Y2J7hch46D3uG0QrhTlxallDBKeHiI0AAqGKewU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/27654372-8667-4580-873e-6a95b96bc6c0/contrato-465874860.pdf?expires_on=1648651959&amp;signature=HA9j8ovB6oMjfv4YXvK8o0ZN8qGiJmcHlr1q%2Foebq30%3D"]</t>
         </is>
       </c>
       <c r="BD297" t="inlineStr">
@@ -59009,7 +59009,7 @@
       </c>
       <c r="BC298" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aef69f69-2213-487c-b998-dc0d06df06ca/contrato-468417266.pdf?expires_on=1648599371&amp;signature=c5ZQZWuA1YwJnR7zV1aTJuLkjUeYjnGraGWuoXp%2BQzE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aef69f69-2213-487c-b998-dc0d06df06ca/contrato-468417266.pdf?expires_on=1648651959&amp;signature=Wdxc35laZCVTxEL6oDCLXlEsc2gfX1Nrk5gPgrZYJoQ%3D"]</t>
         </is>
       </c>
       <c r="BD298" t="inlineStr">
@@ -59304,7 +59304,7 @@
       </c>
       <c r="BC299" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/19b191f4-531b-4c40-9473-90a6fe13bf72/contrato-465732783.pdf?expires_on=1648599371&amp;signature=vYOH64ORUq5c8ErTtcTECC6NE0gnk9xz8BpZll0mcuA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/19b191f4-531b-4c40-9473-90a6fe13bf72/contrato-465732783.pdf?expires_on=1648651959&amp;signature=5O5PCtlDD2sPxO%2BQ4CND%2FvE1QP2e4U4%2FDXTvv7tdoQU%3D"]</t>
         </is>
       </c>
       <c r="BD299" t="inlineStr"/>
@@ -59551,7 +59551,7 @@
       </c>
       <c r="BC300" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4a6bb469-2355-431c-a0fc-ecc09e4568c0/contrato-469017842.pdf?expires_on=1648599371&amp;signature=l2z6No76lVnbpO6zdL8oilNfzxcPHHo6cRx%2BeUU%2Fccg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4a6bb469-2355-431c-a0fc-ecc09e4568c0/contrato-469017842.pdf?expires_on=1648651959&amp;signature=nRxEdAJXjTlblKW6uWj7ttpvVfeTLv1Us0ehFza44Wg%3D"]</t>
         </is>
       </c>
       <c r="BD300" t="inlineStr">
@@ -59779,7 +59779,7 @@
       </c>
       <c r="BC301" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bf514f31-4854-4dec-ba24-970a10a3b04a/contrato-468749675.pdf?expires_on=1648599371&amp;signature=n02L4lXME9jOQNzFdUy82404rp5RBuw%2F%2BcHoWrlXwvY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bf514f31-4854-4dec-ba24-970a10a3b04a/contrato-468749675.pdf?expires_on=1648651959&amp;signature=RiS0LFgsZ831wdjsbY5Up0KBQKKGomGUMWE%2BSnzPy9Q%3D"]</t>
         </is>
       </c>
       <c r="BD301" t="inlineStr"/>
@@ -60006,7 +60006,7 @@
       </c>
       <c r="BC302" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a89ef8e4-1e31-4af4-a852-de71d21b0ad5/contrato-467365901.pdf?expires_on=1648599372&amp;signature=yJl7y1010fB8lk6Xyf3j2f9sSYtokbbQjWa2S2rJWYI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/a89ef8e4-1e31-4af4-a852-de71d21b0ad5/contrato-467365901.pdf?expires_on=1648651961&amp;signature=sbFAhephN72Cchdz%2F5Tehla%2BJrawFRdsk2yqEDk1faM%3D"]</t>
         </is>
       </c>
       <c r="BD302" t="inlineStr">
@@ -60237,7 +60237,7 @@
       </c>
       <c r="BC303" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648599372&amp;signature=0%2Bhln37f1kS9FvtAIdKiHbBpmADTs4QkEqCmmLYJ7Hs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648651961&amp;signature=YmTSGhHk9JJaEY2YHEKaaLrMBqNH1naxbN5PRbEz4Jc%3D"]</t>
         </is>
       </c>
       <c r="BD303" t="inlineStr">
@@ -60476,7 +60476,7 @@
       </c>
       <c r="BC304" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648599372&amp;signature=0%2Bhln37f1kS9FvtAIdKiHbBpmADTs4QkEqCmmLYJ7Hs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/4f63837c-d018-4e6d-b499-a7cae0f30eba/contrato-468196615.pdf?expires_on=1648651961&amp;signature=YmTSGhHk9JJaEY2YHEKaaLrMBqNH1naxbN5PRbEz4Jc%3D"]</t>
         </is>
       </c>
       <c r="BD304" t="inlineStr">
@@ -60726,7 +60726,7 @@
       </c>
       <c r="BC305" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648599372&amp;signature=kPrjsITyFwqIqbw9LT%2BYxFSWtQc7Ou8ylOTrUnLjjKc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648651961&amp;signature=%2FjikzLm4OcFnK9a1I2Ia05G8lTUy1N9aM%2FLhpBwbczA%3D"]</t>
         </is>
       </c>
       <c r="BD305" t="inlineStr">
@@ -60996,7 +60996,7 @@
       </c>
       <c r="BC306" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648599372&amp;signature=kPrjsITyFwqIqbw9LT%2BYxFSWtQc7Ou8ylOTrUnLjjKc%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aa725005-6663-4c59-80a9-9a3145a8f468/contrato-466551561.pdf?expires_on=1648651961&amp;signature=%2FjikzLm4OcFnK9a1I2Ia05G8lTUy1N9aM%2FLhpBwbczA%3D"]</t>
         </is>
       </c>
       <c r="BD306" t="inlineStr">
@@ -61255,7 +61255,7 @@
       </c>
       <c r="BC307" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3754db2c-7916-4b3d-a8ea-238579541e60/contrato-466091729.pdf?expires_on=1648599372&amp;signature=E03HRGapqa6IagJ1T0R1A9Hlrw34u9GDtRJUMw3B%2B%2F4%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3754db2c-7916-4b3d-a8ea-238579541e60/contrato-466091729.pdf?expires_on=1648651961&amp;signature=GorkfD%2Fay8bFmxQWlE%2FA6nTG84Txc33p35lNy8HxHSs%3D"]</t>
         </is>
       </c>
       <c r="BD307" t="inlineStr">
@@ -61517,7 +61517,7 @@
       </c>
       <c r="BC308" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0a5d9c43-fbc3-4f00-9d0c-c97f9edf1d25/contrato-469013309.pdf?expires_on=1648599372&amp;signature=5HpaGrxC6%2B1ZEt1KHiXtLXsT4udd2gNT8uqLpd8lGIk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0a5d9c43-fbc3-4f00-9d0c-c97f9edf1d25/contrato-469013309.pdf?expires_on=1648651961&amp;signature=aRDdMXoXf8ONg%2FSjyzQ7ywpoiQvaDGjqeZqqMTC%2BkGQ%3D"]</t>
         </is>
       </c>
       <c r="BD308" t="inlineStr">
@@ -61706,7 +61706,7 @@
       <c r="BB309" t="inlineStr"/>
       <c r="BC309" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/50ef0e33-98ed-47e0-9846-36c019aa57ea/contrato-469054289.pdf?expires_on=1648599372&amp;signature=dFulKDFaE5TpgzBNnOvbZCltGxnLotlMVr17Sg0ie4w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/50ef0e33-98ed-47e0-9846-36c019aa57ea/contrato-469054289.pdf?expires_on=1648651961&amp;signature=WIO2BXiYnRqI34NQO5U0snggtxsgalaB1zYQWOgns0c%3D"]</t>
         </is>
       </c>
       <c r="BD309" t="inlineStr"/>
@@ -61947,7 +61947,7 @@
       </c>
       <c r="BC310" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/185bf35f-fd66-4ba8-a529-81de3bfbb3a3/contrato-469071097.pdf?expires_on=1648599372&amp;signature=vPK6VScVGRne1GZ2BA%2BllXF%2BVvdMJ2o5K9luO1VTiaU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/185bf35f-fd66-4ba8-a529-81de3bfbb3a3/contrato-469071097.pdf?expires_on=1648651961&amp;signature=EySmfLX6yOi0xqYwMeZVGBkI8ChvlDe7j28kzRbtZaA%3D"]</t>
         </is>
       </c>
       <c r="BD310" t="inlineStr">
@@ -62197,7 +62197,7 @@
       </c>
       <c r="BC311" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/70cd35c1-9a99-4580-8c08-08a2024e0d64/contrato-469770285.pdf?expires_on=1648599372&amp;signature=ScBGuzeo7wRsCClBWMM6CDQXnydBD%2FjvjGxLnDLNpRQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/70cd35c1-9a99-4580-8c08-08a2024e0d64/contrato-469770285.pdf?expires_on=1648651961&amp;signature=KrAY9mZb2bub2ee%2Ffgb9UxYZXehkOE0sHu89kz4I1OE%3D"]</t>
         </is>
       </c>
       <c r="BD311" t="inlineStr">
@@ -62446,7 +62446,7 @@
       </c>
       <c r="BC312" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8857045d-e847-458c-abca-e72faa3c26d2/contrato-468050467.pdf?expires_on=1648599372&amp;signature=CNPBZrofYTP4WuXRsbj8GzBlmLiR7xEMbuRUA5cGEIM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8857045d-e847-458c-abca-e72faa3c26d2/contrato-468050467.pdf?expires_on=1648651961&amp;signature=mUgA4QhU0NqbwMa9WdVp%2B9RdggWWhwcSFr17ruSpw0M%3D"]</t>
         </is>
       </c>
       <c r="BD312" t="inlineStr">
@@ -62704,7 +62704,7 @@
       </c>
       <c r="BC313" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3f13f0d4-96be-458f-9b19-ff0ce401522d/contrato-464585309.pdf?expires_on=1648599372&amp;signature=fhoKErTCr1JYYL3A7wnzbO6U6ijgzJWFcY5Ni6N%2B4io%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/3f13f0d4-96be-458f-9b19-ff0ce401522d/contrato-464585309.pdf?expires_on=1648651961&amp;signature=9Vmq4mTm9rB77wqqB4Bua2WxmcN82daWHllExYmZ85k%3D"]</t>
         </is>
       </c>
       <c r="BD313" t="inlineStr">
@@ -62855,7 +62855,7 @@
       <c r="BB314" t="inlineStr"/>
       <c r="BC314" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648599372&amp;signature=wXIdQQs7%2BfnLGuLdaeFBtu%2Fz2mOlZXXVhUBYukUyE6Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648651961&amp;signature=%2FSfPa6WrXgGG1vi18WaigJ7BhGK0OAEYpgiUa2xulzc%3D"]</t>
         </is>
       </c>
       <c r="BD314" t="inlineStr"/>
@@ -62998,7 +62998,7 @@
       <c r="BB315" t="inlineStr"/>
       <c r="BC315" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648599372&amp;signature=wXIdQQs7%2BfnLGuLdaeFBtu%2Fz2mOlZXXVhUBYukUyE6Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648651961&amp;signature=%2FSfPa6WrXgGG1vi18WaigJ7BhGK0OAEYpgiUa2xulzc%3D"]</t>
         </is>
       </c>
       <c r="BD315" t="inlineStr"/>
@@ -63141,7 +63141,7 @@
       <c r="BB316" t="inlineStr"/>
       <c r="BC316" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648599372&amp;signature=wXIdQQs7%2BfnLGuLdaeFBtu%2Fz2mOlZXXVhUBYukUyE6Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8c881552-cfdb-414c-bd54-4430e99e0958/contrato-473263681.pdf?expires_on=1648651961&amp;signature=%2FSfPa6WrXgGG1vi18WaigJ7BhGK0OAEYpgiUa2xulzc%3D"]</t>
         </is>
       </c>
       <c r="BD316" t="inlineStr"/>
@@ -63390,7 +63390,7 @@
       </c>
       <c r="BC317" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d639fc49-28e1-478f-bc28-7a6b97aa8941/contrato-462515224.pdf?expires_on=1648599372&amp;signature=pUannVBASyU9OHx85FCjTqGmC5CF%2FwG3juXK61RD3Hs%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d639fc49-28e1-478f-bc28-7a6b97aa8941/contrato-462515224.pdf?expires_on=1648651961&amp;signature=DctytVNWMz4jDqOpYSQKYGh%2BdChEFaS1I%2Fh6T8TXTVk%3D"]</t>
         </is>
       </c>
       <c r="BD317" t="inlineStr">
@@ -63677,7 +63677,7 @@
       </c>
       <c r="BC318" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1fe600c3-ec6d-4287-a1c4-2b977d20a2e2/contrato-484250141.pdf?expires_on=1648599372&amp;signature=bUqlp%2FDNI58aqqb4pyfPSrrTrdQ4pq616fxSur%2B5%2Fpw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1fe600c3-ec6d-4287-a1c4-2b977d20a2e2/contrato-484250141.pdf?expires_on=1648651961&amp;signature=jm8mkvCjIyTPJCzfrTCYoN8feAgJggBFryDo4OtEC1Y%3D"]</t>
         </is>
       </c>
       <c r="BD318" t="inlineStr">
@@ -63947,7 +63947,7 @@
       </c>
       <c r="BC319" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0bacb28e-4ef6-4a4a-883b-e8fb6ab8d2b5/contrato-482339095.pdf?expires_on=1648599372&amp;signature=DUPyoTEdSEi8zdcw8UrHqI4yFR0y0gGioQYITO0nj%2BE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0bacb28e-4ef6-4a4a-883b-e8fb6ab8d2b5/contrato-482339095.pdf?expires_on=1648651961&amp;signature=8%2F9fM1CasHUEgwDPHEhp7%2F4DwkflwGpmptkTWJROhzk%3D"]</t>
         </is>
       </c>
       <c r="BD319" t="inlineStr">
@@ -64179,7 +64179,7 @@
       </c>
       <c r="BC320" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05c6218a-69e4-4bc7-8f9b-b7f3ecb0e4cf/contrato-468313813.pdf?expires_on=1648599372&amp;signature=kTk56yWdukItos8yAIdljB8KvTZ9qBjsDbErC1%2FYYVY%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/05c6218a-69e4-4bc7-8f9b-b7f3ecb0e4cf/contrato-468313813.pdf?expires_on=1648651961&amp;signature=qQiP7cPwjMvIIVaml4LCXhcsMCD%2F8WDmH1IarDb4qrQ%3D"]</t>
         </is>
       </c>
       <c r="BD320" t="inlineStr">
@@ -64435,7 +64435,7 @@
       </c>
       <c r="BC321" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648599372&amp;signature=ZxwbXDpJKBWwn3ZRz%2B6ps5rHpuTfvUaby%2BIV7WaejSM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648651961&amp;signature=B1xwOIR7LBBvnwgThz3yMqp3vFvUOzRkDb5aUInpYzQ%3D"]</t>
         </is>
       </c>
       <c r="BD321" t="inlineStr">
@@ -64675,7 +64675,7 @@
       </c>
       <c r="BC322" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f7c95abb-2c62-40c2-8f73-70dfbe465d23/contrato-483891911.pdf?expires_on=1648599372&amp;signature=aNQE4Kbq41fG1tjg%2FEb7AlT5KLcjYHNw1TVZdWzcT0Y%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f7c95abb-2c62-40c2-8f73-70dfbe465d23/contrato-483891911.pdf?expires_on=1648651961&amp;signature=L2EdwJh9hNy7zSichGPsjE4FGkj4lCUiYEPKi3WG2R4%3D"]</t>
         </is>
       </c>
       <c r="BD322" t="inlineStr"/>
@@ -64929,7 +64929,7 @@
       </c>
       <c r="BC323" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648599372&amp;signature=ZxwbXDpJKBWwn3ZRz%2B6ps5rHpuTfvUaby%2BIV7WaejSM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/aec4f49f-6020-4125-b7b4-d48b80200cf5/contrato-483896515.pdf?expires_on=1648651961&amp;signature=B1xwOIR7LBBvnwgThz3yMqp3vFvUOzRkDb5aUInpYzQ%3D"]</t>
         </is>
       </c>
       <c r="BD323" t="inlineStr">
@@ -65174,7 +65174,7 @@
       </c>
       <c r="BC324" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8ff5e065-1ee7-431d-8c96-c5e59d697ba6/contrato-482326201.pdf?expires_on=1648599372&amp;signature=Uhg4J57VeFSgsro42ocQz0qpP7JWzdMZEn34N0%2FNzxg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/8ff5e065-1ee7-431d-8c96-c5e59d697ba6/contrato-482326201.pdf?expires_on=1648651961&amp;signature=MCuRGMa8YmTOezti0gW1IlwnD6YTJ22ghnrIz4his7g%3D"]</t>
         </is>
       </c>
       <c r="BD324" t="inlineStr">
@@ -65409,7 +65409,7 @@
       </c>
       <c r="BC325" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f613b665-fd00-40fd-a3a2-ec7d27fcd97c/contrato-481095700.pdf?expires_on=1648599372&amp;signature=NNFJXoxv7wYTUMmpwQxVDaO0v3I1mAEQAQiQEsh84Ik%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f613b665-fd00-40fd-a3a2-ec7d27fcd97c/contrato-481095700.pdf?expires_on=1648651961&amp;signature=ePVP67AiX%2BH4HAHmId2FXRwmOGJbEN1%2Bg57%2B9DzFDZw%3D"]</t>
         </is>
       </c>
       <c r="BD325" t="inlineStr">
@@ -65652,7 +65652,7 @@
       </c>
       <c r="BC326" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/907727b0-8360-4977-96b6-865f3e02abc4/contrato-482929161.pdf?expires_on=1648599372&amp;signature=C7zhRlpz4xYyEY235oLUb%2Fg5JgLDjY2myply04thLFk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/907727b0-8360-4977-96b6-865f3e02abc4/contrato-482929161.pdf?expires_on=1648651961&amp;signature=qAO8LJGsmZG3b5q7vNyQLQmgl3mEvAXYRpTzjk3R1Pk%3D"]</t>
         </is>
       </c>
       <c r="BD326" t="inlineStr">
@@ -65883,7 +65883,7 @@
       </c>
       <c r="BC327" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0274f89a-4915-4f57-94d7-ddc0ed81d0d5/contrato-489420064.pdf?expires_on=1648599372&amp;signature=LbRO6qFrdTCbmuBqPOE60XFdLilWG4HtsfYz64rWoZk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/0274f89a-4915-4f57-94d7-ddc0ed81d0d5/contrato-489420064.pdf?expires_on=1648651961&amp;signature=%2F%2F5n05%2FzS%2Bs%2ByVETh%2FTDQ5pP1NqbcU%2FE%2Fjs%2BxY1MOeI%3D"]</t>
         </is>
       </c>
       <c r="BD327" t="inlineStr">
@@ -66134,7 +66134,7 @@
       </c>
       <c r="BC328" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6458e3f4-3af4-417b-84e3-181c3ba8c011/contrato-490074673.pdf?expires_on=1648599372&amp;signature=bUiaAxqJ1Qn7Laon3ypDQ1M4wqVmvn%2Fy51T93la5fWQ%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6458e3f4-3af4-417b-84e3-181c3ba8c011/contrato-490074673.pdf?expires_on=1648651961&amp;signature=kHvG0stYnk5scjydGAuLpfuqhcrBDvNwsfsZoVhTfPg%3D"]</t>
         </is>
       </c>
       <c r="BD328" t="inlineStr">
@@ -66423,7 +66423,7 @@
       </c>
       <c r="BC329" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/268c2abe-ccfe-422f-959f-9e36a73ba21d/contrato-490721834.pdf?expires_on=1648599372&amp;signature=JKMPsOMKsmKJOyfH7HxSmJjx23bKrPCNxhzb7YNfG5Q%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/268c2abe-ccfe-422f-959f-9e36a73ba21d/contrato-490721834.pdf?expires_on=1648651961&amp;signature=xC7wR4gn5Yd9vQcD3koHG%2FDXRRtrCnAbYb1RXLc3Wlc%3D"]</t>
         </is>
       </c>
       <c r="BD329" t="inlineStr">
@@ -66705,7 +66705,7 @@
       </c>
       <c r="BC330" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7cd39b4e-44a7-49f2-8847-c0f7ba78d7c0/contrato-487326575.pdf?expires_on=1648599372&amp;signature=4FJM0KZ2QPsNxCM%2Fle9caM7RJ24B7ettx1F243%2FYcrM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7cd39b4e-44a7-49f2-8847-c0f7ba78d7c0/contrato-487326575.pdf?expires_on=1648651961&amp;signature=wStnA6MHKn3xu%2Fv9%2FVrCQ%2BwJdaoWNIbe583JVcf5DSI%3D"]</t>
         </is>
       </c>
       <c r="BD330" t="inlineStr"/>
@@ -66856,7 +66856,7 @@
       <c r="BB331" t="inlineStr"/>
       <c r="BC331" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fa0eed8a-9f4b-4e8c-866f-8f78db2c5a27/contrato-490012314.pdf?expires_on=1648599372&amp;signature=b2prrIrxfJrBTLtYfEMsEU0cH1tm9wHK83Jif5zf9TI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/fa0eed8a-9f4b-4e8c-866f-8f78db2c5a27/contrato-490012314.pdf?expires_on=1648651961&amp;signature=2BDiEdntxkuqgc6RL1bL3qdh99wKqU5Rr9CwEK%2BM7Bo%3D"]</t>
         </is>
       </c>
       <c r="BD331" t="inlineStr"/>
@@ -67094,7 +67094,7 @@
       </c>
       <c r="BC332" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2f604b6b-78fa-478c-999d-5b05501f32b1/contrato-488220629.pdf?expires_on=1648599372&amp;signature=9r5aTWqqSs9l9KdIQxr10BJGca9Ke0Mc7QpfDazhQ64%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/2f604b6b-78fa-478c-999d-5b05501f32b1/contrato-488220629.pdf?expires_on=1648651961&amp;signature=0baLWuQjqQ%2F1dzrLmqsB%2FLi63hwRnNeq1XVHUAIFPCg%3D"]</t>
         </is>
       </c>
       <c r="BD332" t="inlineStr">
@@ -67358,7 +67358,7 @@
       </c>
       <c r="BC333" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab61a519-69b0-48c4-ab25-12dd9fac4d45/contrato-488653944.pdf?expires_on=1648599372&amp;signature=hJgIaMlk5BN1LgWJc4sG096q%2BapFNVP17B3M8%2FkVCOg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/ab61a519-69b0-48c4-ab25-12dd9fac4d45/contrato-488653944.pdf?expires_on=1648651961&amp;signature=Kz0YmXV8KljHZQ2v2ag6kb4xBLeBcg3DA44L3wHEXhY%3D"]</t>
         </is>
       </c>
       <c r="BD333" t="inlineStr">
@@ -67621,7 +67621,7 @@
       </c>
       <c r="BC334" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/36b4ad0f-61e5-4b55-8fe2-a3c77319e967/contrato-491949690.pdf?expires_on=1648599372&amp;signature=hqposaSRI%2Br50Rp0tP%2FfbkRN2S%2BnvdNfUExFc7bcyXE%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/36b4ad0f-61e5-4b55-8fe2-a3c77319e967/contrato-491949690.pdf?expires_on=1648651961&amp;signature=wLqFJo83kIWNued%2FftRZ4dCMmBn8ZXJS2TRIFhweGUQ%3D"]</t>
         </is>
       </c>
       <c r="BD334" t="inlineStr">
@@ -67894,7 +67894,7 @@
       </c>
       <c r="BC335" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f11b2835-3a83-43cd-a12c-5c4487c60815/contrato-495929206.pdf?expires_on=1648599372&amp;signature=JqHGofhfwaIhzKnjsfIAbnqgyf8MXlAOhCUY5nri53w%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/f11b2835-3a83-43cd-a12c-5c4487c60815/contrato-495929206.pdf?expires_on=1648651961&amp;signature=pr9QSA2H6hFcEH9kI4H3XT3hQgUp1JXMjYZEGMB5j%2F8%3D"]</t>
         </is>
       </c>
       <c r="BD335" t="inlineStr">
@@ -68135,7 +68135,7 @@
       </c>
       <c r="BC336" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648599372&amp;signature=1AYgRknYqDNFAb%2FcquCSx1EF6yrtyViHiSGTxKsbvt0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648651961&amp;signature=hzkDChBJNk0kXgXvntOI%2FeWDKvPEiLwNbI3JpP%2F4mFI%3D"]</t>
         </is>
       </c>
       <c r="BD336" t="inlineStr">
@@ -68393,7 +68393,7 @@
       </c>
       <c r="BC337" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5168106c-16c5-4cc5-b014-fc5309064660/contrato-491297142.pdf?expires_on=1648599372&amp;signature=8jphfUpm2BHlQ33HOoEbw1b8LPFX%2BJutZOXl3nbf7MA%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5168106c-16c5-4cc5-b014-fc5309064660/contrato-491297142.pdf?expires_on=1648651961&amp;signature=SAvf5uTv6auzFEHpa%2FIYtNLieQFrhjQKafqAE5Ljgfo%3D"]</t>
         </is>
       </c>
       <c r="BD337" t="inlineStr">
@@ -68628,7 +68628,7 @@
       </c>
       <c r="BC338" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bb74b6e-6ec6-4133-bdb0-78f75d46bcbb/contrato-493467702.pdf?expires_on=1648599372&amp;signature=SOmj9gwAoAtPU7gxlUp3uMF1UFgtvxZz4nbG2ckOipw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/6bb74b6e-6ec6-4133-bdb0-78f75d46bcbb/contrato-493467702.pdf?expires_on=1648651961&amp;signature=L7xHNMDdWizTLWo2zOWMvBNeoQPfIWuIrJBl%2BCe5vjw%3D"]</t>
         </is>
       </c>
       <c r="BD338" t="inlineStr">
@@ -68783,7 +68783,7 @@
       <c r="BB339" t="inlineStr"/>
       <c r="BC339" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648599372&amp;signature=1AYgRknYqDNFAb%2FcquCSx1EF6yrtyViHiSGTxKsbvt0%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/bd94c98a-879c-4375-8cb2-41f997ac833a/contrato-489877583.pdf?expires_on=1648651961&amp;signature=hzkDChBJNk0kXgXvntOI%2FeWDKvPEiLwNbI3JpP%2F4mFI%3D"]</t>
         </is>
       </c>
       <c r="BD339" t="inlineStr"/>
@@ -69020,7 +69020,7 @@
       </c>
       <c r="BC340" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d44c791d-49dc-4141-88a5-6cd9f5661c1e/contrato-496263774.pdf?expires_on=1648599372&amp;signature=mnfiVc3osrRVLZYMUjSCaW4z1U66qaBUYW8p8jl5iyw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d44c791d-49dc-4141-88a5-6cd9f5661c1e/contrato-496263774.pdf?expires_on=1648651961&amp;signature=LtuBn3CjQGbZFt7aoi1haXwNEkrF4XCFgEiQDCnflng%3D"]</t>
         </is>
       </c>
       <c r="BD340" t="inlineStr">
@@ -69259,7 +69259,7 @@
       </c>
       <c r="BC341" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/cf077f2c-8ef0-4846-8321-d54f66ebe604/contrato-484319529.pdf?expires_on=1648599372&amp;signature=AYsCU9Q8KssQKHhO7L0Ip9uj03Vkhc%2FNNDcl6jm5JkI%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/cf077f2c-8ef0-4846-8321-d54f66ebe604/contrato-484319529.pdf?expires_on=1648651961&amp;signature=NFp28rv8UX45R6PlM7HqCf91pDV1GYSjUvMqJeWpE%2BE%3D"]</t>
         </is>
       </c>
       <c r="BD341" t="inlineStr">
@@ -69505,7 +69505,7 @@
       </c>
       <c r="BC342" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5f666ea2-5c15-47b0-bec7-57697febef24/contrato-491061351.pdf?expires_on=1648599372&amp;signature=nQJNjnFh9vl6ecA8nUuPtT1SmbVyjdnI26jTgMMeiDk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/5f666ea2-5c15-47b0-bec7-57697febef24/contrato-491061351.pdf?expires_on=1648651961&amp;signature=ES%2B7mhJi%2BTEsSt7t2ybZshYoaLn26qBA9HkDzJhor8o%3D"]</t>
         </is>
       </c>
       <c r="BD342" t="inlineStr">
@@ -69752,7 +69752,7 @@
       </c>
       <c r="BC343" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bbe80b1-78b2-4aba-a33a-454d3861e38f/contrato-499250516.pdf?expires_on=1648599372&amp;signature=x%2BjEGcSN2jqxgilqQA9MCkNPFP0gFRGIAq%2FwAyDg4Sg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/1bbe80b1-78b2-4aba-a33a-454d3861e38f/contrato-499250516.pdf?expires_on=1648651961&amp;signature=M4%2FxFqFJb6b9sMsqUwdJ8RmUUGs9iY94eoRNlLMYh%2B4%3D"]</t>
         </is>
       </c>
       <c r="BD343" t="inlineStr"/>
@@ -69994,7 +69994,7 @@
       </c>
       <c r="BC344" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/46144cc6-1699-48b9-a042-cb99f86003ed/contrato-500811506.pdf?expires_on=1648599372&amp;signature=joMqv4sGbFaSzBb6zBkZb6VTxF8yzTWzLAIlYUYY2%2Bg%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/46144cc6-1699-48b9-a042-cb99f86003ed/contrato-500811506.pdf?expires_on=1648651961&amp;signature=mUVkbFizUsQhKHvfg5s1SJiSXLd%2F4fJ0iBASNl%2BNDIc%3D"]</t>
         </is>
       </c>
       <c r="BD344" t="inlineStr">
@@ -70141,7 +70141,7 @@
       <c r="BB345" t="inlineStr"/>
       <c r="BC345" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1308dcb9-8896-4c49-a9a8-79e3e12f3d07/contrato-460165669.pdf?expires_on=1648599372&amp;signature=S%2FX4mq%2BVZScf%2BQw23SjMmGIogpFb2uZ7an1IgXQK7YU%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/uploads/1308dcb9-8896-4c49-a9a8-79e3e12f3d07/contrato-460165669.pdf?expires_on=1648651961&amp;signature=j%2BGdwl1VhVWbWOKrOuBqzlYu2ym9YDSfTVAs4SQsH6U%3D"]</t>
         </is>
       </c>
       <c r="BD345" t="inlineStr"/>
@@ -70372,7 +70372,7 @@
       <c r="BB346" t="inlineStr"/>
       <c r="BC346" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d10b59c7-0ab0-4cea-a2a8-656115e4c21f/contrato-500346265.pdf?expires_on=1648599372&amp;signature=5t4hUHhSHsi%2FsV0kMLHMeTLQSlCKJ6JNs4kGegIOknM%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/d10b59c7-0ab0-4cea-a2a8-656115e4c21f/contrato-500346265.pdf?expires_on=1648651961&amp;signature=4kMt2ln3oyYRs8QWSlqRWvyUgNHNwvfZyRTo1yOA5es%3D"]</t>
         </is>
       </c>
       <c r="BD346" t="inlineStr">
@@ -70623,7 +70623,7 @@
       </c>
       <c r="BC347" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7ca55b57-892c-464f-af2a-fdad38dbbc9a/contrato-495796837.pdf?expires_on=1648599372&amp;signature=vFo5mPtwg1Zox%2FKhorV6lpT9%2B9NGMEczNrdDJLStYCw%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/7ca55b57-892c-464f-af2a-fdad38dbbc9a/contrato-495796837.pdf?expires_on=1648651961&amp;signature=em4SNa1QnhPMRz1cEgKBtZy5eR7wgHH%2FlVJMWGXUb60%3D"]</t>
         </is>
       </c>
       <c r="BD347" t="inlineStr"/>
@@ -70770,7 +70770,7 @@
       <c r="BB348" t="inlineStr"/>
       <c r="BC348" t="inlineStr">
         <is>
-          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/13ad6059-3657-4255-bdd0-5a1632b79da7/contrato-496195905.pdf?expires_on=1648599372&amp;signature=EV3BrQL%2FphzcWpGNt%2B0lzj8vkEc6luG%2B1mFchpyPdwk%3D"]</t>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/13ad6059-3657-4255-bdd0-5a1632b79da7/contrato-496195905.pdf?expires_on=1648651961&amp;signature=kHJId6rp84wX8eUWkLf02EsLdjW%2BaYAhLtbZdsunG5o%3D"]</t>
         </is>
       </c>
       <c r="BD348" t="inlineStr"/>
@@ -70783,6 +70783,498 @@
       <c r="BG348" t="inlineStr">
         <is>
           <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>513814180</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>P352</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>["508583061"]</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Rua Marcus Aurélio Homem</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>Ap 103 - bl A</t>
+        </is>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>88040-440</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>Carvoeira</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Condominio Colinas de Marinella</t>
+        </is>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>Não há necessidade de cadastro</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr"/>
+      <c r="U349" t="inlineStr"/>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W349" t="inlineStr"/>
+      <c r="X349" t="inlineStr"/>
+      <c r="Y349" t="inlineStr"/>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>Nada</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>Há elevador</t>
+        </is>
+      </c>
+      <c r="AB349" t="inlineStr"/>
+      <c r="AC349" t="inlineStr">
+        <is>
+          <t>Lei do silencio</t>
+        </is>
+      </c>
+      <c r="AD349" t="inlineStr"/>
+      <c r="AE349" t="inlineStr">
+        <is>
+          <t>["441037073"]</t>
+        </is>
+      </c>
+      <c r="AF349" t="inlineStr"/>
+      <c r="AG349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH349" t="inlineStr">
+        <is>
+          <t>Plano Claro  / Velocidade 350 MB / Usuário : Ap103 / Senha: 4F7E7206</t>
+        </is>
+      </c>
+      <c r="AI349" t="inlineStr"/>
+      <c r="AJ349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AK349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AL349" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AM349" t="inlineStr"/>
+      <c r="AN349" t="inlineStr"/>
+      <c r="AO349" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AQ349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AR349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AS349" t="inlineStr"/>
+      <c r="AT349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AU349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AV349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AW349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AX349" t="inlineStr"/>
+      <c r="AY349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AZ349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BA349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BB349" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BC349" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/81ed773a-cbcc-4032-a685-0e4208245773/contrato-508086823.pdf?expires_on=1648651961&amp;signature=LdLD0K%2BvmZLm9Y%2BmVnQC64dfQQgIMeCGFtVH50ti3eM%3D"]</t>
+        </is>
+      </c>
+      <c r="BD349" t="inlineStr">
+        <is>
+          <t>Vaga fica no subsolo, número 9</t>
+        </is>
+      </c>
+      <c r="BE349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF349" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BG349" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>513815171</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>["501739954"]</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>P396</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>["509570424"]</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Rua da Baliza</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>Ap 101 - Cond. Solar dos Reis</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>88056-070</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>Cachoeira do Bom Jesus</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Solar dos Reis</t>
+        </is>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>não precisa.</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr"/>
+      <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X350" t="inlineStr"/>
+      <c r="Y350" t="inlineStr"/>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>A localização privilegiada, ficando a 350 metros da praia. É um condomínio simples, mas muito bem estruturado e organizado.</t>
+        </is>
+      </c>
+      <c r="AA350" t="inlineStr">
+        <is>
+          <t>Escada, não tem elevador.</t>
+        </is>
+      </c>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr">
+        <is>
+          <t>O portão de pedestre é acessado através de uma senha que é 757575.</t>
+        </is>
+      </c>
+      <c r="AD350" t="inlineStr"/>
+      <c r="AE350" t="inlineStr">
+        <is>
+          <t>["450737340"]</t>
+        </is>
+      </c>
+      <c r="AF350" t="inlineStr"/>
+      <c r="AG350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AH350" t="inlineStr">
+        <is>
+          <t>CLARO 200mg
+Login: AP 101
+Senha: 11071981</t>
+        </is>
+      </c>
+      <c r="AI350" t="inlineStr"/>
+      <c r="AJ350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AK350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AL350" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AM350" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN350" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO350" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AQ350" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AR350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AS350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AT350" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AU350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AV350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AW350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AX350" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="AY350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="AZ350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BA350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BB350" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BC350" t="inlineStr">
+        <is>
+          <t>["https://app-storage-service.pipefy.com/v1/signed/orgs/9b681dee-07c9-4c2b-89b2-faa36a20fd8b/uploads/dcd61e84-0c69-4a78-9fc5-ad26107700e3/contrato-509551831.pdf?expires_on=1648651961&amp;signature=Pmm%2Bka5tHX9IsIJVUAZbM%2FWVYlsW380TYpDZCvmAt1Y%3D"]</t>
+        </is>
+      </c>
+      <c r="BD350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A vaga fica logo na entrada do prédio a direita, esta marcado no chão o número 101. </t>
+        </is>
+      </c>
+      <c r="BE350" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="BF350" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="BG350" t="inlineStr">
+        <is>
+          <t>37</t>
         </is>
       </c>
     </row>
